--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03384F3-14FF-4A10-9D45-03272AE78869}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180E56A-3AFE-4015-9799-25638DFBE3C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$Q$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$Q$269</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PREBENEFITS_Temp!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
   </definedNames>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10003" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="766">
   <si>
     <t>name</t>
   </si>
@@ -17975,9 +17974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29724,11 +29723,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29807,28 +29806,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>394</v>
+        <v>669</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>86</v>
+        <v>586</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>85</v>
+        <v>612</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>249</v>
+        <v>611</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>91</v>
+        <v>744</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>61</v>
@@ -29839,47 +29838,46 @@
       <c r="K2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>366</v>
+      <c r="L2" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q2" s="31"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>415</v>
+        <v>672</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>109</v>
+        <v>588</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>108</v>
+        <v>613</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>295</v>
+        <v>764</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>115</v>
+        <v>747</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>61</v>
@@ -29894,43 +29892,42 @@
         <v>43</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="O3" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="31"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>489</v>
+        <v>673</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>183</v>
+        <v>588</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>183</v>
+        <v>613</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>304</v>
+        <v>764</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>186</v>
+        <v>748</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>61</v>
@@ -29945,10 +29942,10 @@
         <v>43</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="O4" s="27" t="s">
         <v>321</v>
@@ -29956,32 +29953,31 @@
       <c r="P4" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>490</v>
+        <v>674</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>183</v>
+        <v>588</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>183</v>
+        <v>613</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>304</v>
+        <v>764</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>187</v>
+        <v>749</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>61</v>
@@ -29996,43 +29992,42 @@
         <v>43</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O5" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="31"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>491</v>
+        <v>675</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>183</v>
+        <v>588</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>183</v>
+        <v>613</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>304</v>
+        <v>764</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>188</v>
+        <v>750</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>61</v>
@@ -30047,43 +30042,42 @@
         <v>43</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O6" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P6" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q6" s="31"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>492</v>
+        <v>676</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>183</v>
+        <v>588</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>183</v>
+        <v>613</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>304</v>
+        <v>764</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>189</v>
+        <v>751</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>61</v>
@@ -30098,43 +30092,42 @@
         <v>43</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O7" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q7" s="31"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>493</v>
+        <v>679</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>183</v>
+        <v>590</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>183</v>
+        <v>614</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>304</v>
+        <v>765</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>190</v>
+        <v>754</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>61</v>
@@ -30149,10 +30142,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="O8" s="27" t="s">
         <v>321</v>
@@ -30160,32 +30153,31 @@
       <c r="P8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>496</v>
+        <v>680</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>191</v>
+        <v>590</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>192</v>
+        <v>614</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>305</v>
+        <v>765</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>194</v>
+        <v>755</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>61</v>
@@ -30200,10 +30192,10 @@
         <v>43</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="O9" s="27" t="s">
         <v>321</v>
@@ -30211,32 +30203,31 @@
       <c r="P9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>191</v>
+        <v>590</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>192</v>
+        <v>614</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>305</v>
+        <v>765</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>138</v>
+        <v>756</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>61</v>
@@ -30251,43 +30242,42 @@
         <v>43</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O10" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="31"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>498</v>
+        <v>682</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>191</v>
+        <v>590</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>192</v>
+        <v>614</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>305</v>
+        <v>765</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>195</v>
+        <v>757</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>61</v>
@@ -30302,43 +30292,42 @@
         <v>43</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O11" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q11" s="31"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>499</v>
+        <v>683</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>191</v>
+        <v>590</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>192</v>
+        <v>614</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>305</v>
+        <v>765</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I12" s="27" t="s">
         <v>61</v>
@@ -30353,4959 +30342,15 @@
         <v>43</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O12" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="31"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="31"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="31"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>507</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="31"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>512</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>514</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="31"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>517</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25" s="31"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>520</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>521</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28" s="31"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>526</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G31" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>527</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="31"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>528</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I33" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q33" s="31"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>531</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" s="31"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>532</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" s="31"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q36" s="31"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>534</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q37" s="31"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>535</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" s="31"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q39" s="31"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" s="31"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q41" s="31"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>541</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q42" s="31"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I43" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43" s="31"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>545</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q44" s="31"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I45" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="31"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>561</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I46" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q46" s="31"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I47" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="31"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>549</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I48" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q48" s="31"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49" s="31"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>553</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q50" s="31"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I51" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q51" s="31"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I52" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q52" s="31"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q53" s="31"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>557</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G54" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q54" s="31"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="G55" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q55" s="31"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>595</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>688</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>596</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I57" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>598</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>567</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>758</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>689</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I60" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>616</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>692</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I61" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>617</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I62" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>618</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>759</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>623</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I66" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>624</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>700</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I67" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>625</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>701</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I68" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>626</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I69" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>630</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="F71" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I71" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>631</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I72" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>632</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I73" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>633</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="G74" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I74" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I75" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="G76" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="H76" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>714</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I77" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="G78" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I78" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>640</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="F79" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>761</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I80" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="G81" s="27" t="s">
-        <v>720</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I81" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="G82" s="27" t="s">
-        <v>721</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I82" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="G83" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I83" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K83" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L83" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N83" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O83" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P83" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="G84" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I84" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L84" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N84" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O84" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P84" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>762</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="H85" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I85" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J85" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K85" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M85" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N85" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O85" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P85" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>651</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>726</v>
-      </c>
-      <c r="H86" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I86" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K86" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L86" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M86" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N86" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O86" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P86" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>652</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>727</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I87" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J87" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N87" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O87" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P87" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>653</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="H88" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I88" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K88" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L88" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N88" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O88" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P88" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>654</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I89" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K89" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L89" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M89" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N89" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P89" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>609</v>
-      </c>
-      <c r="F90" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="G90" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="H90" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I90" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J90" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K90" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L90" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N90" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O90" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P90" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>658</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F91" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>733</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J91" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K91" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L91" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M91" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N91" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O91" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P91" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F92" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="G92" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I92" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K92" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L92" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M92" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N92" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O92" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P92" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F93" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="G93" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J93" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L93" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M93" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N93" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O93" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P93" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="H94" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I94" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J94" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K94" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L94" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M94" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N94" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O94" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P94" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
-        <v>662</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F95" s="28" t="s">
-        <v>763</v>
-      </c>
-      <c r="G95" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I95" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J95" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K95" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L95" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M95" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N95" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O95" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P95" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
-        <v>665</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F96" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G96" s="27" t="s">
-        <v>740</v>
-      </c>
-      <c r="H96" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I96" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J96" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K96" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L96" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M96" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N96" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O96" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P96" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
-        <v>666</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F97" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G97" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="H97" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I97" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J97" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K97" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L97" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M97" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N97" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O97" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P97" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F98" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I98" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J98" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K98" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L98" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M98" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N98" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O98" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P98" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G99" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I99" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J99" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K99" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L99" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M99" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N99" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O99" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P99" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>612</v>
-      </c>
-      <c r="F100" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I100" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J100" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K100" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L100" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M100" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N100" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O100" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P100" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
-        <v>672</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F101" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G101" s="27" t="s">
-        <v>747</v>
-      </c>
-      <c r="H101" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I101" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J101" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K101" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L101" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M101" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N101" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O101" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P101" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F102" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>748</v>
-      </c>
-      <c r="H102" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I102" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J102" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K102" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L102" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M102" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N102" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O102" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P102" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F103" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G103" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I103" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J103" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K103" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L103" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M103" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N103" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O103" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P103" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F104" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="H104" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I104" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J104" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K104" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L104" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M104" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N104" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O104" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P104" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F105" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="H105" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I105" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J105" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K105" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L105" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M105" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N105" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O105" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P105" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F106" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G106" s="27" t="s">
-        <v>754</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I106" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J106" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K106" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L106" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M106" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N106" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O106" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P106" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F107" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I107" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J107" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K107" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L107" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M107" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N107" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O107" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P107" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F108" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G108" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="H108" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I108" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J108" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L108" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M108" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N108" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O108" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P108" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I109" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J109" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K109" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L109" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M109" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N109" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O109" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P109" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F110" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G110" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H110" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I110" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J110" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K110" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L110" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M110" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N110" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O110" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P110" s="27" t="s">
         <v>44</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180E56A-3AFE-4015-9799-25638DFBE3C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2BFCDD-EAD7-41F6-9362-1AFE29F979F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8435" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8291" uniqueCount="766">
   <si>
     <t>name</t>
   </si>
@@ -29723,11 +29723,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29806,28 +29806,28 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>611</v>
+        <v>764</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>61</v>
@@ -29842,21 +29842,21 @@
         <v>43</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>321</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>7</v>
@@ -29865,16 +29865,16 @@
         <v>287</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>313</v>
@@ -29901,456 +29901,6 @@
         <v>321</v>
       </c>
       <c r="P3" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>673</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>748</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>588</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>679</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>754</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>680</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>317</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>682</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>765</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>321</v>
-      </c>
-      <c r="P12" s="27" t="s">
         <v>44</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2BFCDD-EAD7-41F6-9362-1AFE29F979F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6018F-7FF8-4C56-B7CB-CE05C25D5952}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
     <sheet name="PREBENEFITS_UAT" sheetId="11" r:id="rId5"/>
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$Q$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$Q$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
   </definedNames>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8291" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8291" uniqueCount="764">
   <si>
     <t>name</t>
   </si>
@@ -2148,9 +2151,6 @@
     <t>$83.09*</t>
   </si>
   <si>
-    <t>$113.9*</t>
-  </si>
-  <si>
     <t>$46.95*</t>
   </si>
   <si>
@@ -2166,30 +2166,12 @@
     <t>$92.75*</t>
   </si>
   <si>
-    <t>$119*</t>
-  </si>
-  <si>
-    <t>$166*</t>
-  </si>
-  <si>
-    <t>$136.5*</t>
-  </si>
-  <si>
-    <t>$52*</t>
-  </si>
-  <si>
     <t>$91.75*</t>
   </si>
   <si>
-    <t>$106.5*</t>
-  </si>
-  <si>
     <t>$87.36*</t>
   </si>
   <si>
-    <t>$135.4*</t>
-  </si>
-  <si>
     <t>$167.88*</t>
   </si>
   <si>
@@ -2229,21 +2211,9 @@
     <t>$115.75*</t>
   </si>
   <si>
-    <t>$173*</t>
-  </si>
-  <si>
     <t>$212.75*</t>
   </si>
   <si>
-    <t>$168.5*</t>
-  </si>
-  <si>
-    <t>$61*</t>
-  </si>
-  <si>
-    <t>$120.5*</t>
-  </si>
-  <si>
     <t>$151.75*</t>
   </si>
   <si>
@@ -2256,30 +2226,12 @@
     <t>$196.45*</t>
   </si>
   <si>
-    <t>$156.9*</t>
-  </si>
-  <si>
     <t>$62.57*</t>
   </si>
   <si>
-    <t>$112.8*</t>
-  </si>
-  <si>
-    <t>$147.1*</t>
-  </si>
-  <si>
     <t>$223.25*</t>
   </si>
   <si>
-    <t>$259.5*</t>
-  </si>
-  <si>
-    <t>$215.5*</t>
-  </si>
-  <si>
-    <t>$78.5*</t>
-  </si>
-  <si>
     <t>$143.25*</t>
   </si>
   <si>
@@ -2304,30 +2256,15 @@
     <t>$97.04*</t>
   </si>
   <si>
-    <t>$111.6*</t>
-  </si>
-  <si>
     <t>$129.25*</t>
   </si>
   <si>
-    <t>$186.5*</t>
-  </si>
-  <si>
     <t>$235.25*</t>
   </si>
   <si>
-    <t>$179.5*</t>
-  </si>
-  <si>
     <t>$69.25*</t>
   </si>
   <si>
-    <t>$123.5*</t>
-  </si>
-  <si>
-    <t>$167*</t>
-  </si>
-  <si>
     <t>$81.87*</t>
   </si>
   <si>
@@ -2389,6 +2326,66 @@
   </si>
   <si>
     <t>73101</t>
+  </si>
+  <si>
+    <t>$166.00*</t>
+  </si>
+  <si>
+    <t>$52.00*</t>
+  </si>
+  <si>
+    <t>$61.00*</t>
+  </si>
+  <si>
+    <t>$136.50*</t>
+  </si>
+  <si>
+    <t>$106.50*</t>
+  </si>
+  <si>
+    <t>$168.50*</t>
+  </si>
+  <si>
+    <t>$120.50*</t>
+  </si>
+  <si>
+    <t>$156.90*</t>
+  </si>
+  <si>
+    <t>$112.80*</t>
+  </si>
+  <si>
+    <t>$147.10*</t>
+  </si>
+  <si>
+    <t>$259.50*</t>
+  </si>
+  <si>
+    <t>$215.50*</t>
+  </si>
+  <si>
+    <t>$78.50*</t>
+  </si>
+  <si>
+    <t>$179.50*</t>
+  </si>
+  <si>
+    <t>$111.60*</t>
+  </si>
+  <si>
+    <t>$119.00*</t>
+  </si>
+  <si>
+    <t>$186.50*</t>
+  </si>
+  <si>
+    <t>$173.00*</t>
+  </si>
+  <si>
+    <t>$135.40*</t>
+  </si>
+  <si>
+    <t>$113.90*</t>
   </si>
 </sst>
 </file>
@@ -2706,6 +2703,155 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>MS201</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>MS202</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>MS203</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>MS204</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>MS205</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MS215</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>MS216</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MS217</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>MS218</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>MS219</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MS236</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>MS237</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>MS238</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>MS239</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>MS240</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>MS250</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>MS251</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>MS252</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>MS253</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>MS254</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>MS257</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>MS258</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>MS260</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>MS261</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>MS259</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4290,11 +4436,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
-  <dimension ref="A1:Q269"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F253" sqref="F253"/>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:Q269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,9 +4454,9 @@
     <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="206.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="170.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="138.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" customWidth="1"/>
+    <col min="10" max="10" width="47.5703125" customWidth="1"/>
+    <col min="11" max="11" width="63.140625" customWidth="1"/>
     <col min="12" max="12" width="56.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="44" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42.42578125" bestFit="1" customWidth="1"/>
@@ -4318,7 +4465,7 @@
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>367</v>
       </c>
@@ -4371,7 +4518,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>368</v>
       </c>
@@ -4421,8 +4568,12 @@
         <v>41</v>
       </c>
       <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="e">
+        <f>VLOOKUP(A2,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>369</v>
       </c>
@@ -4472,8 +4623,12 @@
         <v>44</v>
       </c>
       <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="e">
+        <f>VLOOKUP(A3,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>370</v>
       </c>
@@ -4523,8 +4678,12 @@
         <v>44</v>
       </c>
       <c r="Q4" s="31"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="e">
+        <f>VLOOKUP(A4,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>371</v>
       </c>
@@ -4574,8 +4733,12 @@
         <v>44</v>
       </c>
       <c r="Q5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="e">
+        <f>VLOOKUP(A5,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>372</v>
       </c>
@@ -4625,8 +4788,12 @@
         <v>53</v>
       </c>
       <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="e">
+        <f>VLOOKUP(A6,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>373</v>
       </c>
@@ -4676,8 +4843,12 @@
         <v>54</v>
       </c>
       <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" t="e">
+        <f>VLOOKUP(A7,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>374</v>
       </c>
@@ -4727,8 +4898,12 @@
         <v>44</v>
       </c>
       <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="e">
+        <f>VLOOKUP(A8,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>375</v>
       </c>
@@ -4778,8 +4953,12 @@
         <v>41</v>
       </c>
       <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" t="e">
+        <f>VLOOKUP(A9,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>376</v>
       </c>
@@ -4829,8 +5008,12 @@
         <v>44</v>
       </c>
       <c r="Q10" s="31"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="e">
+        <f>VLOOKUP(A10,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>377</v>
       </c>
@@ -4880,8 +5063,12 @@
         <v>44</v>
       </c>
       <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" t="e">
+        <f>VLOOKUP(A11,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>378</v>
       </c>
@@ -4931,8 +5118,12 @@
         <v>44</v>
       </c>
       <c r="Q12" s="31"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="e">
+        <f>VLOOKUP(A12,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>379</v>
       </c>
@@ -4982,8 +5173,12 @@
         <v>53</v>
       </c>
       <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" t="e">
+        <f>VLOOKUP(A13,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>380</v>
       </c>
@@ -5033,8 +5228,12 @@
         <v>54</v>
       </c>
       <c r="Q14" s="31"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="e">
+        <f>VLOOKUP(A14,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>381</v>
       </c>
@@ -5084,8 +5283,12 @@
         <v>44</v>
       </c>
       <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" t="e">
+        <f>VLOOKUP(A15,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>382</v>
       </c>
@@ -5135,8 +5338,12 @@
         <v>41</v>
       </c>
       <c r="Q16" s="31"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="e">
+        <f>VLOOKUP(A16,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>383</v>
       </c>
@@ -5186,8 +5393,12 @@
         <v>44</v>
       </c>
       <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" t="e">
+        <f>VLOOKUP(A17,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>384</v>
       </c>
@@ -5237,8 +5448,12 @@
         <v>44</v>
       </c>
       <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" t="e">
+        <f>VLOOKUP(A18,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>385</v>
       </c>
@@ -5288,8 +5503,12 @@
         <v>44</v>
       </c>
       <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" t="e">
+        <f>VLOOKUP(A19,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>386</v>
       </c>
@@ -5339,8 +5558,12 @@
         <v>53</v>
       </c>
       <c r="Q20" s="31"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="e">
+        <f>VLOOKUP(A20,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>387</v>
       </c>
@@ -5390,8 +5613,12 @@
         <v>54</v>
       </c>
       <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" t="e">
+        <f>VLOOKUP(A21,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>388</v>
       </c>
@@ -5441,8 +5668,12 @@
         <v>44</v>
       </c>
       <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="e">
+        <f>VLOOKUP(A22,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>389</v>
       </c>
@@ -5492,8 +5723,12 @@
         <v>41</v>
       </c>
       <c r="Q23" s="31"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="e">
+        <f>VLOOKUP(A23,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>390</v>
       </c>
@@ -5543,8 +5778,12 @@
         <v>44</v>
       </c>
       <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="e">
+        <f>VLOOKUP(A24,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>391</v>
       </c>
@@ -5594,8 +5833,12 @@
         <v>44</v>
       </c>
       <c r="Q25" s="31"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" t="e">
+        <f>VLOOKUP(A25,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>392</v>
       </c>
@@ -5645,8 +5888,12 @@
         <v>44</v>
       </c>
       <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" t="e">
+        <f>VLOOKUP(A26,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>393</v>
       </c>
@@ -5696,8 +5943,12 @@
         <v>53</v>
       </c>
       <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" t="e">
+        <f>VLOOKUP(A27,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>394</v>
       </c>
@@ -5747,8 +5998,12 @@
         <v>54</v>
       </c>
       <c r="Q28" s="31"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" t="e">
+        <f>VLOOKUP(A28,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>395</v>
       </c>
@@ -5798,8 +6053,12 @@
         <v>44</v>
       </c>
       <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" t="e">
+        <f>VLOOKUP(A29,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>396</v>
       </c>
@@ -5849,8 +6108,12 @@
         <v>41</v>
       </c>
       <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" t="e">
+        <f>VLOOKUP(A30,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>397</v>
       </c>
@@ -5900,8 +6163,12 @@
         <v>44</v>
       </c>
       <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" t="e">
+        <f>VLOOKUP(A31,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>398</v>
       </c>
@@ -5951,8 +6218,12 @@
         <v>44</v>
       </c>
       <c r="Q32" s="31"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" t="e">
+        <f>VLOOKUP(A32,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>399</v>
       </c>
@@ -6002,8 +6273,12 @@
         <v>44</v>
       </c>
       <c r="Q33" s="31"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" t="e">
+        <f>VLOOKUP(A33,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>400</v>
       </c>
@@ -6053,8 +6328,12 @@
         <v>53</v>
       </c>
       <c r="Q34" s="31"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" t="e">
+        <f>VLOOKUP(A34,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>401</v>
       </c>
@@ -6104,8 +6383,12 @@
         <v>54</v>
       </c>
       <c r="Q35" s="31"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" t="e">
+        <f>VLOOKUP(A35,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>402</v>
       </c>
@@ -6155,8 +6438,12 @@
         <v>44</v>
       </c>
       <c r="Q36" s="31"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" t="e">
+        <f>VLOOKUP(A36,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>403</v>
       </c>
@@ -6206,8 +6493,12 @@
         <v>41</v>
       </c>
       <c r="Q37" s="31"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" t="e">
+        <f>VLOOKUP(A37,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>404</v>
       </c>
@@ -6257,8 +6548,12 @@
         <v>44</v>
       </c>
       <c r="Q38" s="31"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" t="e">
+        <f>VLOOKUP(A38,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>405</v>
       </c>
@@ -6308,8 +6603,12 @@
         <v>44</v>
       </c>
       <c r="Q39" s="31"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" t="e">
+        <f>VLOOKUP(A39,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>406</v>
       </c>
@@ -6359,8 +6658,12 @@
         <v>44</v>
       </c>
       <c r="Q40" s="31"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" t="e">
+        <f>VLOOKUP(A40,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>407</v>
       </c>
@@ -6410,8 +6713,12 @@
         <v>53</v>
       </c>
       <c r="Q41" s="31"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" t="e">
+        <f>VLOOKUP(A41,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>408</v>
       </c>
@@ -6461,8 +6768,12 @@
         <v>54</v>
       </c>
       <c r="Q42" s="31"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" t="e">
+        <f>VLOOKUP(A42,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>409</v>
       </c>
@@ -6512,8 +6823,12 @@
         <v>44</v>
       </c>
       <c r="Q43" s="31"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" t="e">
+        <f>VLOOKUP(A43,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>410</v>
       </c>
@@ -6563,8 +6878,12 @@
         <v>41</v>
       </c>
       <c r="Q44" s="31"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" t="e">
+        <f>VLOOKUP(A44,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>411</v>
       </c>
@@ -6614,8 +6933,12 @@
         <v>44</v>
       </c>
       <c r="Q45" s="31"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" t="e">
+        <f>VLOOKUP(A45,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>412</v>
       </c>
@@ -6665,8 +6988,12 @@
         <v>44</v>
       </c>
       <c r="Q46" s="31"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" t="e">
+        <f>VLOOKUP(A46,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>413</v>
       </c>
@@ -6716,8 +7043,12 @@
         <v>44</v>
       </c>
       <c r="Q47" s="31"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" t="e">
+        <f>VLOOKUP(A47,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>414</v>
       </c>
@@ -6767,8 +7098,12 @@
         <v>53</v>
       </c>
       <c r="Q48" s="31"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" t="e">
+        <f>VLOOKUP(A48,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>415</v>
       </c>
@@ -6818,8 +7153,12 @@
         <v>54</v>
       </c>
       <c r="Q49" s="31"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R49" t="e">
+        <f>VLOOKUP(A49,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>416</v>
       </c>
@@ -6869,8 +7208,12 @@
         <v>44</v>
       </c>
       <c r="Q50" s="31"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" t="e">
+        <f>VLOOKUP(A50,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>417</v>
       </c>
@@ -6920,8 +7263,12 @@
         <v>41</v>
       </c>
       <c r="Q51" s="31"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R51" t="e">
+        <f>VLOOKUP(A51,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>418</v>
       </c>
@@ -6971,8 +7318,12 @@
         <v>44</v>
       </c>
       <c r="Q52" s="31"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" t="e">
+        <f>VLOOKUP(A52,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
         <v>419</v>
       </c>
@@ -7022,8 +7373,12 @@
         <v>44</v>
       </c>
       <c r="Q53" s="31"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53" t="e">
+        <f>VLOOKUP(A53,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>420</v>
       </c>
@@ -7073,8 +7428,12 @@
         <v>44</v>
       </c>
       <c r="Q54" s="31"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54" t="e">
+        <f>VLOOKUP(A54,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>421</v>
       </c>
@@ -7124,8 +7483,12 @@
         <v>53</v>
       </c>
       <c r="Q55" s="31"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R55" t="e">
+        <f>VLOOKUP(A55,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>422</v>
       </c>
@@ -7175,8 +7538,12 @@
         <v>54</v>
       </c>
       <c r="Q56" s="31"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" t="e">
+        <f>VLOOKUP(A56,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>423</v>
       </c>
@@ -7226,8 +7593,12 @@
         <v>44</v>
       </c>
       <c r="Q57" s="31"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R57" t="e">
+        <f>VLOOKUP(A57,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>424</v>
       </c>
@@ -7277,8 +7648,12 @@
         <v>41</v>
       </c>
       <c r="Q58" s="31"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" t="e">
+        <f>VLOOKUP(A58,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>425</v>
       </c>
@@ -7328,8 +7703,12 @@
         <v>44</v>
       </c>
       <c r="Q59" s="31"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R59" t="e">
+        <f>VLOOKUP(A59,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>426</v>
       </c>
@@ -7379,8 +7758,12 @@
         <v>44</v>
       </c>
       <c r="Q60" s="31"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" t="e">
+        <f>VLOOKUP(A60,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>427</v>
       </c>
@@ -7430,8 +7813,12 @@
         <v>44</v>
       </c>
       <c r="Q61" s="31"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R61" t="e">
+        <f>VLOOKUP(A61,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>428</v>
       </c>
@@ -7481,8 +7868,12 @@
         <v>53</v>
       </c>
       <c r="Q62" s="31"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" t="e">
+        <f>VLOOKUP(A62,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>429</v>
       </c>
@@ -7532,8 +7923,12 @@
         <v>54</v>
       </c>
       <c r="Q63" s="31"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R63" t="e">
+        <f>VLOOKUP(A63,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>430</v>
       </c>
@@ -7583,8 +7978,12 @@
         <v>44</v>
       </c>
       <c r="Q64" s="31"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" t="e">
+        <f>VLOOKUP(A64,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>431</v>
       </c>
@@ -7634,8 +8033,12 @@
         <v>41</v>
       </c>
       <c r="Q65" s="31"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R65" t="e">
+        <f>VLOOKUP(A65,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>432</v>
       </c>
@@ -7685,8 +8088,12 @@
         <v>44</v>
       </c>
       <c r="Q66" s="31"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" t="e">
+        <f>VLOOKUP(A66,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>433</v>
       </c>
@@ -7736,8 +8143,12 @@
         <v>44</v>
       </c>
       <c r="Q67" s="31"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R67" t="e">
+        <f>VLOOKUP(A67,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>434</v>
       </c>
@@ -7787,8 +8198,12 @@
         <v>44</v>
       </c>
       <c r="Q68" s="31"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R68" t="e">
+        <f>VLOOKUP(A68,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>435</v>
       </c>
@@ -7838,8 +8253,12 @@
         <v>53</v>
       </c>
       <c r="Q69" s="31"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R69" t="e">
+        <f>VLOOKUP(A69,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>436</v>
       </c>
@@ -7889,8 +8308,12 @@
         <v>54</v>
       </c>
       <c r="Q70" s="31"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R70" t="e">
+        <f>VLOOKUP(A70,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>437</v>
       </c>
@@ -7940,8 +8363,12 @@
         <v>44</v>
       </c>
       <c r="Q71" s="31"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R71" t="e">
+        <f>VLOOKUP(A71,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>438</v>
       </c>
@@ -7991,8 +8418,12 @@
         <v>41</v>
       </c>
       <c r="Q72" s="31"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R72" t="e">
+        <f>VLOOKUP(A72,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>439</v>
       </c>
@@ -8042,8 +8473,12 @@
         <v>44</v>
       </c>
       <c r="Q73" s="31"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R73" t="e">
+        <f>VLOOKUP(A73,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>440</v>
       </c>
@@ -8093,8 +8528,12 @@
         <v>44</v>
       </c>
       <c r="Q74" s="31"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R74" t="e">
+        <f>VLOOKUP(A74,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>441</v>
       </c>
@@ -8144,8 +8583,12 @@
         <v>44</v>
       </c>
       <c r="Q75" s="31"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R75" t="e">
+        <f>VLOOKUP(A75,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>442</v>
       </c>
@@ -8195,8 +8638,12 @@
         <v>53</v>
       </c>
       <c r="Q76" s="31"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R76" t="e">
+        <f>VLOOKUP(A76,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>443</v>
       </c>
@@ -8246,8 +8693,12 @@
         <v>54</v>
       </c>
       <c r="Q77" s="31"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R77" t="e">
+        <f>VLOOKUP(A77,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>444</v>
       </c>
@@ -8297,8 +8748,12 @@
         <v>44</v>
       </c>
       <c r="Q78" s="31"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R78" t="e">
+        <f>VLOOKUP(A78,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>445</v>
       </c>
@@ -8348,8 +8803,12 @@
         <v>41</v>
       </c>
       <c r="Q79" s="31"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R79" t="e">
+        <f>VLOOKUP(A79,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>446</v>
       </c>
@@ -8399,8 +8858,12 @@
         <v>44</v>
       </c>
       <c r="Q80" s="31"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R80" t="e">
+        <f>VLOOKUP(A80,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>447</v>
       </c>
@@ -8450,8 +8913,12 @@
         <v>44</v>
       </c>
       <c r="Q81" s="31"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R81" t="e">
+        <f>VLOOKUP(A81,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>448</v>
       </c>
@@ -8501,8 +8968,12 @@
         <v>44</v>
       </c>
       <c r="Q82" s="31"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R82" t="e">
+        <f>VLOOKUP(A82,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>449</v>
       </c>
@@ -8552,8 +9023,12 @@
         <v>53</v>
       </c>
       <c r="Q83" s="31"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R83" t="e">
+        <f>VLOOKUP(A83,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>450</v>
       </c>
@@ -8603,8 +9078,12 @@
         <v>54</v>
       </c>
       <c r="Q84" s="31"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R84" t="e">
+        <f>VLOOKUP(A84,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>451</v>
       </c>
@@ -8654,8 +9133,12 @@
         <v>44</v>
       </c>
       <c r="Q85" s="31"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R85" t="e">
+        <f>VLOOKUP(A85,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>452</v>
       </c>
@@ -8705,8 +9188,12 @@
         <v>41</v>
       </c>
       <c r="Q86" s="31"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R86" t="e">
+        <f>VLOOKUP(A86,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>453</v>
       </c>
@@ -8756,8 +9243,12 @@
         <v>44</v>
       </c>
       <c r="Q87" s="31"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R87" t="e">
+        <f>VLOOKUP(A87,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>454</v>
       </c>
@@ -8807,8 +9298,12 @@
         <v>44</v>
       </c>
       <c r="Q88" s="31"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R88" t="e">
+        <f>VLOOKUP(A88,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>455</v>
       </c>
@@ -8858,8 +9353,12 @@
         <v>44</v>
       </c>
       <c r="Q89" s="31"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R89" t="e">
+        <f>VLOOKUP(A89,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>456</v>
       </c>
@@ -8909,8 +9408,12 @@
         <v>53</v>
       </c>
       <c r="Q90" s="31"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R90" t="e">
+        <f>VLOOKUP(A90,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>457</v>
       </c>
@@ -8960,8 +9463,12 @@
         <v>54</v>
       </c>
       <c r="Q91" s="31"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R91" t="e">
+        <f>VLOOKUP(A91,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>458</v>
       </c>
@@ -9011,8 +9518,12 @@
         <v>44</v>
       </c>
       <c r="Q92" s="31"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R92" t="e">
+        <f>VLOOKUP(A92,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>459</v>
       </c>
@@ -9062,8 +9573,12 @@
         <v>41</v>
       </c>
       <c r="Q93" s="31"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R93" t="e">
+        <f>VLOOKUP(A93,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>460</v>
       </c>
@@ -9113,8 +9628,12 @@
         <v>44</v>
       </c>
       <c r="Q94" s="31"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94" t="e">
+        <f>VLOOKUP(A94,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>461</v>
       </c>
@@ -9164,8 +9683,12 @@
         <v>44</v>
       </c>
       <c r="Q95" s="31"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R95" t="e">
+        <f>VLOOKUP(A95,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>462</v>
       </c>
@@ -9215,8 +9738,12 @@
         <v>44</v>
       </c>
       <c r="Q96" s="31"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R96" t="e">
+        <f>VLOOKUP(A96,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>463</v>
       </c>
@@ -9266,8 +9793,12 @@
         <v>53</v>
       </c>
       <c r="Q97" s="31"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R97" t="e">
+        <f>VLOOKUP(A97,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="31" t="s">
         <v>464</v>
       </c>
@@ -9317,8 +9848,12 @@
         <v>54</v>
       </c>
       <c r="Q98" s="31"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R98" t="e">
+        <f>VLOOKUP(A98,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>465</v>
       </c>
@@ -9368,8 +9903,12 @@
         <v>44</v>
       </c>
       <c r="Q99" s="31"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R99" t="e">
+        <f>VLOOKUP(A99,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>466</v>
       </c>
@@ -9419,8 +9958,12 @@
         <v>41</v>
       </c>
       <c r="Q100" s="31"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R100" t="e">
+        <f>VLOOKUP(A100,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>467</v>
       </c>
@@ -9470,8 +10013,12 @@
         <v>44</v>
       </c>
       <c r="Q101" s="31"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R101" t="e">
+        <f>VLOOKUP(A101,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>468</v>
       </c>
@@ -9521,8 +10068,12 @@
         <v>44</v>
       </c>
       <c r="Q102" s="31"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R102" t="e">
+        <f>VLOOKUP(A102,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="31" t="s">
         <v>469</v>
       </c>
@@ -9572,8 +10123,12 @@
         <v>44</v>
       </c>
       <c r="Q103" s="31"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R103" t="e">
+        <f>VLOOKUP(A103,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>470</v>
       </c>
@@ -9623,8 +10178,12 @@
         <v>53</v>
       </c>
       <c r="Q104" s="31"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R104" t="e">
+        <f>VLOOKUP(A104,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>471</v>
       </c>
@@ -9674,8 +10233,12 @@
         <v>54</v>
       </c>
       <c r="Q105" s="31"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R105" t="e">
+        <f>VLOOKUP(A105,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>472</v>
       </c>
@@ -9725,8 +10288,12 @@
         <v>44</v>
       </c>
       <c r="Q106" s="31"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R106" t="e">
+        <f>VLOOKUP(A106,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>473</v>
       </c>
@@ -9776,8 +10343,12 @@
         <v>41</v>
       </c>
       <c r="Q107" s="31"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R107" t="e">
+        <f>VLOOKUP(A107,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>474</v>
       </c>
@@ -9827,8 +10398,12 @@
         <v>44</v>
       </c>
       <c r="Q108" s="31"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R108" t="e">
+        <f>VLOOKUP(A108,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>475</v>
       </c>
@@ -9878,8 +10453,12 @@
         <v>44</v>
       </c>
       <c r="Q109" s="31"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R109" t="e">
+        <f>VLOOKUP(A109,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>476</v>
       </c>
@@ -9929,8 +10508,12 @@
         <v>44</v>
       </c>
       <c r="Q110" s="31"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R110" t="e">
+        <f>VLOOKUP(A110,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>477</v>
       </c>
@@ -9980,8 +10563,12 @@
         <v>53</v>
       </c>
       <c r="Q111" s="31"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R111" t="e">
+        <f>VLOOKUP(A111,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>478</v>
       </c>
@@ -10031,8 +10618,12 @@
         <v>54</v>
       </c>
       <c r="Q112" s="31"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R112" t="e">
+        <f>VLOOKUP(A112,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
         <v>479</v>
       </c>
@@ -10082,8 +10673,12 @@
         <v>44</v>
       </c>
       <c r="Q113" s="31"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R113" t="e">
+        <f>VLOOKUP(A113,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>480</v>
       </c>
@@ -10133,8 +10728,12 @@
         <v>41</v>
       </c>
       <c r="Q114" s="31"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R114" t="e">
+        <f>VLOOKUP(A114,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>481</v>
       </c>
@@ -10184,8 +10783,12 @@
         <v>44</v>
       </c>
       <c r="Q115" s="31"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R115" t="e">
+        <f>VLOOKUP(A115,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>482</v>
       </c>
@@ -10235,8 +10838,12 @@
         <v>44</v>
       </c>
       <c r="Q116" s="31"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R116" t="e">
+        <f>VLOOKUP(A116,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>483</v>
       </c>
@@ -10286,8 +10893,12 @@
         <v>44</v>
       </c>
       <c r="Q117" s="31"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R117" t="e">
+        <f>VLOOKUP(A117,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="31" t="s">
         <v>484</v>
       </c>
@@ -10337,8 +10948,12 @@
         <v>53</v>
       </c>
       <c r="Q118" s="31"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R118" t="e">
+        <f>VLOOKUP(A118,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>485</v>
       </c>
@@ -10388,8 +11003,12 @@
         <v>54</v>
       </c>
       <c r="Q119" s="31"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R119" t="e">
+        <f>VLOOKUP(A119,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
         <v>486</v>
       </c>
@@ -10439,8 +11058,12 @@
         <v>44</v>
       </c>
       <c r="Q120" s="31"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R120" t="e">
+        <f>VLOOKUP(A120,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>487</v>
       </c>
@@ -10490,8 +11113,12 @@
         <v>41</v>
       </c>
       <c r="Q121" s="31"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R121" t="e">
+        <f>VLOOKUP(A121,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>488</v>
       </c>
@@ -10541,8 +11168,12 @@
         <v>44</v>
       </c>
       <c r="Q122" s="31"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R122" t="e">
+        <f>VLOOKUP(A122,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>489</v>
       </c>
@@ -10592,8 +11223,12 @@
         <v>44</v>
       </c>
       <c r="Q123" s="31"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R123" t="e">
+        <f>VLOOKUP(A123,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>490</v>
       </c>
@@ -10643,8 +11278,12 @@
         <v>44</v>
       </c>
       <c r="Q124" s="31"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R124" t="e">
+        <f>VLOOKUP(A124,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>491</v>
       </c>
@@ -10694,8 +11333,12 @@
         <v>53</v>
       </c>
       <c r="Q125" s="31"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R125" t="e">
+        <f>VLOOKUP(A125,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
         <v>492</v>
       </c>
@@ -10745,8 +11388,12 @@
         <v>54</v>
       </c>
       <c r="Q126" s="31"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R126" t="e">
+        <f>VLOOKUP(A126,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>493</v>
       </c>
@@ -10796,8 +11443,12 @@
         <v>44</v>
       </c>
       <c r="Q127" s="31"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R127" t="e">
+        <f>VLOOKUP(A127,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>494</v>
       </c>
@@ -10847,8 +11498,12 @@
         <v>41</v>
       </c>
       <c r="Q128" s="31"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R128" t="e">
+        <f>VLOOKUP(A128,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
         <v>495</v>
       </c>
@@ -10898,8 +11553,12 @@
         <v>44</v>
       </c>
       <c r="Q129" s="31"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R129" t="e">
+        <f>VLOOKUP(A129,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
         <v>496</v>
       </c>
@@ -10949,8 +11608,12 @@
         <v>44</v>
       </c>
       <c r="Q130" s="31"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R130" t="e">
+        <f>VLOOKUP(A130,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
         <v>497</v>
       </c>
@@ -11000,8 +11663,12 @@
         <v>44</v>
       </c>
       <c r="Q131" s="31"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R131" t="e">
+        <f>VLOOKUP(A131,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>498</v>
       </c>
@@ -11051,8 +11718,12 @@
         <v>53</v>
       </c>
       <c r="Q132" s="31"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R132" t="e">
+        <f>VLOOKUP(A132,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
         <v>499</v>
       </c>
@@ -11102,8 +11773,12 @@
         <v>54</v>
       </c>
       <c r="Q133" s="31"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R133" t="e">
+        <f>VLOOKUP(A133,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>500</v>
       </c>
@@ -11153,8 +11828,12 @@
         <v>44</v>
       </c>
       <c r="Q134" s="31"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R134" t="e">
+        <f>VLOOKUP(A134,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>501</v>
       </c>
@@ -11204,8 +11883,12 @@
         <v>41</v>
       </c>
       <c r="Q135" s="31"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R135" t="e">
+        <f>VLOOKUP(A135,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>502</v>
       </c>
@@ -11255,8 +11938,12 @@
         <v>44</v>
       </c>
       <c r="Q136" s="31"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R136" t="e">
+        <f>VLOOKUP(A136,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
         <v>503</v>
       </c>
@@ -11306,8 +11993,12 @@
         <v>44</v>
       </c>
       <c r="Q137" s="31"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R137" t="e">
+        <f>VLOOKUP(A137,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>504</v>
       </c>
@@ -11357,8 +12048,12 @@
         <v>44</v>
       </c>
       <c r="Q138" s="31"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R138" t="e">
+        <f>VLOOKUP(A138,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
         <v>505</v>
       </c>
@@ -11408,8 +12103,12 @@
         <v>53</v>
       </c>
       <c r="Q139" s="31"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R139" t="e">
+        <f>VLOOKUP(A139,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
         <v>506</v>
       </c>
@@ -11459,8 +12158,12 @@
         <v>54</v>
       </c>
       <c r="Q140" s="31"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R140" t="e">
+        <f>VLOOKUP(A140,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
         <v>507</v>
       </c>
@@ -11510,8 +12213,12 @@
         <v>44</v>
       </c>
       <c r="Q141" s="31"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R141" t="e">
+        <f>VLOOKUP(A141,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
         <v>508</v>
       </c>
@@ -11561,8 +12268,12 @@
         <v>41</v>
       </c>
       <c r="Q142" s="31"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R142" t="e">
+        <f>VLOOKUP(A142,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
         <v>509</v>
       </c>
@@ -11612,8 +12323,12 @@
         <v>44</v>
       </c>
       <c r="Q143" s="31"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R143" t="e">
+        <f>VLOOKUP(A143,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
         <v>510</v>
       </c>
@@ -11663,8 +12378,12 @@
         <v>44</v>
       </c>
       <c r="Q144" s="31"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R144" t="e">
+        <f>VLOOKUP(A144,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="31" t="s">
         <v>511</v>
       </c>
@@ -11714,8 +12433,12 @@
         <v>44</v>
       </c>
       <c r="Q145" s="31"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R145" t="e">
+        <f>VLOOKUP(A145,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
         <v>512</v>
       </c>
@@ -11765,8 +12488,12 @@
         <v>53</v>
       </c>
       <c r="Q146" s="31"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R146" t="e">
+        <f>VLOOKUP(A146,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
         <v>513</v>
       </c>
@@ -11816,8 +12543,12 @@
         <v>54</v>
       </c>
       <c r="Q147" s="31"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R147" t="e">
+        <f>VLOOKUP(A147,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="31" t="s">
         <v>514</v>
       </c>
@@ -11867,8 +12598,12 @@
         <v>44</v>
       </c>
       <c r="Q148" s="31"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R148" t="e">
+        <f>VLOOKUP(A148,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
         <v>515</v>
       </c>
@@ -11918,8 +12653,12 @@
         <v>41</v>
       </c>
       <c r="Q149" s="31"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R149" t="e">
+        <f>VLOOKUP(A149,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="31" t="s">
         <v>516</v>
       </c>
@@ -11969,8 +12708,12 @@
         <v>44</v>
       </c>
       <c r="Q150" s="31"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R150" t="e">
+        <f>VLOOKUP(A150,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="31" t="s">
         <v>517</v>
       </c>
@@ -12020,8 +12763,12 @@
         <v>44</v>
       </c>
       <c r="Q151" s="31"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R151" t="e">
+        <f>VLOOKUP(A151,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="31" t="s">
         <v>518</v>
       </c>
@@ -12071,8 +12818,12 @@
         <v>44</v>
       </c>
       <c r="Q152" s="31"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R152" t="e">
+        <f>VLOOKUP(A152,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
         <v>519</v>
       </c>
@@ -12122,8 +12873,12 @@
         <v>53</v>
       </c>
       <c r="Q153" s="31"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R153" t="e">
+        <f>VLOOKUP(A153,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="31" t="s">
         <v>520</v>
       </c>
@@ -12173,8 +12928,12 @@
         <v>54</v>
       </c>
       <c r="Q154" s="31"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R154" t="e">
+        <f>VLOOKUP(A154,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="31" t="s">
         <v>521</v>
       </c>
@@ -12224,8 +12983,12 @@
         <v>44</v>
       </c>
       <c r="Q155" s="31"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R155" t="e">
+        <f>VLOOKUP(A155,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
         <v>522</v>
       </c>
@@ -12275,8 +13038,12 @@
         <v>41</v>
       </c>
       <c r="Q156" s="31"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R156" t="e">
+        <f>VLOOKUP(A156,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="31" t="s">
         <v>523</v>
       </c>
@@ -12326,8 +13093,12 @@
         <v>44</v>
       </c>
       <c r="Q157" s="31"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R157" t="e">
+        <f>VLOOKUP(A157,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="31" t="s">
         <v>524</v>
       </c>
@@ -12377,8 +13148,12 @@
         <v>44</v>
       </c>
       <c r="Q158" s="31"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R158" t="e">
+        <f>VLOOKUP(A158,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="31" t="s">
         <v>525</v>
       </c>
@@ -12428,8 +13203,12 @@
         <v>44</v>
       </c>
       <c r="Q159" s="31"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R159" t="e">
+        <f>VLOOKUP(A159,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="31" t="s">
         <v>526</v>
       </c>
@@ -12479,8 +13258,12 @@
         <v>53</v>
       </c>
       <c r="Q160" s="31"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R160" t="e">
+        <f>VLOOKUP(A160,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="31" t="s">
         <v>527</v>
       </c>
@@ -12530,8 +13313,12 @@
         <v>54</v>
       </c>
       <c r="Q161" s="31"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R161" t="e">
+        <f>VLOOKUP(A161,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="31" t="s">
         <v>528</v>
       </c>
@@ -12581,8 +13368,12 @@
         <v>44</v>
       </c>
       <c r="Q162" s="31"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R162" t="e">
+        <f>VLOOKUP(A162,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
         <v>529</v>
       </c>
@@ -12632,8 +13423,12 @@
         <v>41</v>
       </c>
       <c r="Q163" s="31"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R163" t="e">
+        <f>VLOOKUP(A163,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
         <v>530</v>
       </c>
@@ -12683,8 +13478,12 @@
         <v>44</v>
       </c>
       <c r="Q164" s="31"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R164" t="e">
+        <f>VLOOKUP(A164,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="31" t="s">
         <v>531</v>
       </c>
@@ -12734,8 +13533,12 @@
         <v>44</v>
       </c>
       <c r="Q165" s="31"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R165" t="e">
+        <f>VLOOKUP(A165,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
         <v>532</v>
       </c>
@@ -12785,8 +13588,12 @@
         <v>44</v>
       </c>
       <c r="Q166" s="31"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R166" t="e">
+        <f>VLOOKUP(A166,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>533</v>
       </c>
@@ -12836,8 +13643,12 @@
         <v>53</v>
       </c>
       <c r="Q167" s="31"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R167" t="e">
+        <f>VLOOKUP(A167,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>534</v>
       </c>
@@ -12887,8 +13698,12 @@
         <v>54</v>
       </c>
       <c r="Q168" s="31"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R168" t="e">
+        <f>VLOOKUP(A168,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
         <v>535</v>
       </c>
@@ -12938,8 +13753,12 @@
         <v>44</v>
       </c>
       <c r="Q169" s="31"/>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R169" t="e">
+        <f>VLOOKUP(A169,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="31" t="s">
         <v>536</v>
       </c>
@@ -12989,8 +13808,12 @@
         <v>41</v>
       </c>
       <c r="Q170" s="31"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R170" t="e">
+        <f>VLOOKUP(A170,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>537</v>
       </c>
@@ -13040,8 +13863,12 @@
         <v>44</v>
       </c>
       <c r="Q171" s="31"/>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R171" t="e">
+        <f>VLOOKUP(A171,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
         <v>538</v>
       </c>
@@ -13091,8 +13918,12 @@
         <v>44</v>
       </c>
       <c r="Q172" s="31"/>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R172" t="e">
+        <f>VLOOKUP(A172,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="31" t="s">
         <v>539</v>
       </c>
@@ -13142,8 +13973,12 @@
         <v>44</v>
       </c>
       <c r="Q173" s="31"/>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R173" t="e">
+        <f>VLOOKUP(A173,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="31" t="s">
         <v>540</v>
       </c>
@@ -13193,8 +14028,12 @@
         <v>53</v>
       </c>
       <c r="Q174" s="31"/>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R174" t="e">
+        <f>VLOOKUP(A174,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="31" t="s">
         <v>541</v>
       </c>
@@ -13244,8 +14083,12 @@
         <v>54</v>
       </c>
       <c r="Q175" s="31"/>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R175" t="e">
+        <f>VLOOKUP(A175,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="31" t="s">
         <v>542</v>
       </c>
@@ -13295,8 +14138,12 @@
         <v>44</v>
       </c>
       <c r="Q176" s="31"/>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R176" t="e">
+        <f>VLOOKUP(A176,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="31" t="s">
         <v>543</v>
       </c>
@@ -13346,8 +14193,12 @@
         <v>41</v>
       </c>
       <c r="Q177" s="31"/>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R177" t="e">
+        <f>VLOOKUP(A177,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
         <v>544</v>
       </c>
@@ -13397,8 +14248,12 @@
         <v>44</v>
       </c>
       <c r="Q178" s="31"/>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R178" t="e">
+        <f>VLOOKUP(A178,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="31" t="s">
         <v>545</v>
       </c>
@@ -13448,8 +14303,12 @@
         <v>44</v>
       </c>
       <c r="Q179" s="31"/>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R179" t="e">
+        <f>VLOOKUP(A179,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="31" t="s">
         <v>546</v>
       </c>
@@ -13499,8 +14358,12 @@
         <v>44</v>
       </c>
       <c r="Q180" s="31"/>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R180" t="e">
+        <f>VLOOKUP(A180,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>547</v>
       </c>
@@ -13550,8 +14413,12 @@
         <v>44</v>
       </c>
       <c r="Q181" s="31"/>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R181" t="e">
+        <f>VLOOKUP(A181,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
         <v>548</v>
       </c>
@@ -13601,8 +14468,12 @@
         <v>53</v>
       </c>
       <c r="Q182" s="31"/>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R182" t="e">
+        <f>VLOOKUP(A182,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
         <v>549</v>
       </c>
@@ -13652,8 +14523,12 @@
         <v>54</v>
       </c>
       <c r="Q183" s="31"/>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R183" t="e">
+        <f>VLOOKUP(A183,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="31" t="s">
         <v>550</v>
       </c>
@@ -13703,8 +14578,12 @@
         <v>44</v>
       </c>
       <c r="Q184" s="31"/>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R184" t="e">
+        <f>VLOOKUP(A184,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="31" t="s">
         <v>551</v>
       </c>
@@ -13754,8 +14633,12 @@
         <v>41</v>
       </c>
       <c r="Q185" s="31"/>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R185" t="e">
+        <f>VLOOKUP(A185,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="31" t="s">
         <v>552</v>
       </c>
@@ -13805,8 +14688,12 @@
         <v>44</v>
       </c>
       <c r="Q186" s="31"/>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R186" t="e">
+        <f>VLOOKUP(A186,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="31" t="s">
         <v>553</v>
       </c>
@@ -13856,8 +14743,12 @@
         <v>44</v>
       </c>
       <c r="Q187" s="31"/>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R187" t="e">
+        <f>VLOOKUP(A187,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="31" t="s">
         <v>554</v>
       </c>
@@ -13907,8 +14798,12 @@
         <v>44</v>
       </c>
       <c r="Q188" s="31"/>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R188" t="e">
+        <f>VLOOKUP(A188,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="31" t="s">
         <v>555</v>
       </c>
@@ -13958,8 +14853,12 @@
         <v>44</v>
       </c>
       <c r="Q189" s="31"/>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R189" t="e">
+        <f>VLOOKUP(A189,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="31" t="s">
         <v>556</v>
       </c>
@@ -14009,8 +14908,12 @@
         <v>53</v>
       </c>
       <c r="Q190" s="31"/>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R190" t="e">
+        <f>VLOOKUP(A190,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
         <v>557</v>
       </c>
@@ -14060,8 +14963,12 @@
         <v>54</v>
       </c>
       <c r="Q191" s="31"/>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R191" t="e">
+        <f>VLOOKUP(A191,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>558</v>
       </c>
@@ -14111,8 +15018,12 @@
         <v>44</v>
       </c>
       <c r="Q192" s="31"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R192" t="e">
+        <f>VLOOKUP(A192,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="31" t="s">
         <v>593</v>
       </c>
@@ -14129,7 +15040,7 @@
         <v>592</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G193" s="27" t="s">
         <v>684</v>
@@ -14161,8 +15072,12 @@
       <c r="P193" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R193" t="e">
+        <f>VLOOKUP(A193,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
         <v>594</v>
       </c>
@@ -14179,10 +15094,10 @@
         <v>592</v>
       </c>
       <c r="F194" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G194" s="27" t="s">
-        <v>685</v>
+        <v>763</v>
       </c>
       <c r="H194" s="28" t="s">
         <v>4</v>
@@ -14211,8 +15126,12 @@
       <c r="P194" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R194" t="e">
+        <f>VLOOKUP(A194,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="31" t="s">
         <v>595</v>
       </c>
@@ -14229,10 +15148,10 @@
         <v>592</v>
       </c>
       <c r="F195" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G195" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H195" s="28" t="s">
         <v>313</v>
@@ -14261,8 +15180,12 @@
       <c r="P195" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R195" t="e">
+        <f>VLOOKUP(A195,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>596</v>
       </c>
@@ -14279,7 +15202,7 @@
         <v>592</v>
       </c>
       <c r="F196" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G196" s="27" t="s">
         <v>154</v>
@@ -14311,8 +15234,12 @@
       <c r="P196" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R196" t="e">
+        <f>VLOOKUP(A196,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
         <v>597</v>
       </c>
@@ -14329,10 +15256,10 @@
         <v>592</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H197" s="28" t="s">
         <v>315</v>
@@ -14361,8 +15288,12 @@
       <c r="P197" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R197" t="e">
+        <f>VLOOKUP(A197,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="31" t="s">
         <v>598</v>
       </c>
@@ -14379,10 +15310,10 @@
         <v>592</v>
       </c>
       <c r="F198" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G198" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H198" s="28" t="s">
         <v>314</v>
@@ -14411,8 +15342,12 @@
       <c r="P198" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R198" t="e">
+        <f>VLOOKUP(A198,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="31" t="s">
         <v>599</v>
       </c>
@@ -14429,10 +15364,10 @@
         <v>592</v>
       </c>
       <c r="F199" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G199" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H199" s="28" t="s">
         <v>316</v>
@@ -14461,8 +15396,12 @@
       <c r="P199" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R199" t="e">
+        <f>VLOOKUP(A199,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="31" t="s">
         <v>600</v>
       </c>
@@ -14479,25 +15418,25 @@
         <v>601</v>
       </c>
       <c r="F200" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G200" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H200" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I200" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J200" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K200" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L200" s="29" t="s">
-        <v>43</v>
+        <v>366</v>
+      </c>
+      <c r="L200" s="27" t="s">
+        <v>366</v>
       </c>
       <c r="M200" s="27" t="s">
         <v>46</v>
@@ -14511,8 +15450,12 @@
       <c r="P200" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R200" t="e">
+        <f>VLOOKUP(A200,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="31" t="s">
         <v>615</v>
       </c>
@@ -14529,25 +15472,25 @@
         <v>601</v>
       </c>
       <c r="F201" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="G201" s="27" t="s">
         <v>759</v>
-      </c>
-      <c r="G201" s="27" t="s">
-        <v>691</v>
       </c>
       <c r="H201" s="28" t="s">
         <v>4</v>
       </c>
       <c r="I201" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J201" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K201" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L201" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M201" s="27" t="s">
         <v>45</v>
@@ -14561,8 +15504,12 @@
       <c r="P201" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R201" t="e">
+        <f>VLOOKUP(A201,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="31" t="s">
         <v>616</v>
       </c>
@@ -14579,25 +15526,25 @@
         <v>601</v>
       </c>
       <c r="F202" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G202" s="27" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="H202" s="28" t="s">
         <v>313</v>
       </c>
       <c r="I202" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J202" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K202" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L202" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M202" s="27" t="s">
         <v>47</v>
@@ -14611,8 +15558,12 @@
       <c r="P202" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R202" t="str">
+        <f>VLOOKUP(A202,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="31" t="s">
         <v>617</v>
       </c>
@@ -14629,25 +15580,25 @@
         <v>601</v>
       </c>
       <c r="F203" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G203" s="27" t="s">
-        <v>693</v>
+        <v>747</v>
       </c>
       <c r="H203" s="28" t="s">
         <v>322</v>
       </c>
       <c r="I203" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J203" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K203" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L203" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M203" s="27" t="s">
         <v>45</v>
@@ -14661,8 +15612,12 @@
       <c r="P203" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R203" t="str">
+        <f>VLOOKUP(A203,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="31" t="s">
         <v>618</v>
       </c>
@@ -14679,25 +15634,25 @@
         <v>601</v>
       </c>
       <c r="F204" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G204" s="27" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="H204" s="28" t="s">
         <v>315</v>
       </c>
       <c r="I204" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J204" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K204" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L204" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M204" s="27" t="s">
         <v>51</v>
@@ -14711,8 +15666,12 @@
       <c r="P204" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R204" t="str">
+        <f>VLOOKUP(A204,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="31" t="s">
         <v>619</v>
       </c>
@@ -14729,25 +15688,25 @@
         <v>601</v>
       </c>
       <c r="F205" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G205" s="27" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H205" s="28" t="s">
         <v>314</v>
       </c>
       <c r="I205" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J205" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K205" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L205" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M205" s="27" t="s">
         <v>52</v>
@@ -14761,8 +15720,12 @@
       <c r="P205" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R205" t="str">
+        <f>VLOOKUP(A205,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="31" t="s">
         <v>620</v>
       </c>
@@ -14779,25 +15742,25 @@
         <v>601</v>
       </c>
       <c r="F206" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G206" s="27" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="H206" s="28" t="s">
         <v>316</v>
       </c>
       <c r="I206" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J206" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K206" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L206" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M206" s="27" t="s">
         <v>45</v>
@@ -14811,8 +15774,12 @@
       <c r="P206" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R206" t="str">
+        <f>VLOOKUP(A206,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="31" t="s">
         <v>621</v>
       </c>
@@ -14829,10 +15796,10 @@
         <v>603</v>
       </c>
       <c r="F207" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G207" s="27" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="H207" s="28" t="s">
         <v>4</v>
@@ -14861,8 +15828,12 @@
       <c r="P207" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R207" t="e">
+        <f>VLOOKUP(A207,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="31" t="s">
         <v>622</v>
       </c>
@@ -14879,10 +15850,10 @@
         <v>603</v>
       </c>
       <c r="F208" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G208" s="27" t="s">
-        <v>698</v>
+        <v>762</v>
       </c>
       <c r="H208" s="28" t="s">
         <v>4</v>
@@ -14911,8 +15882,12 @@
       <c r="P208" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R208" t="e">
+        <f>VLOOKUP(A208,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="31" t="s">
         <v>623</v>
       </c>
@@ -14929,10 +15904,10 @@
         <v>603</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G209" s="27" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H209" s="28" t="s">
         <v>313</v>
@@ -14961,8 +15936,12 @@
       <c r="P209" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R209" t="e">
+        <f>VLOOKUP(A209,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="31" t="s">
         <v>624</v>
       </c>
@@ -14979,10 +15958,10 @@
         <v>603</v>
       </c>
       <c r="F210" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G210" s="27" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H210" s="28" t="s">
         <v>322</v>
@@ -15011,8 +15990,12 @@
       <c r="P210" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R210" t="e">
+        <f>VLOOKUP(A210,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="31" t="s">
         <v>625</v>
       </c>
@@ -15029,10 +16012,10 @@
         <v>603</v>
       </c>
       <c r="F211" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G211" s="27" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H211" s="28" t="s">
         <v>315</v>
@@ -15061,8 +16044,12 @@
       <c r="P211" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R211" t="e">
+        <f>VLOOKUP(A211,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="31" t="s">
         <v>626</v>
       </c>
@@ -15079,10 +16066,10 @@
         <v>603</v>
       </c>
       <c r="F212" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G212" s="27" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H212" s="28" t="s">
         <v>314</v>
@@ -15111,8 +16098,12 @@
       <c r="P212" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R212" t="e">
+        <f>VLOOKUP(A212,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="31" t="s">
         <v>627</v>
       </c>
@@ -15129,10 +16120,10 @@
         <v>603</v>
       </c>
       <c r="F213" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G213" s="27" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="H213" s="28" t="s">
         <v>316</v>
@@ -15161,8 +16152,12 @@
       <c r="P213" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R213" t="e">
+        <f>VLOOKUP(A213,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="31" t="s">
         <v>628</v>
       </c>
@@ -15182,7 +16177,7 @@
         <v>604</v>
       </c>
       <c r="G214" s="27" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H214" s="28" t="s">
         <v>4</v>
@@ -15211,8 +16206,12 @@
       <c r="P214" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R214" t="e">
+        <f>VLOOKUP(A214,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="31" t="s">
         <v>629</v>
       </c>
@@ -15232,7 +16231,7 @@
         <v>604</v>
       </c>
       <c r="G215" s="27" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="H215" s="28" t="s">
         <v>4</v>
@@ -15261,8 +16260,12 @@
       <c r="P215" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R215" t="e">
+        <f>VLOOKUP(A215,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="31" t="s">
         <v>630</v>
       </c>
@@ -15282,7 +16285,7 @@
         <v>604</v>
       </c>
       <c r="G216" s="27" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H216" s="28" t="s">
         <v>313</v>
@@ -15297,7 +16300,7 @@
         <v>42</v>
       </c>
       <c r="L216" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M216" s="27" t="s">
         <v>47</v>
@@ -15311,8 +16314,12 @@
       <c r="P216" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R216" t="str">
+        <f>VLOOKUP(A216,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="31" t="s">
         <v>631</v>
       </c>
@@ -15332,7 +16339,7 @@
         <v>604</v>
       </c>
       <c r="G217" s="27" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H217" s="28" t="s">
         <v>322</v>
@@ -15347,7 +16354,7 @@
         <v>42</v>
       </c>
       <c r="L217" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M217" s="27" t="s">
         <v>45</v>
@@ -15361,8 +16368,12 @@
       <c r="P217" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R217" t="str">
+        <f>VLOOKUP(A217,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="31" t="s">
         <v>632</v>
       </c>
@@ -15382,7 +16393,7 @@
         <v>604</v>
       </c>
       <c r="G218" s="27" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="H218" s="28" t="s">
         <v>315</v>
@@ -15397,7 +16408,7 @@
         <v>42</v>
       </c>
       <c r="L218" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M218" s="27" t="s">
         <v>51</v>
@@ -15411,8 +16422,12 @@
       <c r="P218" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R218" t="str">
+        <f>VLOOKUP(A218,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="31" t="s">
         <v>633</v>
       </c>
@@ -15432,7 +16447,7 @@
         <v>604</v>
       </c>
       <c r="G219" s="27" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H219" s="28" t="s">
         <v>314</v>
@@ -15447,7 +16462,7 @@
         <v>42</v>
       </c>
       <c r="L219" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M219" s="27" t="s">
         <v>52</v>
@@ -15461,8 +16476,12 @@
       <c r="P219" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R219" t="str">
+        <f>VLOOKUP(A219,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="31" t="s">
         <v>634</v>
       </c>
@@ -15482,7 +16501,7 @@
         <v>604</v>
       </c>
       <c r="G220" s="27" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H220" s="28" t="s">
         <v>316</v>
@@ -15497,7 +16516,7 @@
         <v>42</v>
       </c>
       <c r="L220" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M220" s="27" t="s">
         <v>45</v>
@@ -15511,8 +16530,12 @@
       <c r="P220" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R220" t="str">
+        <f>VLOOKUP(A220,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="31" t="s">
         <v>635</v>
       </c>
@@ -15529,10 +16552,10 @@
         <v>606</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G221" s="27" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="H221" s="28" t="s">
         <v>4</v>
@@ -15561,8 +16584,12 @@
       <c r="P221" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R221" t="e">
+        <f>VLOOKUP(A221,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="31" t="s">
         <v>636</v>
       </c>
@@ -15579,10 +16606,10 @@
         <v>606</v>
       </c>
       <c r="F222" s="28" t="s">
+        <v>739</v>
+      </c>
+      <c r="G222" s="27" t="s">
         <v>761</v>
-      </c>
-      <c r="G222" s="27" t="s">
-        <v>712</v>
       </c>
       <c r="H222" s="28" t="s">
         <v>4</v>
@@ -15611,8 +16638,12 @@
       <c r="P222" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R222" t="e">
+        <f>VLOOKUP(A222,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="31" t="s">
         <v>637</v>
       </c>
@@ -15629,10 +16660,10 @@
         <v>606</v>
       </c>
       <c r="F223" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="H223" s="28" t="s">
         <v>313</v>
@@ -15661,8 +16692,12 @@
       <c r="P223" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R223" t="e">
+        <f>VLOOKUP(A223,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="31" t="s">
         <v>638</v>
       </c>
@@ -15679,10 +16714,10 @@
         <v>606</v>
       </c>
       <c r="F224" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G224" s="27" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="H224" s="28" t="s">
         <v>322</v>
@@ -15711,8 +16746,12 @@
       <c r="P224" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R224" t="e">
+        <f>VLOOKUP(A224,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="31" t="s">
         <v>639</v>
       </c>
@@ -15729,10 +16768,10 @@
         <v>606</v>
       </c>
       <c r="F225" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G225" s="27" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="H225" s="28" t="s">
         <v>315</v>
@@ -15761,8 +16800,12 @@
       <c r="P225" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R225" t="e">
+        <f>VLOOKUP(A225,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="31" t="s">
         <v>640</v>
       </c>
@@ -15779,10 +16822,10 @@
         <v>606</v>
       </c>
       <c r="F226" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G226" s="27" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="H226" s="28" t="s">
         <v>314</v>
@@ -15811,8 +16854,12 @@
       <c r="P226" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R226" t="e">
+        <f>VLOOKUP(A226,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="31" t="s">
         <v>641</v>
       </c>
@@ -15829,10 +16876,10 @@
         <v>606</v>
       </c>
       <c r="F227" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G227" s="27" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="H227" s="28" t="s">
         <v>316</v>
@@ -15861,8 +16908,12 @@
       <c r="P227" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R227" t="e">
+        <f>VLOOKUP(A227,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="31" t="s">
         <v>642</v>
       </c>
@@ -15879,10 +16930,10 @@
         <v>607</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G228" s="27" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="H228" s="28" t="s">
         <v>4</v>
@@ -15911,8 +16962,12 @@
       <c r="P228" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R228" t="e">
+        <f>VLOOKUP(A228,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="31" t="s">
         <v>643</v>
       </c>
@@ -15929,10 +16984,10 @@
         <v>607</v>
       </c>
       <c r="F229" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G229" s="27" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="H229" s="28" t="s">
         <v>4</v>
@@ -15961,8 +17016,12 @@
       <c r="P229" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R229" t="e">
+        <f>VLOOKUP(A229,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="31" t="s">
         <v>644</v>
       </c>
@@ -15979,10 +17038,10 @@
         <v>607</v>
       </c>
       <c r="F230" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="H230" s="28" t="s">
         <v>313</v>
@@ -16011,8 +17070,12 @@
       <c r="P230" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R230" t="e">
+        <f>VLOOKUP(A230,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="31" t="s">
         <v>645</v>
       </c>
@@ -16029,10 +17092,10 @@
         <v>607</v>
       </c>
       <c r="F231" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G231" s="27" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H231" s="28" t="s">
         <v>322</v>
@@ -16061,8 +17124,12 @@
       <c r="P231" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R231" t="e">
+        <f>VLOOKUP(A231,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="31" t="s">
         <v>646</v>
       </c>
@@ -16079,10 +17146,10 @@
         <v>607</v>
       </c>
       <c r="F232" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G232" s="27" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="H232" s="28" t="s">
         <v>315</v>
@@ -16111,8 +17178,12 @@
       <c r="P232" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R232" t="e">
+        <f>VLOOKUP(A232,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="31" t="s">
         <v>647</v>
       </c>
@@ -16129,10 +17200,10 @@
         <v>607</v>
       </c>
       <c r="F233" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G233" s="27" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="H233" s="28" t="s">
         <v>314</v>
@@ -16161,8 +17232,12 @@
       <c r="P233" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R233" t="e">
+        <f>VLOOKUP(A233,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="31" t="s">
         <v>648</v>
       </c>
@@ -16179,10 +17254,10 @@
         <v>607</v>
       </c>
       <c r="F234" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G234" s="27" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="H234" s="28" t="s">
         <v>316</v>
@@ -16211,8 +17286,12 @@
       <c r="P234" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R234" t="e">
+        <f>VLOOKUP(A234,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="31" t="s">
         <v>649</v>
       </c>
@@ -16232,7 +17311,7 @@
         <v>608</v>
       </c>
       <c r="G235" s="27" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="H235" s="28" t="s">
         <v>4</v>
@@ -16261,8 +17340,12 @@
       <c r="P235" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R235" t="e">
+        <f>VLOOKUP(A235,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="31" t="s">
         <v>650</v>
       </c>
@@ -16282,7 +17365,7 @@
         <v>608</v>
       </c>
       <c r="G236" s="27" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="H236" s="28" t="s">
         <v>4</v>
@@ -16311,8 +17394,12 @@
       <c r="P236" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R236" t="e">
+        <f>VLOOKUP(A236,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="31" t="s">
         <v>651</v>
       </c>
@@ -16332,7 +17419,7 @@
         <v>608</v>
       </c>
       <c r="G237" s="27" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="H237" s="28" t="s">
         <v>313</v>
@@ -16347,7 +17434,7 @@
         <v>42</v>
       </c>
       <c r="L237" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M237" s="27" t="s">
         <v>47</v>
@@ -16361,8 +17448,12 @@
       <c r="P237" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R237" t="str">
+        <f>VLOOKUP(A237,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="31" t="s">
         <v>652</v>
       </c>
@@ -16382,7 +17473,7 @@
         <v>608</v>
       </c>
       <c r="G238" s="27" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="H238" s="28" t="s">
         <v>322</v>
@@ -16397,7 +17488,7 @@
         <v>42</v>
       </c>
       <c r="L238" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M238" s="27" t="s">
         <v>45</v>
@@ -16411,8 +17502,12 @@
       <c r="P238" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R238" t="str">
+        <f>VLOOKUP(A238,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="31" t="s">
         <v>653</v>
       </c>
@@ -16432,7 +17527,7 @@
         <v>608</v>
       </c>
       <c r="G239" s="27" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="H239" s="28" t="s">
         <v>315</v>
@@ -16447,7 +17542,7 @@
         <v>42</v>
       </c>
       <c r="L239" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M239" s="27" t="s">
         <v>51</v>
@@ -16461,8 +17556,12 @@
       <c r="P239" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R239" t="str">
+        <f>VLOOKUP(A239,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="31" t="s">
         <v>654</v>
       </c>
@@ -16482,7 +17581,7 @@
         <v>608</v>
       </c>
       <c r="G240" s="27" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="H240" s="28" t="s">
         <v>314</v>
@@ -16497,7 +17596,7 @@
         <v>42</v>
       </c>
       <c r="L240" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M240" s="27" t="s">
         <v>52</v>
@@ -16511,8 +17610,12 @@
       <c r="P240" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R240" t="str">
+        <f>VLOOKUP(A240,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="31" t="s">
         <v>655</v>
       </c>
@@ -16532,7 +17635,7 @@
         <v>608</v>
       </c>
       <c r="G241" s="27" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="H241" s="28" t="s">
         <v>316</v>
@@ -16547,7 +17650,7 @@
         <v>42</v>
       </c>
       <c r="L241" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M241" s="27" t="s">
         <v>45</v>
@@ -16561,8 +17664,12 @@
       <c r="P241" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R241" t="str">
+        <f>VLOOKUP(A241,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="31" t="s">
         <v>656</v>
       </c>
@@ -16579,10 +17686,10 @@
         <v>610</v>
       </c>
       <c r="F242" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G242" s="27" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="H242" s="28" t="s">
         <v>4</v>
@@ -16611,8 +17718,12 @@
       <c r="P242" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R242" t="e">
+        <f>VLOOKUP(A242,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="31" t="s">
         <v>657</v>
       </c>
@@ -16629,10 +17740,10 @@
         <v>610</v>
       </c>
       <c r="F243" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G243" s="27" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="H243" s="28" t="s">
         <v>4</v>
@@ -16661,8 +17772,12 @@
       <c r="P243" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R243" t="e">
+        <f>VLOOKUP(A243,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="31" t="s">
         <v>658</v>
       </c>
@@ -16679,10 +17794,10 @@
         <v>610</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G244" s="27" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="H244" s="28" t="s">
         <v>313</v>
@@ -16711,8 +17826,12 @@
       <c r="P244" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R244" t="e">
+        <f>VLOOKUP(A244,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="31" t="s">
         <v>659</v>
       </c>
@@ -16729,10 +17848,10 @@
         <v>610</v>
       </c>
       <c r="F245" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G245" s="27" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="H245" s="28" t="s">
         <v>322</v>
@@ -16761,8 +17880,12 @@
       <c r="P245" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R245" t="e">
+        <f>VLOOKUP(A245,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="31" t="s">
         <v>660</v>
       </c>
@@ -16779,10 +17902,10 @@
         <v>610</v>
       </c>
       <c r="F246" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G246" s="27" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="H246" s="28" t="s">
         <v>315</v>
@@ -16811,8 +17934,12 @@
       <c r="P246" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R246" t="e">
+        <f>VLOOKUP(A246,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="31" t="s">
         <v>661</v>
       </c>
@@ -16829,10 +17956,10 @@
         <v>610</v>
       </c>
       <c r="F247" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G247" s="27" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="H247" s="28" t="s">
         <v>314</v>
@@ -16861,8 +17988,12 @@
       <c r="P247" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R247" t="e">
+        <f>VLOOKUP(A247,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="31" t="s">
         <v>662</v>
       </c>
@@ -16879,10 +18010,10 @@
         <v>610</v>
       </c>
       <c r="F248" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G248" s="27" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="H248" s="28" t="s">
         <v>316</v>
@@ -16911,8 +18042,12 @@
       <c r="P248" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R248" t="e">
+        <f>VLOOKUP(A248,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="31" t="s">
         <v>663</v>
       </c>
@@ -16932,7 +18067,7 @@
         <v>611</v>
       </c>
       <c r="G249" s="27" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="H249" s="28" t="s">
         <v>4</v>
@@ -16961,8 +18096,12 @@
       <c r="P249" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R249" t="e">
+        <f>VLOOKUP(A249,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="31" t="s">
         <v>664</v>
       </c>
@@ -16982,7 +18121,7 @@
         <v>611</v>
       </c>
       <c r="G250" s="27" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="H250" s="28" t="s">
         <v>4</v>
@@ -17011,8 +18150,12 @@
       <c r="P250" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R250" t="e">
+        <f>VLOOKUP(A250,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="31" t="s">
         <v>665</v>
       </c>
@@ -17032,7 +18175,7 @@
         <v>611</v>
       </c>
       <c r="G251" s="27" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="H251" s="28" t="s">
         <v>313</v>
@@ -17047,7 +18190,7 @@
         <v>42</v>
       </c>
       <c r="L251" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M251" s="27" t="s">
         <v>47</v>
@@ -17061,8 +18204,12 @@
       <c r="P251" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R251" t="str">
+        <f>VLOOKUP(A251,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="31" t="s">
         <v>666</v>
       </c>
@@ -17082,7 +18229,7 @@
         <v>611</v>
       </c>
       <c r="G252" s="27" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="H252" s="28" t="s">
         <v>322</v>
@@ -17097,7 +18244,7 @@
         <v>42</v>
       </c>
       <c r="L252" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M252" s="27" t="s">
         <v>45</v>
@@ -17111,8 +18258,12 @@
       <c r="P252" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R252" t="str">
+        <f>VLOOKUP(A252,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="31" t="s">
         <v>667</v>
       </c>
@@ -17132,7 +18283,7 @@
         <v>611</v>
       </c>
       <c r="G253" s="27" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="H253" s="28" t="s">
         <v>315</v>
@@ -17147,7 +18298,7 @@
         <v>42</v>
       </c>
       <c r="L253" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M253" s="27" t="s">
         <v>51</v>
@@ -17161,8 +18312,12 @@
       <c r="P253" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R253" t="str">
+        <f>VLOOKUP(A253,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="31" t="s">
         <v>668</v>
       </c>
@@ -17182,7 +18337,7 @@
         <v>611</v>
       </c>
       <c r="G254" s="27" t="s">
-        <v>743</v>
+        <v>339</v>
       </c>
       <c r="H254" s="28" t="s">
         <v>314</v>
@@ -17197,7 +18352,7 @@
         <v>42</v>
       </c>
       <c r="L254" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M254" s="27" t="s">
         <v>52</v>
@@ -17211,8 +18366,12 @@
       <c r="P254" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R254" t="str">
+        <f>VLOOKUP(A254,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="31" t="s">
         <v>669</v>
       </c>
@@ -17232,7 +18391,7 @@
         <v>611</v>
       </c>
       <c r="G255" s="27" t="s">
-        <v>744</v>
+        <v>357</v>
       </c>
       <c r="H255" s="28" t="s">
         <v>316</v>
@@ -17247,7 +18406,7 @@
         <v>42</v>
       </c>
       <c r="L255" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M255" s="27" t="s">
         <v>45</v>
@@ -17261,8 +18420,12 @@
       <c r="P255" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R255" t="str">
+        <f>VLOOKUP(A255,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="31" t="s">
         <v>670</v>
       </c>
@@ -17279,10 +18442,10 @@
         <v>613</v>
       </c>
       <c r="F256" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G256" s="27" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="H256" s="28" t="s">
         <v>4</v>
@@ -17311,8 +18474,12 @@
       <c r="P256" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R256" t="e">
+        <f>VLOOKUP(A256,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="31" t="s">
         <v>671</v>
       </c>
@@ -17329,10 +18496,10 @@
         <v>613</v>
       </c>
       <c r="F257" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G257" s="27" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="H257" s="28" t="s">
         <v>4</v>
@@ -17361,8 +18528,12 @@
       <c r="P257" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R257" t="e">
+        <f>VLOOKUP(A257,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="31" t="s">
         <v>672</v>
       </c>
@@ -17379,10 +18550,10 @@
         <v>613</v>
       </c>
       <c r="F258" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G258" s="27" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="H258" s="28" t="s">
         <v>313</v>
@@ -17397,7 +18568,7 @@
         <v>42</v>
       </c>
       <c r="L258" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M258" s="27" t="s">
         <v>47</v>
@@ -17411,8 +18582,12 @@
       <c r="P258" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R258" t="str">
+        <f>VLOOKUP(A258,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="31" t="s">
         <v>673</v>
       </c>
@@ -17429,10 +18604,10 @@
         <v>613</v>
       </c>
       <c r="F259" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G259" s="27" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="H259" s="28" t="s">
         <v>322</v>
@@ -17447,7 +18622,7 @@
         <v>42</v>
       </c>
       <c r="L259" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M259" s="27" t="s">
         <v>45</v>
@@ -17461,8 +18636,12 @@
       <c r="P259" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R259" t="str">
+        <f>VLOOKUP(A259,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="31" t="s">
         <v>674</v>
       </c>
@@ -17479,10 +18658,10 @@
         <v>613</v>
       </c>
       <c r="F260" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G260" s="27" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="H260" s="28" t="s">
         <v>315</v>
@@ -17497,7 +18676,7 @@
         <v>42</v>
       </c>
       <c r="L260" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M260" s="27" t="s">
         <v>51</v>
@@ -17511,8 +18690,12 @@
       <c r="P260" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R260" t="str">
+        <f>VLOOKUP(A260,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="31" t="s">
         <v>675</v>
       </c>
@@ -17529,10 +18712,10 @@
         <v>613</v>
       </c>
       <c r="F261" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G261" s="27" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="H261" s="28" t="s">
         <v>314</v>
@@ -17547,7 +18730,7 @@
         <v>42</v>
       </c>
       <c r="L261" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M261" s="27" t="s">
         <v>52</v>
@@ -17561,8 +18744,12 @@
       <c r="P261" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R261" t="str">
+        <f>VLOOKUP(A261,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="31" t="s">
         <v>676</v>
       </c>
@@ -17579,10 +18766,10 @@
         <v>613</v>
       </c>
       <c r="F262" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G262" s="27" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="H262" s="28" t="s">
         <v>316</v>
@@ -17597,7 +18784,7 @@
         <v>42</v>
       </c>
       <c r="L262" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M262" s="27" t="s">
         <v>45</v>
@@ -17611,8 +18798,12 @@
       <c r="P262" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R262" t="str">
+        <f>VLOOKUP(A262,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>MS261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="31" t="s">
         <v>677</v>
       </c>
@@ -17629,10 +18820,10 @@
         <v>614</v>
       </c>
       <c r="F263" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G263" s="27" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="H263" s="28" t="s">
         <v>4</v>
@@ -17661,8 +18852,12 @@
       <c r="P263" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R263" t="e">
+        <f>VLOOKUP(A263,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="31" t="s">
         <v>678</v>
       </c>
@@ -17679,10 +18874,10 @@
         <v>614</v>
       </c>
       <c r="F264" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G264" s="27" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="H264" s="28" t="s">
         <v>4</v>
@@ -17711,8 +18906,12 @@
       <c r="P264" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R264" t="e">
+        <f>VLOOKUP(A264,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="31" t="s">
         <v>679</v>
       </c>
@@ -17729,10 +18928,10 @@
         <v>614</v>
       </c>
       <c r="F265" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G265" s="27" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="H265" s="28" t="s">
         <v>313</v>
@@ -17761,8 +18960,12 @@
       <c r="P265" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R265" t="e">
+        <f>VLOOKUP(A265,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="31" t="s">
         <v>680</v>
       </c>
@@ -17779,10 +18982,10 @@
         <v>614</v>
       </c>
       <c r="F266" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G266" s="27" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="H266" s="28" t="s">
         <v>322</v>
@@ -17811,8 +19014,12 @@
       <c r="P266" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R266" t="e">
+        <f>VLOOKUP(A266,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="31" t="s">
         <v>681</v>
       </c>
@@ -17829,10 +19036,10 @@
         <v>614</v>
       </c>
       <c r="F267" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G267" s="27" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="H267" s="28" t="s">
         <v>315</v>
@@ -17861,8 +19068,12 @@
       <c r="P267" s="27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R267" t="e">
+        <f>VLOOKUP(A267,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="31" t="s">
         <v>682</v>
       </c>
@@ -17879,10 +19090,10 @@
         <v>614</v>
       </c>
       <c r="F268" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G268" s="27" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="H268" s="28" t="s">
         <v>314</v>
@@ -17911,8 +19122,12 @@
       <c r="P268" s="27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R268" t="e">
+        <f>VLOOKUP(A268,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="31" t="s">
         <v>683</v>
       </c>
@@ -17929,7 +19144,7 @@
         <v>614</v>
       </c>
       <c r="F269" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G269" s="27" t="s">
         <v>144</v>
@@ -17961,8 +19176,24 @@
       <c r="P269" s="27" t="s">
         <v>44</v>
       </c>
+      <c r="R269" t="e">
+        <f>VLOOKUP(A269,[1]Sheet6!$A$1:$A$25,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R269" xr:uid="{E1EC16D7-9517-47DC-B24B-8F2F761472FE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="AARP Medicare Supplement Insurance Plan D"/>
+        <filter val="AARP Medicare Supplement Insurance Plan F"/>
+        <filter val="AARP Medicare Supplement Insurance Plan G"/>
+        <filter val="AARP Medicare Supplement Insurance Plan K"/>
+        <filter val="AARP Medicare Supplement Insurance Plan L"/>
+        <filter val="AARP Medicare Supplement Insurance Plan N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -17974,9 +19205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:Q193"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A193"/>
+      <selection pane="bottomLeft" activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25057,10 +26288,10 @@
         <v>592</v>
       </c>
       <c r="F139" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G139" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H139" s="28" t="s">
         <v>313</v>
@@ -25107,7 +26338,7 @@
         <v>592</v>
       </c>
       <c r="F140" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G140" s="27" t="s">
         <v>154</v>
@@ -25157,10 +26388,10 @@
         <v>592</v>
       </c>
       <c r="F141" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G141" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H141" s="28" t="s">
         <v>315</v>
@@ -25207,10 +26438,10 @@
         <v>592</v>
       </c>
       <c r="F142" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G142" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H142" s="28" t="s">
         <v>314</v>
@@ -25257,10 +26488,10 @@
         <v>592</v>
       </c>
       <c r="F143" s="28" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H143" s="28" t="s">
         <v>316</v>
@@ -25307,25 +26538,25 @@
         <v>601</v>
       </c>
       <c r="F144" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G144" s="27" t="s">
-        <v>692</v>
+        <v>744</v>
       </c>
       <c r="H144" s="28" t="s">
         <v>313</v>
       </c>
       <c r="I144" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J144" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K144" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L144" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M144" s="27" t="s">
         <v>47</v>
@@ -25357,25 +26588,25 @@
         <v>601</v>
       </c>
       <c r="F145" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G145" s="27" t="s">
-        <v>693</v>
+        <v>747</v>
       </c>
       <c r="H145" s="28" t="s">
         <v>322</v>
       </c>
       <c r="I145" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J145" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K145" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L145" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M145" s="27" t="s">
         <v>45</v>
@@ -25407,25 +26638,25 @@
         <v>601</v>
       </c>
       <c r="F146" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G146" s="27" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="H146" s="28" t="s">
         <v>315</v>
       </c>
       <c r="I146" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J146" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K146" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L146" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M146" s="27" t="s">
         <v>51</v>
@@ -25457,25 +26688,25 @@
         <v>601</v>
       </c>
       <c r="F147" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G147" s="27" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="H147" s="28" t="s">
         <v>314</v>
       </c>
       <c r="I147" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J147" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K147" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L147" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M147" s="27" t="s">
         <v>52</v>
@@ -25507,25 +26738,25 @@
         <v>601</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="H148" s="28" t="s">
         <v>316</v>
       </c>
       <c r="I148" s="27" t="s">
-        <v>61</v>
+        <v>366</v>
       </c>
       <c r="J148" s="27" t="s">
-        <v>62</v>
+        <v>366</v>
       </c>
       <c r="K148" s="27" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="L148" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M148" s="27" t="s">
         <v>45</v>
@@ -25557,10 +26788,10 @@
         <v>603</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G149" s="27" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H149" s="28" t="s">
         <v>313</v>
@@ -25607,10 +26838,10 @@
         <v>603</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H150" s="28" t="s">
         <v>322</v>
@@ -25657,10 +26888,10 @@
         <v>603</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H151" s="28" t="s">
         <v>315</v>
@@ -25707,10 +26938,10 @@
         <v>603</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H152" s="28" t="s">
         <v>314</v>
@@ -25757,10 +26988,10 @@
         <v>603</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="H153" s="28" t="s">
         <v>316</v>
@@ -25810,7 +27041,7 @@
         <v>604</v>
       </c>
       <c r="G154" s="27" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>313</v>
@@ -25825,7 +27056,7 @@
         <v>42</v>
       </c>
       <c r="L154" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M154" s="27" t="s">
         <v>47</v>
@@ -25860,7 +27091,7 @@
         <v>604</v>
       </c>
       <c r="G155" s="27" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H155" s="28" t="s">
         <v>322</v>
@@ -25875,7 +27106,7 @@
         <v>42</v>
       </c>
       <c r="L155" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M155" s="27" t="s">
         <v>45</v>
@@ -25910,7 +27141,7 @@
         <v>604</v>
       </c>
       <c r="G156" s="27" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="H156" s="28" t="s">
         <v>315</v>
@@ -25925,7 +27156,7 @@
         <v>42</v>
       </c>
       <c r="L156" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M156" s="27" t="s">
         <v>51</v>
@@ -25960,7 +27191,7 @@
         <v>604</v>
       </c>
       <c r="G157" s="27" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>314</v>
@@ -25975,7 +27206,7 @@
         <v>42</v>
       </c>
       <c r="L157" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M157" s="27" t="s">
         <v>52</v>
@@ -26010,7 +27241,7 @@
         <v>604</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="H158" s="28" t="s">
         <v>316</v>
@@ -26025,7 +27256,7 @@
         <v>42</v>
       </c>
       <c r="L158" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M158" s="27" t="s">
         <v>45</v>
@@ -26057,10 +27288,10 @@
         <v>606</v>
       </c>
       <c r="F159" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G159" s="27" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="H159" s="28" t="s">
         <v>313</v>
@@ -26107,10 +27338,10 @@
         <v>606</v>
       </c>
       <c r="F160" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G160" s="27" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="H160" s="28" t="s">
         <v>322</v>
@@ -26157,10 +27388,10 @@
         <v>606</v>
       </c>
       <c r="F161" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G161" s="27" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="H161" s="28" t="s">
         <v>315</v>
@@ -26207,10 +27438,10 @@
         <v>606</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="H162" s="28" t="s">
         <v>314</v>
@@ -26257,10 +27488,10 @@
         <v>606</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="H163" s="28" t="s">
         <v>316</v>
@@ -26307,10 +27538,10 @@
         <v>607</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G164" s="27" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="H164" s="28" t="s">
         <v>313</v>
@@ -26357,10 +27588,10 @@
         <v>607</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="H165" s="28" t="s">
         <v>322</v>
@@ -26407,10 +27638,10 @@
         <v>607</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="H166" s="28" t="s">
         <v>315</v>
@@ -26457,10 +27688,10 @@
         <v>607</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="H167" s="28" t="s">
         <v>314</v>
@@ -26507,10 +27738,10 @@
         <v>607</v>
       </c>
       <c r="F168" s="28" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G168" s="27" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="H168" s="28" t="s">
         <v>316</v>
@@ -26560,7 +27791,7 @@
         <v>608</v>
       </c>
       <c r="G169" s="27" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="H169" s="28" t="s">
         <v>313</v>
@@ -26575,7 +27806,7 @@
         <v>42</v>
       </c>
       <c r="L169" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M169" s="27" t="s">
         <v>47</v>
@@ -26610,7 +27841,7 @@
         <v>608</v>
       </c>
       <c r="G170" s="27" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="H170" s="28" t="s">
         <v>322</v>
@@ -26625,7 +27856,7 @@
         <v>42</v>
       </c>
       <c r="L170" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M170" s="27" t="s">
         <v>45</v>
@@ -26660,7 +27891,7 @@
         <v>608</v>
       </c>
       <c r="G171" s="27" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="H171" s="28" t="s">
         <v>315</v>
@@ -26675,7 +27906,7 @@
         <v>42</v>
       </c>
       <c r="L171" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M171" s="27" t="s">
         <v>51</v>
@@ -26710,7 +27941,7 @@
         <v>608</v>
       </c>
       <c r="G172" s="27" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="H172" s="28" t="s">
         <v>314</v>
@@ -26725,7 +27956,7 @@
         <v>42</v>
       </c>
       <c r="L172" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M172" s="27" t="s">
         <v>52</v>
@@ -26760,7 +27991,7 @@
         <v>608</v>
       </c>
       <c r="G173" s="27" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="H173" s="28" t="s">
         <v>316</v>
@@ -26775,7 +28006,7 @@
         <v>42</v>
       </c>
       <c r="L173" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M173" s="27" t="s">
         <v>45</v>
@@ -26807,10 +28038,10 @@
         <v>610</v>
       </c>
       <c r="F174" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G174" s="27" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="H174" s="28" t="s">
         <v>313</v>
@@ -26857,10 +28088,10 @@
         <v>610</v>
       </c>
       <c r="F175" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G175" s="27" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="H175" s="28" t="s">
         <v>322</v>
@@ -26907,10 +28138,10 @@
         <v>610</v>
       </c>
       <c r="F176" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G176" s="27" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="H176" s="28" t="s">
         <v>315</v>
@@ -26957,10 +28188,10 @@
         <v>610</v>
       </c>
       <c r="F177" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G177" s="27" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="H177" s="28" t="s">
         <v>314</v>
@@ -27007,10 +28238,10 @@
         <v>610</v>
       </c>
       <c r="F178" s="28" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="G178" s="27" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="H178" s="28" t="s">
         <v>316</v>
@@ -27060,7 +28291,7 @@
         <v>611</v>
       </c>
       <c r="G179" s="27" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="H179" s="28" t="s">
         <v>313</v>
@@ -27075,7 +28306,7 @@
         <v>42</v>
       </c>
       <c r="L179" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M179" s="27" t="s">
         <v>47</v>
@@ -27110,7 +28341,7 @@
         <v>611</v>
       </c>
       <c r="G180" s="27" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="H180" s="28" t="s">
         <v>322</v>
@@ -27125,7 +28356,7 @@
         <v>42</v>
       </c>
       <c r="L180" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M180" s="27" t="s">
         <v>45</v>
@@ -27160,7 +28391,7 @@
         <v>611</v>
       </c>
       <c r="G181" s="27" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="H181" s="28" t="s">
         <v>315</v>
@@ -27175,7 +28406,7 @@
         <v>42</v>
       </c>
       <c r="L181" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M181" s="27" t="s">
         <v>51</v>
@@ -27210,7 +28441,7 @@
         <v>611</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>743</v>
+        <v>339</v>
       </c>
       <c r="H182" s="28" t="s">
         <v>314</v>
@@ -27225,7 +28456,7 @@
         <v>42</v>
       </c>
       <c r="L182" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M182" s="27" t="s">
         <v>52</v>
@@ -27260,7 +28491,7 @@
         <v>611</v>
       </c>
       <c r="G183" s="27" t="s">
-        <v>744</v>
+        <v>357</v>
       </c>
       <c r="H183" s="28" t="s">
         <v>316</v>
@@ -27275,7 +28506,7 @@
         <v>42</v>
       </c>
       <c r="L183" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M183" s="27" t="s">
         <v>45</v>
@@ -27307,10 +28538,10 @@
         <v>613</v>
       </c>
       <c r="F184" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G184" s="27" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="H184" s="28" t="s">
         <v>313</v>
@@ -27325,7 +28556,7 @@
         <v>42</v>
       </c>
       <c r="L184" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M184" s="27" t="s">
         <v>47</v>
@@ -27357,10 +28588,10 @@
         <v>613</v>
       </c>
       <c r="F185" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G185" s="27" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="H185" s="28" t="s">
         <v>322</v>
@@ -27375,7 +28606,7 @@
         <v>42</v>
       </c>
       <c r="L185" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M185" s="27" t="s">
         <v>45</v>
@@ -27407,10 +28638,10 @@
         <v>613</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G186" s="27" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="H186" s="28" t="s">
         <v>315</v>
@@ -27425,7 +28656,7 @@
         <v>42</v>
       </c>
       <c r="L186" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M186" s="27" t="s">
         <v>51</v>
@@ -27457,10 +28688,10 @@
         <v>613</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G187" s="27" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="H187" s="28" t="s">
         <v>314</v>
@@ -27475,7 +28706,7 @@
         <v>42</v>
       </c>
       <c r="L187" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M187" s="27" t="s">
         <v>52</v>
@@ -27507,10 +28738,10 @@
         <v>613</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G188" s="27" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="H188" s="28" t="s">
         <v>316</v>
@@ -27525,7 +28756,7 @@
         <v>42</v>
       </c>
       <c r="L188" s="27" t="s">
-        <v>43</v>
+        <v>366</v>
       </c>
       <c r="M188" s="27" t="s">
         <v>45</v>
@@ -27557,10 +28788,10 @@
         <v>614</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G189" s="27" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="H189" s="28" t="s">
         <v>313</v>
@@ -27607,10 +28838,10 @@
         <v>614</v>
       </c>
       <c r="F190" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="H190" s="28" t="s">
         <v>322</v>
@@ -27657,10 +28888,10 @@
         <v>614</v>
       </c>
       <c r="F191" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G191" s="27" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="H191" s="28" t="s">
         <v>315</v>
@@ -27707,10 +28938,10 @@
         <v>614</v>
       </c>
       <c r="F192" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G192" s="27" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="H192" s="28" t="s">
         <v>314</v>
@@ -27757,7 +28988,7 @@
         <v>614</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G193" s="27" t="s">
         <v>144</v>
@@ -29725,7 +30956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -29821,10 +31052,10 @@
         <v>613</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>315</v>
@@ -29871,10 +31102,10 @@
         <v>614</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>313</v>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57DE46B-00AA-46D6-8CC6-C4D33CCE6079}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144092F8-7C5D-43F3-B409-C2C06F4C9D84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8794" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10137" uniqueCount="775">
   <si>
     <t>name</t>
   </si>
@@ -2612,7 +2612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2695,6 +2695,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4300,7 +4301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
   <dimension ref="A1:R269"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -18790,9 +18791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:Q193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31229,11 +31230,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31314,8 +31315,8 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>197</v>
+      <c r="A2" s="32" t="s">
+        <v>267</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
@@ -31324,22 +31325,22 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>516</v>
+        <v>584</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>57</v>
@@ -31365,61 +31366,4246 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="B3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C7" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="D7" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="27" t="s">
+      <c r="J7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O7" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="P3" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q3" s="27" t="s">
+      <c r="P7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="31"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>689</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>694</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P66" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q68" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q69" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>758</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P70" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q71" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P73" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O78" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O79" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q79" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O80" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P80" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q80" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O81" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P81" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N82" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O82" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P82" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q82" s="27" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144092F8-7C5D-43F3-B409-C2C06F4C9D84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3378C6-A470-450F-87BC-F6723F0B5FA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10137" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8930" uniqueCount="775">
   <si>
     <t>name</t>
   </si>
@@ -2612,7 +2612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2695,7 +2695,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31230,11 +31229,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31315,8 +31314,8 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>267</v>
+      <c r="A2" s="31" t="s">
+        <v>492</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
@@ -31325,19 +31324,19 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>78</v>
+        <v>433</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>584</v>
+        <v>763</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -31352,7 +31351,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>46</v>
@@ -31369,31 +31368,31 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>353</v>
+        <v>493</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>100</v>
+        <v>409</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>101</v>
+        <v>433</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>173</v>
+        <v>510</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>614</v>
+        <v>764</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -31405,48 +31404,48 @@
         <v>41</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>354</v>
+        <v>494</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>100</v>
+        <v>409</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>101</v>
+        <v>433</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>173</v>
+        <v>510</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -31458,48 +31457,48 @@
         <v>41</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>355</v>
+        <v>495</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>100</v>
+        <v>409</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>140</v>
+        <v>408</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>101</v>
+        <v>433</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>173</v>
+        <v>510</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>670</v>
+        <v>766</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -31511,48 +31510,48 @@
         <v>41</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>358</v>
+        <v>496</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>102</v>
+        <v>409</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>141</v>
+        <v>408</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>103</v>
+        <v>433</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>174</v>
+        <v>510</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31564,13 +31563,13 @@
         <v>41</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
@@ -31581,31 +31580,31 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>674</v>
+        <v>770</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31620,10 +31619,10 @@
         <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
@@ -31634,31 +31633,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>675</v>
+        <v>771</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>57</v>
@@ -31673,45 +31672,45 @@
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>361</v>
+        <v>501</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>676</v>
+        <v>772</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>57</v>
@@ -31726,45 +31725,45 @@
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>362</v>
+        <v>502</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>677</v>
+        <v>773</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>57</v>
@@ -31779,45 +31778,45 @@
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>365</v>
+        <v>503</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>105</v>
+        <v>434</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>175</v>
+        <v>511</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>679</v>
+        <v>774</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>57</v>
@@ -31832,3778 +31831,15 @@
         <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>681</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>688</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>689</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>690</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>691</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>758</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q77" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q78" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q79" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q80" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q81" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q82" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3378C6-A470-450F-87BC-F6723F0B5FA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD44EBE9-AF7A-4F1B-9148-E6D11029972C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8930" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8930" uniqueCount="776">
   <si>
     <t>name</t>
   </si>
@@ -2416,6 +2416,9 @@
   </si>
   <si>
     <t>100.19*</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -4302,7 +4305,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18065,16 +18068,16 @@
         <v>4</v>
       </c>
       <c r="J256" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K256" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L256" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M256" s="29" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N256" s="27" t="s">
         <v>45</v>
@@ -18118,16 +18121,16 @@
         <v>4</v>
       </c>
       <c r="J257" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K257" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L257" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M257" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
+      </c>
+      <c r="M257" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="N257" s="27" t="s">
         <v>44</v>
@@ -18171,16 +18174,16 @@
         <v>177</v>
       </c>
       <c r="J258" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K258" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L258" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M258" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
+      </c>
+      <c r="M258" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="N258" s="27" t="s">
         <v>46</v>
@@ -18224,16 +18227,16 @@
         <v>186</v>
       </c>
       <c r="J259" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K259" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L259" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M259" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
+      </c>
+      <c r="M259" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="N259" s="27" t="s">
         <v>44</v>
@@ -18277,16 +18280,16 @@
         <v>179</v>
       </c>
       <c r="J260" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K260" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L260" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M260" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
+      </c>
+      <c r="M260" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="N260" s="27" t="s">
         <v>47</v>
@@ -18330,16 +18333,16 @@
         <v>178</v>
       </c>
       <c r="J261" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K261" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L261" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M261" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
+      </c>
+      <c r="M261" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="N261" s="27" t="s">
         <v>48</v>
@@ -18383,16 +18386,16 @@
         <v>180</v>
       </c>
       <c r="J262" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K262" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L262" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M262" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
+      </c>
+      <c r="M262" s="29" t="s">
+        <v>775</v>
       </c>
       <c r="N262" s="27" t="s">
         <v>44</v>
@@ -18790,9 +18793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:Q193"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28684,16 +28687,16 @@
         <v>177</v>
       </c>
       <c r="J184" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K184" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L184" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M184" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N184" s="27" t="s">
         <v>46</v>
@@ -28737,16 +28740,16 @@
         <v>186</v>
       </c>
       <c r="J185" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K185" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L185" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M185" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N185" s="27" t="s">
         <v>44</v>
@@ -28790,16 +28793,16 @@
         <v>179</v>
       </c>
       <c r="J186" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K186" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L186" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M186" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N186" s="27" t="s">
         <v>47</v>
@@ -28843,16 +28846,16 @@
         <v>178</v>
       </c>
       <c r="J187" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K187" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L187" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M187" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N187" s="27" t="s">
         <v>48</v>
@@ -28896,16 +28899,16 @@
         <v>180</v>
       </c>
       <c r="J188" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K188" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L188" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M188" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N188" s="27" t="s">
         <v>44</v>
@@ -31231,9 +31234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31342,16 +31345,16 @@
         <v>177</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>46</v>
@@ -31395,16 +31398,16 @@
         <v>186</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N3" s="27" t="s">
         <v>44</v>
@@ -31448,16 +31451,16 @@
         <v>179</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>47</v>
@@ -31501,16 +31504,16 @@
         <v>178</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N5" s="27" t="s">
         <v>48</v>
@@ -31554,16 +31557,16 @@
         <v>180</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>44</v>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD44EBE9-AF7A-4F1B-9148-E6D11029972C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CDF19-87E2-4BFC-A59C-1E05021C3E9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8930" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9032" uniqueCount="776">
   <si>
     <t>name</t>
   </si>
@@ -29196,7 +29196,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C59DE6-4396-47E0-AB75-FC0A8E1A5F9A}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31223,6 +31223,324 @@
         <v>43</v>
       </c>
       <c r="R37" s="31"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CDF19-87E2-4BFC-A59C-1E05021C3E9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95046BD-2986-4FC4-8008-DF7086B284CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9032" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10069" uniqueCount="776">
   <si>
     <t>name</t>
   </si>
@@ -18793,9 +18793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31550,11 +31550,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31636,49 +31636,49 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>510</v>
+        <v>175</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>763</v>
+        <v>680</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>185</v>
@@ -31686,211 +31686,215 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>493</v>
+        <v>367</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>510</v>
+        <v>175</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>494</v>
+        <v>368</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>510</v>
+        <v>175</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>765</v>
+        <v>682</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>495</v>
+        <v>369</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>409</v>
+        <v>104</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>408</v>
+        <v>143</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>433</v>
+        <v>105</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>510</v>
+        <v>175</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>496</v>
+        <v>372</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>409</v>
+        <v>135</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>433</v>
+        <v>38</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>510</v>
+        <v>53</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>767</v>
+        <v>686</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
@@ -31898,10 +31902,11 @@
       <c r="Q6" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>7</v>
@@ -31910,19 +31915,19 @@
         <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>434</v>
+        <v>38</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>770</v>
+        <v>687</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>177</v>
@@ -31951,10 +31956,11 @@
       <c r="Q7" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>500</v>
+        <v>374</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>8</v>
@@ -31963,19 +31969,19 @@
         <v>152</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>434</v>
+        <v>38</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>771</v>
+        <v>688</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>186</v>
@@ -32004,10 +32010,11 @@
       <c r="Q8" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>9</v>
@@ -32016,19 +32023,19 @@
         <v>149</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>434</v>
+        <v>38</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>772</v>
+        <v>689</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>179</v>
@@ -32057,10 +32064,11 @@
       <c r="Q9" s="27" t="s">
         <v>49</v>
       </c>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>502</v>
+        <v>376</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>10</v>
@@ -32069,19 +32077,19 @@
         <v>150</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>434</v>
+        <v>38</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>773</v>
+        <v>690</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>178</v>
@@ -32110,10 +32118,11 @@
       <c r="Q10" s="27" t="s">
         <v>50</v>
       </c>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>503</v>
+        <v>377</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>11</v>
@@ -32122,19 +32131,19 @@
         <v>145</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>411</v>
+        <v>135</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>434</v>
+        <v>38</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>511</v>
+        <v>53</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>774</v>
+        <v>691</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>180</v>
@@ -32161,6 +32170,3246 @@
         <v>185</v>
       </c>
       <c r="Q11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>694</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>756</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>757</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>758</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>759</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P66" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q68" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q69" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P70" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q71" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95046BD-2986-4FC4-8008-DF7086B284CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417504CE-26CF-444D-A153-721223D3E906}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10069" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10239" uniqueCount="776">
   <si>
     <t>name</t>
   </si>
@@ -4304,8 +4304,8 @@
   <dimension ref="A1:R269"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18794,8 +18794,8 @@
   <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A123" sqref="A123:XFD193"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31550,11 +31550,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31636,7 +31636,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>8</v>
@@ -31645,19 +31645,19 @@
         <v>152</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>186</v>
@@ -31690,7 +31690,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>9</v>
@@ -31699,19 +31699,19 @@
         <v>149</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>681</v>
+        <v>614</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>179</v>
@@ -31744,7 +31744,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>10</v>
@@ -31753,19 +31753,19 @@
         <v>150</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>178</v>
@@ -31798,7 +31798,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>11</v>
@@ -31807,19 +31807,19 @@
         <v>145</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>180</v>
@@ -31852,31 +31852,31 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31891,10 +31891,10 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
@@ -31906,31 +31906,31 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31945,10 +31945,10 @@
         <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
@@ -31960,31 +31960,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>57</v>
@@ -31999,46 +31999,46 @@
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>57</v>
@@ -32053,46 +32053,46 @@
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>57</v>
@@ -32107,46 +32107,46 @@
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>57</v>
@@ -32161,10 +32161,10 @@
         <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>185</v>
@@ -32176,31 +32176,31 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>57</v>
@@ -32230,31 +32230,31 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>57</v>
@@ -32269,46 +32269,46 @@
         <v>42</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>57</v>
@@ -32323,46 +32323,46 @@
         <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>57</v>
@@ -32377,46 +32377,46 @@
         <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>57</v>
@@ -32431,46 +32431,46 @@
         <v>42</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>57</v>
@@ -32485,10 +32485,10 @@
         <v>42</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>185</v>
@@ -32500,31 +32500,31 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>504</v>
+        <v>53</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>57</v>
@@ -32539,10 +32539,10 @@
         <v>42</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>185</v>
@@ -32550,34 +32550,35 @@
       <c r="Q18" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R18" s="31"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>504</v>
+        <v>53</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>57</v>
@@ -32592,45 +32593,46 @@
         <v>42</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>504</v>
+        <v>53</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J20" s="27" t="s">
         <v>57</v>
@@ -32645,45 +32647,46 @@
         <v>42</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="R20" s="31"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>388</v>
+        <v>135</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>413</v>
+        <v>38</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>504</v>
+        <v>53</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>57</v>
@@ -32698,45 +32701,46 @@
         <v>42</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R21" s="31"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>388</v>
+        <v>51</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>387</v>
+        <v>142</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>57</v>
@@ -32754,7 +32758,7 @@
         <v>44</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>185</v>
@@ -32762,10 +32766,11 @@
       <c r="Q22" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R22" s="31"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>7</v>
@@ -32774,34 +32779,34 @@
         <v>151</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>512</v>
+        <v>51</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N23" s="27" t="s">
         <v>46</v>
@@ -32815,10 +32820,11 @@
       <c r="Q23" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R23" s="31"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>8</v>
@@ -32827,34 +32833,34 @@
         <v>152</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>512</v>
+        <v>51</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N24" s="27" t="s">
         <v>44</v>
@@ -32868,10 +32874,11 @@
       <c r="Q24" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R24" s="31"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="B25" s="26" t="s">
         <v>9</v>
@@ -32880,34 +32887,34 @@
         <v>149</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>512</v>
+        <v>51</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N25" s="27" t="s">
         <v>47</v>
@@ -32921,10 +32928,11 @@
       <c r="Q25" s="27" t="s">
         <v>49</v>
       </c>
+      <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>10</v>
@@ -32933,34 +32941,34 @@
         <v>150</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>512</v>
+        <v>51</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>178</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N26" s="27" t="s">
         <v>48</v>
@@ -32974,10 +32982,11 @@
       <c r="Q26" s="27" t="s">
         <v>50</v>
       </c>
+      <c r="R26" s="31"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="B27" s="26" t="s">
         <v>11</v>
@@ -32986,34 +32995,34 @@
         <v>145</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>512</v>
+        <v>51</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>422</v>
+        <v>52</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>180</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
         <v>44</v>
@@ -33027,10 +33036,11 @@
       <c r="Q27" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R27" s="31"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="B28" s="26" t="s">
         <v>7</v>
@@ -33039,19 +33049,19 @@
         <v>151</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>177</v>
@@ -33083,7 +33093,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>8</v>
@@ -33092,19 +33102,19 @@
         <v>152</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>186</v>
@@ -33136,7 +33146,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>9</v>
@@ -33145,19 +33155,19 @@
         <v>149</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>179</v>
@@ -33189,7 +33199,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>10</v>
@@ -33198,19 +33208,19 @@
         <v>150</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>178</v>
@@ -33242,7 +33252,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>11</v>
@@ -33251,19 +33261,19 @@
         <v>145</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>180</v>
@@ -33295,7 +33305,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>7</v>
@@ -33304,31 +33314,31 @@
         <v>151</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M33" s="27" t="s">
         <v>193</v>
@@ -33348,7 +33358,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>8</v>
@@ -33357,31 +33367,31 @@
         <v>152</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M34" s="27" t="s">
         <v>193</v>
@@ -33401,7 +33411,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>9</v>
@@ -33410,31 +33420,31 @@
         <v>149</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M35" s="27" t="s">
         <v>193</v>
@@ -33454,7 +33464,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>10</v>
@@ -33463,31 +33473,31 @@
         <v>150</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>521</v>
+        <v>712</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>178</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M36" s="27" t="s">
         <v>193</v>
@@ -33507,7 +33517,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>11</v>
@@ -33516,31 +33526,31 @@
         <v>145</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>397</v>
+        <v>512</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>424</v>
+        <v>505</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>180</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M37" s="27" t="s">
         <v>193</v>
@@ -33560,7 +33570,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>7</v>
@@ -33569,19 +33579,19 @@
         <v>151</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>177</v>
@@ -33613,7 +33623,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>8</v>
@@ -33622,19 +33632,19 @@
         <v>152</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>186</v>
@@ -33666,7 +33676,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>9</v>
@@ -33675,19 +33685,19 @@
         <v>149</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>179</v>
@@ -33719,7 +33729,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>10</v>
@@ -33728,19 +33738,19 @@
         <v>150</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>178</v>
@@ -33772,7 +33782,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>11</v>
@@ -33781,19 +33791,19 @@
         <v>145</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>180</v>
@@ -33825,7 +33835,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>7</v>
@@ -33834,19 +33844,19 @@
         <v>151</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>177</v>
@@ -33861,7 +33871,7 @@
         <v>41</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N43" s="27" t="s">
         <v>46</v>
@@ -33878,7 +33888,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>8</v>
@@ -33887,19 +33897,19 @@
         <v>152</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>186</v>
@@ -33914,7 +33924,7 @@
         <v>41</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N44" s="27" t="s">
         <v>44</v>
@@ -33931,7 +33941,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>9</v>
@@ -33940,19 +33950,19 @@
         <v>149</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>179</v>
@@ -33967,7 +33977,7 @@
         <v>41</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N45" s="27" t="s">
         <v>47</v>
@@ -33984,7 +33994,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>10</v>
@@ -33993,19 +34003,19 @@
         <v>150</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>738</v>
+        <v>521</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>178</v>
@@ -34020,7 +34030,7 @@
         <v>41</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N46" s="27" t="s">
         <v>48</v>
@@ -34037,7 +34047,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>11</v>
@@ -34046,19 +34056,19 @@
         <v>145</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>508</v>
+        <v>424</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="I47" s="28" t="s">
         <v>180</v>
@@ -34073,7 +34083,7 @@
         <v>41</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N47" s="27" t="s">
         <v>44</v>
@@ -34090,7 +34100,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>7</v>
@@ -34099,19 +34109,19 @@
         <v>151</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>177</v>
@@ -34126,7 +34136,7 @@
         <v>41</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N48" s="27" t="s">
         <v>46</v>
@@ -34143,7 +34153,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>8</v>
@@ -34152,19 +34162,19 @@
         <v>152</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>186</v>
@@ -34179,7 +34189,7 @@
         <v>41</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N49" s="27" t="s">
         <v>44</v>
@@ -34196,7 +34206,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>9</v>
@@ -34205,19 +34215,19 @@
         <v>149</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>179</v>
@@ -34232,7 +34242,7 @@
         <v>41</v>
       </c>
       <c r="M50" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N50" s="27" t="s">
         <v>47</v>
@@ -34249,7 +34259,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>10</v>
@@ -34258,19 +34268,19 @@
         <v>150</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>178</v>
@@ -34285,7 +34295,7 @@
         <v>41</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N51" s="27" t="s">
         <v>48</v>
@@ -34302,7 +34312,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>11</v>
@@ -34311,19 +34321,19 @@
         <v>145</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>180</v>
@@ -34338,7 +34348,7 @@
         <v>41</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N52" s="27" t="s">
         <v>44</v>
@@ -34355,7 +34365,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>7</v>
@@ -34364,19 +34374,19 @@
         <v>151</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>177</v>
@@ -34408,7 +34418,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>8</v>
@@ -34417,19 +34427,19 @@
         <v>152</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>186</v>
@@ -34461,7 +34471,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>9</v>
@@ -34470,19 +34480,19 @@
         <v>149</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>179</v>
@@ -34514,7 +34524,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>10</v>
@@ -34523,19 +34533,19 @@
         <v>150</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>178</v>
@@ -34567,7 +34577,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>11</v>
@@ -34576,19 +34586,19 @@
         <v>145</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>180</v>
@@ -34620,7 +34630,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>7</v>
@@ -34629,19 +34639,19 @@
         <v>151</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>177</v>
@@ -34673,7 +34683,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>8</v>
@@ -34682,19 +34692,19 @@
         <v>152</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>186</v>
@@ -34726,7 +34736,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>9</v>
@@ -34735,19 +34745,19 @@
         <v>149</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>179</v>
@@ -34779,7 +34789,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>10</v>
@@ -34788,19 +34798,19 @@
         <v>150</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>178</v>
@@ -34832,7 +34842,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>11</v>
@@ -34841,19 +34851,19 @@
         <v>145</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>180</v>
@@ -34885,7 +34895,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>7</v>
@@ -34894,34 +34904,34 @@
         <v>151</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J63" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L63" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M63" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N63" s="27" t="s">
         <v>46</v>
@@ -34938,7 +34948,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>8</v>
@@ -34947,34 +34957,34 @@
         <v>152</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F64" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G64" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="I64" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J64" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L64" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M64" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N64" s="27" t="s">
         <v>44</v>
@@ -34991,7 +35001,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>9</v>
@@ -35000,34 +35010,34 @@
         <v>149</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="I65" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L65" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M65" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N65" s="27" t="s">
         <v>47</v>
@@ -35044,7 +35054,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>10</v>
@@ -35053,34 +35063,34 @@
         <v>150</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="I66" s="28" t="s">
         <v>178</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K66" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L66" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N66" s="27" t="s">
         <v>48</v>
@@ -35097,7 +35107,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>11</v>
@@ -35106,34 +35116,34 @@
         <v>145</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>180</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K67" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L67" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M67" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N67" s="27" t="s">
         <v>44</v>
@@ -35150,7 +35160,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>7</v>
@@ -35159,19 +35169,19 @@
         <v>151</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="I68" s="28" t="s">
         <v>177</v>
@@ -35186,7 +35196,7 @@
         <v>41</v>
       </c>
       <c r="M68" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N68" s="27" t="s">
         <v>46</v>
@@ -35203,7 +35213,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>8</v>
@@ -35212,19 +35222,19 @@
         <v>152</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="I69" s="28" t="s">
         <v>186</v>
@@ -35239,7 +35249,7 @@
         <v>41</v>
       </c>
       <c r="M69" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N69" s="27" t="s">
         <v>44</v>
@@ -35256,7 +35266,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>9</v>
@@ -35265,19 +35275,19 @@
         <v>149</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>179</v>
@@ -35292,7 +35302,7 @@
         <v>41</v>
       </c>
       <c r="M70" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N70" s="27" t="s">
         <v>47</v>
@@ -35309,7 +35319,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>10</v>
@@ -35318,19 +35328,19 @@
         <v>150</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="I71" s="28" t="s">
         <v>178</v>
@@ -35345,7 +35355,7 @@
         <v>41</v>
       </c>
       <c r="M71" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N71" s="27" t="s">
         <v>48</v>
@@ -35362,7 +35372,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>11</v>
@@ -35371,19 +35381,19 @@
         <v>145</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>511</v>
+        <v>431</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>180</v>
@@ -35398,7 +35408,7 @@
         <v>41</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N72" s="27" t="s">
         <v>44</v>
@@ -35410,6 +35420,536 @@
         <v>185</v>
       </c>
       <c r="Q72" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P73" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O78" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O79" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q79" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O80" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P80" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q80" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O81" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P81" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N82" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O82" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P82" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q82" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417504CE-26CF-444D-A153-721223D3E906}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAB6AE1-030A-462A-8EB4-966D589F20B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10239" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="776">
   <si>
     <t>name</t>
   </si>
@@ -2615,7 +2615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2698,6 +2698,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31550,7 +31553,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31636,31 +31639,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>152</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>57</v>
@@ -31675,10 +31678,10 @@
         <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>185</v>
@@ -31690,31 +31693,31 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>353</v>
+        <v>499</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>173</v>
+        <v>511</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>614</v>
+        <v>770</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -31729,46 +31732,45 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="31"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>354</v>
+        <v>500</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>173</v>
+        <v>511</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -31783,46 +31785,45 @@
         <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="31"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>355</v>
+        <v>501</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>100</v>
+        <v>411</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>140</v>
+        <v>410</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>173</v>
+        <v>511</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -31837,46 +31838,45 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="31"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>358</v>
+        <v>502</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>673</v>
+        <v>773</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31891,46 +31891,45 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="31"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>359</v>
+        <v>503</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>102</v>
+        <v>411</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>141</v>
+        <v>410</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>103</v>
+        <v>434</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>674</v>
+        <v>774</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31948,4008 +31947,12 @@
         <v>44</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="31"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>675</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="31"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>676</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R9" s="31"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>680</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>681</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R15" s="31"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>686</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>688</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>689</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>690</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>691</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="31"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="31"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="31"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>757</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>758</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>759</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>760</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q77" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q78" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q79" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q80" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q81" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q82" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAB6AE1-030A-462A-8EB4-966D589F20B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9466FCA-993E-4DF5-8E91-64970A7DF2BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="785">
   <si>
     <t>name</t>
   </si>
@@ -2419,6 +2419,33 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>141.36*</t>
+  </si>
+  <si>
+    <t>171.92*</t>
+  </si>
+  <si>
+    <t>141.52*</t>
+  </si>
+  <si>
+    <t>54.48*</t>
+  </si>
+  <si>
+    <t>80.56*</t>
+  </si>
+  <si>
+    <t>114.96*</t>
+  </si>
+  <si>
+    <t>218.64*</t>
+  </si>
+  <si>
+    <t>166.79*</t>
+  </si>
+  <si>
+    <t>64.26*</t>
   </si>
 </sst>
 </file>
@@ -4308,7 +4335,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18796,9 +18823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25651,7 +25678,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>4</v>
@@ -25705,7 +25732,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>177</v>
@@ -25759,7 +25786,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>186</v>
@@ -25813,7 +25840,7 @@
         <v>53</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>689</v>
+        <v>779</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>179</v>
@@ -25867,7 +25894,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>178</v>
@@ -25921,7 +25948,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>180</v>
@@ -28419,7 +28446,7 @@
         <v>431</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="I179" s="28" t="s">
         <v>177</v>
@@ -28472,7 +28499,7 @@
         <v>431</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>186</v>
@@ -28525,7 +28552,7 @@
         <v>431</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>179</v>
@@ -28578,7 +28605,7 @@
         <v>431</v>
       </c>
       <c r="H182" s="27" t="s">
-        <v>759</v>
+        <v>615</v>
       </c>
       <c r="I182" s="28" t="s">
         <v>178</v>
@@ -28631,7 +28658,7 @@
         <v>431</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>760</v>
+        <v>616</v>
       </c>
       <c r="I183" s="28" t="s">
         <v>180</v>
@@ -31555,7 +31582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9466FCA-993E-4DF5-8E91-64970A7DF2BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC27A7D-992B-4037-A233-3A7D9E60CA8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
@@ -18824,8 +18824,8 @@
   <dimension ref="A1:R193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31007,7 +31007,7 @@
         <v>53</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>177</v>
@@ -31061,7 +31061,7 @@
         <v>53</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>688</v>
+        <v>778</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>186</v>
@@ -31115,7 +31115,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>691</v>
+        <v>781</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>180</v>
@@ -31489,7 +31489,7 @@
         <v>431</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>177</v>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC27A7D-992B-4037-A233-3A7D9E60CA8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0C1EB-63D8-4DE5-A94C-5D692F2432E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10715" uniqueCount="785">
   <si>
     <t>name</t>
   </si>
@@ -2642,7 +2641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2725,9 +2724,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4333,9 +4329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
   <dimension ref="A1:R269"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18825,7 +18821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31580,7 +31576,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31666,28 +31662,28 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>673</v>
+        <v>550</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -31720,7 +31716,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>499</v>
+        <v>267</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>7</v>
@@ -31729,19 +31725,19 @@
         <v>151</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>511</v>
+        <v>163</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>770</v>
+        <v>584</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>177</v>
@@ -31770,10 +31766,11 @@
       <c r="Q3" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>500</v>
+        <v>268</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>8</v>
@@ -31782,19 +31779,19 @@
         <v>152</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>511</v>
+        <v>163</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>771</v>
+        <v>585</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>186</v>
@@ -31823,34 +31820,35 @@
       <c r="Q4" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>501</v>
+        <v>274</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>511</v>
+        <v>164</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>772</v>
+        <v>591</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -31865,45 +31863,46 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>502</v>
+        <v>309</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>434</v>
+        <v>90</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>511</v>
+        <v>167</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>773</v>
+        <v>626</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31918,45 +31917,46 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>503</v>
+        <v>310</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>411</v>
+        <v>89</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>434</v>
+        <v>90</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>511</v>
+        <v>167</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>774</v>
+        <v>627</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31974,12 +31974,5520 @@
         <v>44</v>
       </c>
       <c r="O7" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="27" t="s">
+      <c r="P8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>647</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>648</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>649</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>650</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>653</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" s="31"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>660</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>661</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="31"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R29" s="31"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="31"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>675</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R36" s="31"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>676</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R37" s="31"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="31"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>679</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" s="31"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="31"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="31"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R42" s="31"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" s="31"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="31"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="31"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>778</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" s="31"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R47" s="31"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R48" s="31"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" s="31"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>694</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R50" s="31"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>695</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R51" s="31"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" s="31"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R53" s="31"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R54" s="31"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R55" s="31"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P66" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q68" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q69" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P70" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q71" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P73" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O78" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q79" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O80" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P80" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q80" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O81" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P81" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F82" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N82" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O82" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P82" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q82" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J83" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L83" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N83" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O83" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P83" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q83" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F84" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L84" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N84" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P84" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q84" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M85" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N85" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O85" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P85" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K86" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L86" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N86" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O86" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P86" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q86" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O87" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P87" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q87" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N88" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O88" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P88" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q88" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N89" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O89" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P89" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q89" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J90" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L90" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M90" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N90" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O90" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P90" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q90" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L91" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M91" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N91" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O91" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P91" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q91" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F92" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L92" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M92" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N92" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O92" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q92" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L93" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M93" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N93" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O93" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P93" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q93" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F94" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J94" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L94" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M94" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N94" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O94" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P94" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q94" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H95" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J95" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K95" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L95" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M95" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N95" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O95" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P95" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q95" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H96" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J96" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K96" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L96" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M96" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N96" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O96" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P96" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q96" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H97" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K97" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L97" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M97" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N97" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O97" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P97" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q97" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H98" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J98" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K98" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L98" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M98" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N98" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O98" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P98" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q98" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H99" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J99" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K99" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L99" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M99" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N99" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O99" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P99" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q99" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E100" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H100" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J100" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K100" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L100" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M100" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N100" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O100" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P100" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q100" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H101" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J101" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K101" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L101" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M101" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N101" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O101" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P101" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q101" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H102" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J102" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K102" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L102" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M102" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N102" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O102" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P102" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q102" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F103" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H103" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J103" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K103" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L103" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M103" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N103" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O103" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P103" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q103" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H104" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J104" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K104" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L104" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M104" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N104" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O104" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P104" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q104" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H105" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I105" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J105" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K105" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L105" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M105" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N105" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O105" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P105" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q105" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F106" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H106" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I106" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J106" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K106" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L106" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M106" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N106" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O106" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P106" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q106" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H107" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I107" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J107" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K107" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L107" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M107" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N107" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O107" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P107" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q107" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I108" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J108" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K108" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L108" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M108" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N108" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O108" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P108" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q108" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H109" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I109" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J109" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K109" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L109" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M109" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N109" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O109" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P109" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q109" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H110" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I110" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J110" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K110" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L110" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M110" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N110" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O110" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P110" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q110" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B0C1EB-63D8-4DE5-A94C-5D692F2432E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769AA6F1-36AB-4C82-AE70-8A3F0650E656}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10715" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10341" uniqueCount="785">
   <si>
     <t>name</t>
   </si>
@@ -18819,7 +18819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -31576,9 +31576,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -31662,7 +31662,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
@@ -31671,19 +31671,19 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -31716,31 +31716,31 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -31755,10 +31755,10 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
@@ -31770,31 +31770,31 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -31809,46 +31809,46 @@
         <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -31863,46 +31863,46 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>626</v>
+        <v>664</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31917,10 +31917,10 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
@@ -31932,31 +31932,31 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31971,10 +31971,10 @@
         <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
@@ -31986,31 +31986,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>637</v>
+        <v>668</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>57</v>
@@ -32028,7 +32028,7 @@
         <v>44</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>185</v>
@@ -32040,31 +32040,31 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>57</v>
@@ -32079,46 +32079,46 @@
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>57</v>
@@ -32133,46 +32133,46 @@
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>57</v>
@@ -32187,46 +32187,46 @@
         <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>519</v>
+        <v>673</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>57</v>
@@ -32241,46 +32241,46 @@
         <v>42</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>57</v>
@@ -32298,7 +32298,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>185</v>
@@ -32310,31 +32310,31 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>57</v>
@@ -32349,46 +32349,46 @@
         <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>57</v>
@@ -32403,46 +32403,46 @@
         <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>57</v>
@@ -32457,46 +32457,46 @@
         <v>42</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>57</v>
@@ -32511,46 +32511,46 @@
         <v>42</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R17" s="31"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>57</v>
@@ -32568,7 +32568,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>185</v>
@@ -32580,31 +32580,31 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>57</v>
@@ -32619,46 +32619,46 @@
         <v>42</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R19" s="31"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J20" s="27" t="s">
         <v>57</v>
@@ -32673,46 +32673,46 @@
         <v>42</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="R20" s="31"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>57</v>
@@ -32727,46 +32727,46 @@
         <v>42</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="R21" s="31"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>656</v>
+        <v>776</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>57</v>
@@ -32781,46 +32781,46 @@
         <v>42</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R22" s="31"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>657</v>
+        <v>777</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>57</v>
@@ -32835,10 +32835,10 @@
         <v>42</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>185</v>
@@ -32850,31 +32850,31 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>660</v>
+        <v>778</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>57</v>
@@ -32889,10 +32889,10 @@
         <v>42</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>185</v>
@@ -32904,31 +32904,31 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>661</v>
+        <v>779</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>57</v>
@@ -32943,46 +32943,46 @@
         <v>42</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R25" s="31"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>662</v>
+        <v>780</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>57</v>
@@ -32997,46 +32997,46 @@
         <v>42</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R26" s="31"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>663</v>
+        <v>781</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>57</v>
@@ -33051,46 +33051,46 @@
         <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R27" s="31"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>57</v>
@@ -33108,7 +33108,7 @@
         <v>44</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>185</v>
@@ -33120,7 +33120,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>7</v>
@@ -33129,19 +33129,19 @@
         <v>151</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>177</v>
@@ -33174,7 +33174,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>8</v>
@@ -33183,19 +33183,19 @@
         <v>152</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>186</v>
@@ -33228,7 +33228,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>9</v>
@@ -33237,19 +33237,19 @@
         <v>149</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>179</v>
@@ -33282,7 +33282,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>10</v>
@@ -33291,19 +33291,19 @@
         <v>150</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>178</v>
@@ -33336,7 +33336,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>11</v>
@@ -33345,19 +33345,19 @@
         <v>145</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>180</v>
@@ -33390,7 +33390,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>7</v>
@@ -33399,19 +33399,19 @@
         <v>151</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>177</v>
@@ -33440,11 +33440,10 @@
       <c r="Q34" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R34" s="31"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>8</v>
@@ -33453,19 +33452,19 @@
         <v>152</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>186</v>
@@ -33494,11 +33493,10 @@
       <c r="Q35" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="31"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>9</v>
@@ -33507,19 +33505,19 @@
         <v>149</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>179</v>
@@ -33548,11 +33546,10 @@
       <c r="Q36" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R36" s="31"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>10</v>
@@ -33561,19 +33558,19 @@
         <v>150</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>178</v>
@@ -33602,11 +33599,10 @@
       <c r="Q37" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R37" s="31"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>11</v>
@@ -33615,19 +33611,19 @@
         <v>145</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>141</v>
+        <v>387</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>180</v>
@@ -33656,11 +33652,10 @@
       <c r="Q38" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R38" s="31"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>365</v>
+        <v>436</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>7</v>
@@ -33669,34 +33664,34 @@
         <v>151</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N39" s="27" t="s">
         <v>46</v>
@@ -33710,11 +33705,10 @@
       <c r="Q39" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R39" s="31"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>8</v>
@@ -33723,34 +33717,34 @@
         <v>152</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N40" s="27" t="s">
         <v>44</v>
@@ -33764,11 +33758,10 @@
       <c r="Q40" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R40" s="31"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>9</v>
@@ -33777,34 +33770,34 @@
         <v>149</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N41" s="27" t="s">
         <v>47</v>
@@ -33818,11 +33811,10 @@
       <c r="Q41" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R41" s="31"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>10</v>
@@ -33831,34 +33823,34 @@
         <v>150</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>178</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N42" s="27" t="s">
         <v>48</v>
@@ -33872,11 +33864,10 @@
       <c r="Q42" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="31"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>11</v>
@@ -33885,34 +33876,34 @@
         <v>145</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>104</v>
+        <v>512</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>175</v>
+        <v>505</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>180</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N43" s="27" t="s">
         <v>44</v>
@@ -33926,35 +33917,34 @@
       <c r="Q43" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R43" s="31"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>776</v>
+        <v>716</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>57</v>
@@ -33969,10 +33959,10 @@
         <v>42</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>185</v>
@@ -33980,35 +33970,34 @@
       <c r="Q44" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R44" s="31"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J45" s="27" t="s">
         <v>57</v>
@@ -34023,10 +34012,10 @@
         <v>42</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>185</v>
@@ -34034,35 +34023,34 @@
       <c r="Q45" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R45" s="31"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>778</v>
+        <v>718</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J46" s="27" t="s">
         <v>57</v>
@@ -34077,46 +34065,45 @@
         <v>42</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O46" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R46" s="31"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>375</v>
+        <v>446</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>779</v>
+        <v>719</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J47" s="27" t="s">
         <v>57</v>
@@ -34131,46 +34118,45 @@
         <v>42</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R47" s="31"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>138</v>
+        <v>394</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>38</v>
+        <v>423</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>780</v>
+        <v>696</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J48" s="27" t="s">
         <v>57</v>
@@ -34185,46 +34171,45 @@
         <v>42</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P48" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q48" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R48" s="31"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>135</v>
+        <v>397</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>38</v>
+        <v>425</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>53</v>
+        <v>424</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>781</v>
+        <v>722</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J49" s="27" t="s">
         <v>57</v>
@@ -34236,13 +34221,13 @@
         <v>41</v>
       </c>
       <c r="M49" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P49" s="27" t="s">
         <v>185</v>
@@ -34250,35 +34235,34 @@
       <c r="Q49" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R49" s="31"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>380</v>
+        <v>451</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>52</v>
+        <v>425</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="J50" s="27" t="s">
         <v>57</v>
@@ -34290,7 +34274,7 @@
         <v>41</v>
       </c>
       <c r="M50" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N50" s="27" t="s">
         <v>44</v>
@@ -34304,251 +34288,246 @@
       <c r="Q50" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R50" s="31"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>381</v>
+        <v>452</v>
       </c>
       <c r="B51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C54" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I51" s="28" t="s">
+      <c r="D54" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I54" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="27" t="s">
+      <c r="J54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O51" s="27" t="s">
+      <c r="O54" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="P51" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q51" s="27" t="s">
+      <c r="P54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q54" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R51" s="31"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="B52" s="26" t="s">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B55" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C55" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I52" s="28" t="s">
+      <c r="D55" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I55" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R52" s="31"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R53" s="31"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R54" s="31"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>180</v>
       </c>
       <c r="J55" s="27" t="s">
         <v>57</v>
@@ -34566,7 +34545,7 @@
         <v>44</v>
       </c>
       <c r="O55" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P55" s="27" t="s">
         <v>185</v>
@@ -34574,247 +34553,246 @@
       <c r="Q55" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R55" s="31"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="B56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C59" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="I56" s="28" t="s">
+      <c r="D59" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I59" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="27" t="s">
+      <c r="J59" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O56" s="27" t="s">
+      <c r="O59" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="P56" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q56" s="27" t="s">
+      <c r="P59" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q59" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B57" s="26" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C60" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="I57" s="28" t="s">
+      <c r="D60" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I60" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>180</v>
       </c>
       <c r="J60" s="27" t="s">
         <v>57</v>
@@ -34832,7 +34810,7 @@
         <v>44</v>
       </c>
       <c r="O60" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P60" s="27" t="s">
         <v>185</v>
@@ -34841,254 +34819,254 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="B61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B64" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C64" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I61" s="28" t="s">
+      <c r="D64" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I64" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J61" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>178</v>
-      </c>
       <c r="J64" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K64" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L64" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M64" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O64" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P64" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q64" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>512</v>
+        <v>403</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F65" s="27" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>505</v>
+        <v>428</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="I65" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K65" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L65" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M65" s="27" t="s">
         <v>193</v>
@@ -35097,7 +35075,7 @@
         <v>44</v>
       </c>
       <c r="O65" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P65" s="27" t="s">
         <v>185</v>
@@ -35108,31 +35086,31 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G66" s="28" t="s">
-        <v>506</v>
+        <v>428</v>
       </c>
       <c r="H66" s="27" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="I66" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J66" s="27" t="s">
         <v>57</v>
@@ -35144,48 +35122,48 @@
         <v>41</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O66" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P66" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q66" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>506</v>
+        <v>428</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="I67" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J67" s="27" t="s">
         <v>57</v>
@@ -35197,48 +35175,48 @@
         <v>41</v>
       </c>
       <c r="M67" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O67" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P67" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q67" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="F68" s="27" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>506</v>
+        <v>428</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="I68" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J68" s="27" t="s">
         <v>57</v>
@@ -35250,48 +35228,48 @@
         <v>41</v>
       </c>
       <c r="M68" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O68" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P68" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q68" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="I69" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J69" s="27" t="s">
         <v>57</v>
@@ -35306,45 +35284,45 @@
         <v>42</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O69" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P69" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q69" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="F70" s="27" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>696</v>
+        <v>750</v>
       </c>
       <c r="I70" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J70" s="27" t="s">
         <v>57</v>
@@ -35362,7 +35340,7 @@
         <v>44</v>
       </c>
       <c r="O70" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P70" s="27" t="s">
         <v>185</v>
@@ -35373,31 +35351,31 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G71" s="28" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>722</v>
+        <v>751</v>
       </c>
       <c r="I71" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J71" s="27" t="s">
         <v>57</v>
@@ -35409,48 +35387,48 @@
         <v>41</v>
       </c>
       <c r="M71" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O71" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P71" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q71" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F72" s="27" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G72" s="28" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
       <c r="I72" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J72" s="27" t="s">
         <v>57</v>
@@ -35462,48 +35440,48 @@
         <v>41</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O72" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P72" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q72" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D73" s="27" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F73" s="27" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>724</v>
+        <v>753</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J73" s="27" t="s">
         <v>57</v>
@@ -35515,48 +35493,48 @@
         <v>41</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O73" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P73" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q73" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D74" s="27" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F74" s="27" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>521</v>
+        <v>782</v>
       </c>
       <c r="I74" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J74" s="27" t="s">
         <v>57</v>
@@ -35571,45 +35549,45 @@
         <v>193</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O74" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P74" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q74" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G75" s="28" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>725</v>
+        <v>783</v>
       </c>
       <c r="I75" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J75" s="27" t="s">
         <v>57</v>
@@ -35627,7 +35605,7 @@
         <v>44</v>
       </c>
       <c r="O75" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P75" s="27" t="s">
         <v>185</v>
@@ -35638,31 +35616,31 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F76" s="27" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G76" s="28" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>728</v>
+        <v>784</v>
       </c>
       <c r="I76" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J76" s="27" t="s">
         <v>57</v>
@@ -35674,48 +35652,48 @@
         <v>41</v>
       </c>
       <c r="M76" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O76" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P76" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q76" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>729</v>
+        <v>615</v>
       </c>
       <c r="I77" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J77" s="27" t="s">
         <v>57</v>
@@ -35727,48 +35705,48 @@
         <v>41</v>
       </c>
       <c r="M77" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O77" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P77" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q77" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G78" s="28" t="s">
-        <v>507</v>
+        <v>431</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>730</v>
+        <v>616</v>
       </c>
       <c r="I78" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J78" s="27" t="s">
         <v>57</v>
@@ -35780,119 +35758,119 @@
         <v>41</v>
       </c>
       <c r="M78" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O78" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P78" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q78" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G79" s="28" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="I79" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J79" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K79" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L79" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M79" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O79" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P79" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q79" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="I80" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K80" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L80" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M80" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N80" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O80" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P80" s="27" t="s">
         <v>185</v>
@@ -35903,190 +35881,190 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="I81" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J81" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K81" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L81" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M81" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O81" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P81" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q81" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F82" s="27" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G82" s="28" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="I82" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J82" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K82" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L82" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M82" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O82" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P82" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q82" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G83" s="28" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="I83" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J83" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K83" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L83" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M83" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O83" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P83" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q83" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="I84" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J84" s="27" t="s">
         <v>57</v>
@@ -36101,45 +36079,45 @@
         <v>42</v>
       </c>
       <c r="N84" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O84" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P84" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q84" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F85" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="I85" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J85" s="27" t="s">
         <v>57</v>
@@ -36157,7 +36135,7 @@
         <v>44</v>
       </c>
       <c r="O85" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P85" s="27" t="s">
         <v>185</v>
@@ -36168,31 +36146,31 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F86" s="27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>742</v>
+        <v>772</v>
       </c>
       <c r="I86" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J86" s="27" t="s">
         <v>57</v>
@@ -36204,48 +36182,48 @@
         <v>41</v>
       </c>
       <c r="M86" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N86" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O86" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P86" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q86" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G87" s="28" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="I87" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J87" s="27" t="s">
         <v>57</v>
@@ -36257,48 +36235,48 @@
         <v>41</v>
       </c>
       <c r="M87" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N87" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O87" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P87" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q87" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
       <c r="I88" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J88" s="27" t="s">
         <v>57</v>
@@ -36310,1184 +36288,18 @@
         <v>41</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N88" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O88" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P88" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q88" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G89" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I89" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L89" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M89" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N89" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P89" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q89" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D90" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E90" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F90" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G90" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J90" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K90" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L90" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N90" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O90" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P90" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q90" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D91" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E91" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F91" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G91" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H91" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J91" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K91" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L91" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M91" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N91" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O91" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P91" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q91" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D92" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F92" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G92" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I92" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K92" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L92" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M92" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O92" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P92" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q92" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G93" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H93" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J93" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L93" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M93" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N93" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O93" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P93" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q93" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F94" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J94" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K94" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L94" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M94" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N94" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O94" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P94" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q94" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F95" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G95" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I95" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J95" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K95" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L95" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M95" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N95" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O95" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P95" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q95" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F96" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G96" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H96" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="I96" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J96" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K96" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L96" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M96" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N96" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O96" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P96" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q96" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F97" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G97" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H97" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J97" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K97" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L97" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M97" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N97" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O97" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P97" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q97" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G98" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J98" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K98" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L98" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M98" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N98" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O98" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P98" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q98" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F99" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H99" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J99" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K99" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L99" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M99" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N99" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O99" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P99" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q99" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E100" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G100" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J100" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K100" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L100" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M100" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N100" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O100" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P100" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q100" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G101" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J101" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K101" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L101" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M101" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N101" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O101" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P101" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q101" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D102" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F102" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G102" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I102" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J102" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K102" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L102" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M102" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N102" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O102" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P102" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q102" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D103" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E103" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F103" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J103" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K103" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L103" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M103" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N103" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O103" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P103" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q103" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D104" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F104" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G104" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J104" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K104" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L104" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M104" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N104" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O104" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P104" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q104" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G105" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I105" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J105" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K105" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L105" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M105" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N105" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O105" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P105" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q105" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I106" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J106" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K106" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L106" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M106" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N106" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O106" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P106" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q106" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J107" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K107" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L107" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M107" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N107" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O107" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P107" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q107" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J108" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L108" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M108" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N108" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O108" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P108" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q108" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G109" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H109" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I109" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J109" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K109" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L109" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M109" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N109" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O109" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P109" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q109" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G110" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H110" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J110" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K110" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L110" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M110" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N110" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O110" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P110" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q110" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769AA6F1-36AB-4C82-AE70-8A3F0650E656}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D58B145-5906-4F62-9549-5A0037629E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10341" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="785">
   <si>
     <t>name</t>
   </si>
@@ -31576,7 +31576,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R88"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -31662,7 +31662,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>344</v>
+        <v>443</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
@@ -31671,19 +31671,19 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>660</v>
+        <v>716</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -31712,11 +31712,10 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>345</v>
+        <v>444</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>8</v>
@@ -31725,19 +31724,19 @@
         <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>661</v>
+        <v>717</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>186</v>
@@ -31766,11 +31765,10 @@
       <c r="Q3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>346</v>
+        <v>445</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>9</v>
@@ -31779,19 +31777,19 @@
         <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>662</v>
+        <v>718</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>179</v>
@@ -31820,11 +31818,10 @@
       <c r="Q4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>347</v>
+        <v>446</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>10</v>
@@ -31833,19 +31830,19 @@
         <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>178</v>
@@ -31874,11 +31871,10 @@
       <c r="Q5" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>348</v>
+        <v>447</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>11</v>
@@ -31887,19 +31883,19 @@
         <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>98</v>
+        <v>395</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>139</v>
+        <v>394</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>99</v>
+        <v>423</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>180</v>
@@ -31928,11 +31924,10 @@
       <c r="Q6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>7</v>
@@ -31941,19 +31936,19 @@
         <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>177</v>
@@ -31968,7 +31963,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>46</v>
@@ -31982,11 +31977,10 @@
       <c r="Q7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>352</v>
+        <v>451</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>8</v>
@@ -31995,19 +31989,19 @@
         <v>152</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>186</v>
@@ -32022,7 +32016,7 @@
         <v>41</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>44</v>
@@ -32036,11 +32030,10 @@
       <c r="Q8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>9</v>
@@ -32049,19 +32042,19 @@
         <v>149</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>614</v>
+        <v>724</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>179</v>
@@ -32076,7 +32069,7 @@
         <v>41</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>47</v>
@@ -32090,11 +32083,10 @@
       <c r="Q9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>354</v>
+        <v>453</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>10</v>
@@ -32103,19 +32095,19 @@
         <v>150</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>669</v>
+        <v>521</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>178</v>
@@ -32130,7 +32122,7 @@
         <v>41</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N10" s="27" t="s">
         <v>48</v>
@@ -32144,11 +32136,10 @@
       <c r="Q10" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>11</v>
@@ -32157,19 +32148,19 @@
         <v>145</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>100</v>
+        <v>397</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>101</v>
+        <v>425</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>180</v>
@@ -32184,7 +32175,7 @@
         <v>41</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>44</v>
@@ -32198,11 +32189,10 @@
       <c r="Q11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>358</v>
+        <v>457</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>7</v>
@@ -32211,19 +32201,19 @@
         <v>151</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>177</v>
@@ -32252,11 +32242,10 @@
       <c r="Q12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>8</v>
@@ -32265,19 +32254,19 @@
         <v>152</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>186</v>
@@ -32306,11 +32295,10 @@
       <c r="Q13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R13" s="31"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>360</v>
+        <v>459</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>9</v>
@@ -32319,19 +32307,19 @@
         <v>149</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>179</v>
@@ -32360,11 +32348,10 @@
       <c r="Q14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="B15" s="26" t="s">
         <v>10</v>
@@ -32373,19 +32360,19 @@
         <v>150</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>178</v>
@@ -32414,11 +32401,10 @@
       <c r="Q15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>362</v>
+        <v>461</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>11</v>
@@ -32427,19 +32413,19 @@
         <v>145</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>141</v>
+        <v>398</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>103</v>
+        <v>426</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>180</v>
@@ -32468,11 +32454,10 @@
       <c r="Q16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>7</v>
@@ -32481,19 +32466,19 @@
         <v>151</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>105</v>
+        <v>427</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>679</v>
+        <v>735</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>177</v>
@@ -32522,11 +32507,10 @@
       <c r="Q17" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>8</v>
@@ -32535,19 +32519,19 @@
         <v>152</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>105</v>
+        <v>427</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>680</v>
+        <v>736</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>186</v>
@@ -32576,11 +32560,10 @@
       <c r="Q18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>9</v>
@@ -32589,19 +32572,19 @@
         <v>149</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>105</v>
+        <v>427</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>681</v>
+        <v>737</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>179</v>
@@ -32630,11 +32613,10 @@
       <c r="Q19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>10</v>
@@ -32643,19 +32625,19 @@
         <v>150</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>105</v>
+        <v>427</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>682</v>
+        <v>738</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>178</v>
@@ -32684,11 +32666,10 @@
       <c r="Q20" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>369</v>
+        <v>468</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>11</v>
@@ -32697,19 +32678,19 @@
         <v>145</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>104</v>
+        <v>401</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>143</v>
+        <v>400</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>105</v>
+        <v>427</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>683</v>
+        <v>739</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>180</v>
@@ -32738,35 +32719,34 @@
       <c r="Q21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>135</v>
+        <v>403</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>53</v>
+        <v>428</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>57</v>
@@ -32778,13 +32758,13 @@
         <v>41</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>185</v>
@@ -32792,35 +32772,34 @@
       <c r="Q22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>135</v>
+        <v>403</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>53</v>
+        <v>428</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>57</v>
@@ -32832,13 +32811,13 @@
         <v>41</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>185</v>
@@ -32846,35 +32825,34 @@
       <c r="Q23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R23" s="31"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>374</v>
+        <v>473</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>135</v>
+        <v>403</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>38</v>
+        <v>429</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>53</v>
+        <v>428</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J24" s="27" t="s">
         <v>57</v>
@@ -32886,157 +32864,154 @@
         <v>41</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="27" t="s">
+      <c r="O26" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>375</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R26" s="31"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>377</v>
+        <v>478</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>138</v>
+        <v>404</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>53</v>
+        <v>509</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>57</v>
@@ -33051,10 +33026,10 @@
         <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>185</v>
@@ -33062,35 +33037,34 @@
       <c r="Q27" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R27" s="31"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>380</v>
+        <v>479</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>51</v>
+        <v>405</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>142</v>
+        <v>404</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>52</v>
+        <v>430</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>176</v>
+        <v>509</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>694</v>
+        <v>750</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>57</v>
@@ -33116,252 +33090,247 @@
       <c r="Q28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="31"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>381</v>
+        <v>480</v>
       </c>
       <c r="B29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I29" s="28" t="s">
+      <c r="D32" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="27" t="s">
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="O32" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="P29" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="27" t="s">
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R29" s="31"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="B30" s="26" t="s">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C33" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I30" s="28" t="s">
+      <c r="D33" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>783</v>
+      </c>
+      <c r="I33" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="J30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R30" s="31"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R31" s="31"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" s="31"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>180</v>
-      </c>
       <c r="J33" s="27" t="s">
         <v>57</v>
       </c>
@@ -33372,13 +33341,13 @@
         <v>41</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N33" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>185</v>
@@ -33386,265 +33355,264 @@
       <c r="Q33" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>784</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C37" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="I34" s="28" t="s">
+      <c r="D37" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I37" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="27" t="s">
+      <c r="J37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N37" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="O37" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="P34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="27" t="s">
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B35" s="26" t="s">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C38" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="I35" s="28" t="s">
+      <c r="D38" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I38" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="J35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>180</v>
-      </c>
       <c r="J38" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N38" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>185</v>
@@ -33653,263 +33621,263 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>436</v>
+        <v>494</v>
       </c>
       <c r="B39" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I39" s="28" t="s">
+      <c r="D42" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I42" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N39" s="27" t="s">
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="27" t="s">
+      <c r="O42" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="P39" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" s="27" t="s">
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="B40" s="26" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C43" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I40" s="28" t="s">
+      <c r="D43" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I43" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="J40" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>180</v>
-      </c>
       <c r="J43" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N43" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P43" s="27" t="s">
         <v>185</v>
@@ -33918,33 +33886,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>716</v>
+        <v>772</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>57</v>
@@ -33959,45 +33927,45 @@
         <v>42</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q44" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>717</v>
+        <v>773</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J45" s="27" t="s">
         <v>57</v>
@@ -34012,2294 +33980,68 @@
         <v>42</v>
       </c>
       <c r="N45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O45" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="O46" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>783</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>784</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q77" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q78" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q79" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q80" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F81" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q81" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F82" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q82" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E83" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F83" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K83" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L83" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N83" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O83" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P83" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q83" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F84" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L84" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O84" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P84" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q84" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G85" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J85" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K85" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M85" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N85" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O85" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P85" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q85" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K86" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L86" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M86" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N86" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O86" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P86" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q86" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J87" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N87" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O87" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P87" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q87" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K88" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L88" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N88" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O88" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P88" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q88" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D58B145-5906-4F62-9549-5A0037629E17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0525F-B96A-4336-9BCC-AB5B0D445F18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="787">
   <si>
     <t>name</t>
   </si>
@@ -2420,21 +2420,12 @@
     <t>NA</t>
   </si>
   <si>
-    <t>141.36*</t>
-  </si>
-  <si>
     <t>171.92*</t>
   </si>
   <si>
     <t>141.52*</t>
   </si>
   <si>
-    <t>54.48*</t>
-  </si>
-  <si>
-    <t>80.56*</t>
-  </si>
-  <si>
     <t>114.96*</t>
   </si>
   <si>
@@ -2445,6 +2436,21 @@
   </si>
   <si>
     <t>64.26*</t>
+  </si>
+  <si>
+    <t>158.33*</t>
+  </si>
+  <si>
+    <t>130.30*</t>
+  </si>
+  <si>
+    <t>50.06*</t>
+  </si>
+  <si>
+    <t>74.11*</t>
+  </si>
+  <si>
+    <t>105.82*</t>
   </si>
 </sst>
 </file>
@@ -18819,7 +18825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -25674,7 +25680,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>776</v>
+        <v>695</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>4</v>
@@ -25728,7 +25734,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>177</v>
@@ -25782,7 +25788,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>186</v>
@@ -25836,7 +25842,7 @@
         <v>53</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>179</v>
@@ -25890,7 +25896,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>178</v>
@@ -25944,7 +25950,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>180</v>
@@ -28442,7 +28448,7 @@
         <v>431</v>
       </c>
       <c r="H179" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I179" s="28" t="s">
         <v>177</v>
@@ -28495,7 +28501,7 @@
         <v>431</v>
       </c>
       <c r="H180" s="27" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I180" s="28" t="s">
         <v>186</v>
@@ -28548,7 +28554,7 @@
         <v>431</v>
       </c>
       <c r="H181" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I181" s="28" t="s">
         <v>179</v>
@@ -31003,7 +31009,7 @@
         <v>53</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>177</v>
@@ -31057,7 +31063,7 @@
         <v>53</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>186</v>
@@ -31111,7 +31117,7 @@
         <v>53</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>180</v>
@@ -31485,7 +31491,7 @@
         <v>431</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>177</v>
@@ -31578,9 +31584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A2:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33273,7 +33279,7 @@
         <v>431</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>177</v>
@@ -33326,7 +33332,7 @@
         <v>431</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>186</v>
@@ -33379,7 +33385,7 @@
         <v>431</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>179</v>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D0525F-B96A-4336-9BCC-AB5B0D445F18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFBDA2-C3A5-4878-B360-728AFEF21F83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9210" uniqueCount="815">
   <si>
     <t>name</t>
   </si>
@@ -2451,6 +2452,90 @@
   </si>
   <si>
     <t>105.82*</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Richland County</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan F + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan G + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan N + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan A + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan K + wellness extras</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan L + wellness extras</t>
+  </si>
+  <si>
+    <t>NLE plans means without Additional Service plans i.e 02 plans</t>
+  </si>
+  <si>
+    <t>ELE plans means with Additional Service plans i.e 01 plans</t>
+  </si>
+  <si>
+    <t>In NLE state, ELE plans displays as + Wellness Text</t>
+  </si>
+  <si>
+    <t>MS269</t>
+  </si>
+  <si>
+    <t>MS270</t>
+  </si>
+  <si>
+    <t>MS271</t>
+  </si>
+  <si>
+    <t>MS272</t>
+  </si>
+  <si>
+    <t>MS273</t>
+  </si>
+  <si>
+    <t>MS274</t>
+  </si>
+  <si>
+    <t>MS275</t>
+  </si>
+  <si>
+    <t>MS276</t>
+  </si>
+  <si>
+    <t>MS277</t>
+  </si>
+  <si>
+    <t>MS278</t>
+  </si>
+  <si>
+    <t>MS279</t>
+  </si>
+  <si>
+    <t>29002</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2642,12 +2727,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2730,6 +2826,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3746,7 +3845,7 @@
   <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,6 +3939,9 @@
       <c r="C9" s="18" t="s">
         <v>118</v>
       </c>
+      <c r="G9" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -3851,6 +3953,9 @@
       <c r="C10" s="18" t="s">
         <v>119</v>
       </c>
+      <c r="G10" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
@@ -3861,6 +3966,9 @@
       </c>
       <c r="C11" s="18" t="s">
         <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4333,11 +4441,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
-  <dimension ref="A1:R269"/>
+  <dimension ref="A1:R313"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A270" sqref="A270:XFD280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18813,6 +18921,754 @@
         <v>43</v>
       </c>
     </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A270" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C270" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D270" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E270" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F270" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G270" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H270" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="I270" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J270" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K270" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L270" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M270" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N270" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O270" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P270" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q270" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A271" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B271" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C271" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D271" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E271" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F271" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G271" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H271" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I271" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M271" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N271" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O271" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P271" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q271" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A272" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B272" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C272" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D272" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E272" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F272" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G272" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H272" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I272" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M272" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N272" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O272" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P272" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q272" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A273" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C273" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D273" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E273" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F273" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G273" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H273" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I273" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M273" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N273" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O273" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P273" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q273" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A274" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C274" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="D274" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E274" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F274" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G274" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H274" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="I274" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J274" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K274" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L274" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M274" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N274" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O274" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P274" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q274" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A275" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="B275" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D275" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E275" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F275" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G275" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H275" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="I275" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J275" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K275" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L275" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M275" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N275" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O275" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P275" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q275" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A276" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B276" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D276" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E276" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F276" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G276" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H276" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I276" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J276" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K276" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L276" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M276" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N276" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O276" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P276" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q276" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A277" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D277" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E277" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F277" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G277" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H277" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I277" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J277" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K277" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L277" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M277" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N277" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O277" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P277" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q277" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A278" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D278" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E278" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F278" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G278" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H278" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I278" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J278" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K278" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L278" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M278" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N278" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O278" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P278" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q278" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A279" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="B279" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D279" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E279" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F279" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G279" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H279" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I279" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J279" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K279" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L279" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M279" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N279" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O279" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P279" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q279" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A280" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="B280" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D280" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E280" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F280" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="G280" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H280" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I280" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J280" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K280" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L280" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M280" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N280" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O280" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P280" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q280" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G281" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G282" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G283" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G284" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G285" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G286" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G287" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G288" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G289" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G290" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G291" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G292" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G293" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G294" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G295" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G296" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G297" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G298" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G299" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G300" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G301" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G302" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G303" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G304" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G305" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G306" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G307" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G308" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G309" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G310" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G311" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G312" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G313" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18823,11 +19679,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18907,7 +19764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>197</v>
       </c>
@@ -19015,7 +19872,7 @@
       </c>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>199</v>
       </c>
@@ -19069,7 +19926,7 @@
       </c>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>200</v>
       </c>
@@ -19123,7 +19980,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>201</v>
       </c>
@@ -19177,7 +20034,7 @@
       </c>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>204</v>
       </c>
@@ -19285,7 +20142,7 @@
       </c>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>206</v>
       </c>
@@ -19339,7 +20196,7 @@
       </c>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>207</v>
       </c>
@@ -19393,7 +20250,7 @@
       </c>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>208</v>
       </c>
@@ -19447,7 +20304,7 @@
       </c>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>211</v>
       </c>
@@ -19555,7 +20412,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>213</v>
       </c>
@@ -19609,7 +20466,7 @@
       </c>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>214</v>
       </c>
@@ -19663,7 +20520,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>215</v>
       </c>
@@ -19717,7 +20574,7 @@
       </c>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>218</v>
       </c>
@@ -19825,7 +20682,7 @@
       </c>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>220</v>
       </c>
@@ -19879,7 +20736,7 @@
       </c>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>221</v>
       </c>
@@ -19933,7 +20790,7 @@
       </c>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>222</v>
       </c>
@@ -19987,7 +20844,7 @@
       </c>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>225</v>
       </c>
@@ -20095,7 +20952,7 @@
       </c>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>227</v>
       </c>
@@ -20149,7 +21006,7 @@
       </c>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>228</v>
       </c>
@@ -20203,7 +21060,7 @@
       </c>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>229</v>
       </c>
@@ -20257,7 +21114,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>232</v>
       </c>
@@ -20365,7 +21222,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>234</v>
       </c>
@@ -20419,7 +21276,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>235</v>
       </c>
@@ -20473,7 +21330,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>236</v>
       </c>
@@ -20527,7 +21384,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>239</v>
       </c>
@@ -20635,7 +21492,7 @@
       </c>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>241</v>
       </c>
@@ -20689,7 +21546,7 @@
       </c>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>242</v>
       </c>
@@ -20743,7 +21600,7 @@
       </c>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>243</v>
       </c>
@@ -20797,7 +21654,7 @@
       </c>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>246</v>
       </c>
@@ -20905,7 +21762,7 @@
       </c>
       <c r="R38" s="31"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>248</v>
       </c>
@@ -20959,7 +21816,7 @@
       </c>
       <c r="R39" s="31"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>249</v>
       </c>
@@ -21013,7 +21870,7 @@
       </c>
       <c r="R40" s="31"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>250</v>
       </c>
@@ -21067,7 +21924,7 @@
       </c>
       <c r="R41" s="31"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>253</v>
       </c>
@@ -21175,7 +22032,7 @@
       </c>
       <c r="R43" s="31"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>255</v>
       </c>
@@ -21229,7 +22086,7 @@
       </c>
       <c r="R44" s="31"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>256</v>
       </c>
@@ -21283,7 +22140,7 @@
       </c>
       <c r="R45" s="31"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>257</v>
       </c>
@@ -21337,7 +22194,7 @@
       </c>
       <c r="R46" s="31"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>260</v>
       </c>
@@ -21445,7 +22302,7 @@
       </c>
       <c r="R48" s="31"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>262</v>
       </c>
@@ -21499,7 +22356,7 @@
       </c>
       <c r="R49" s="31"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>263</v>
       </c>
@@ -21553,7 +22410,7 @@
       </c>
       <c r="R50" s="31"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>264</v>
       </c>
@@ -21607,7 +22464,7 @@
       </c>
       <c r="R51" s="31"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>267</v>
       </c>
@@ -21715,7 +22572,7 @@
       </c>
       <c r="R53" s="31"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>269</v>
       </c>
@@ -21769,7 +22626,7 @@
       </c>
       <c r="R54" s="31"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>270</v>
       </c>
@@ -21823,7 +22680,7 @@
       </c>
       <c r="R55" s="31"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>271</v>
       </c>
@@ -21877,7 +22734,7 @@
       </c>
       <c r="R56" s="31"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>274</v>
       </c>
@@ -21985,7 +22842,7 @@
       </c>
       <c r="R58" s="31"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>276</v>
       </c>
@@ -22039,7 +22896,7 @@
       </c>
       <c r="R59" s="31"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>277</v>
       </c>
@@ -22093,7 +22950,7 @@
       </c>
       <c r="R60" s="31"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>278</v>
       </c>
@@ -22147,7 +23004,7 @@
       </c>
       <c r="R61" s="31"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>281</v>
       </c>
@@ -22255,7 +23112,7 @@
       </c>
       <c r="R63" s="31"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>283</v>
       </c>
@@ -22309,7 +23166,7 @@
       </c>
       <c r="R64" s="31"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>284</v>
       </c>
@@ -22363,7 +23220,7 @@
       </c>
       <c r="R65" s="31"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>285</v>
       </c>
@@ -22417,7 +23274,7 @@
       </c>
       <c r="R66" s="31"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>288</v>
       </c>
@@ -22525,7 +23382,7 @@
       </c>
       <c r="R68" s="31"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>290</v>
       </c>
@@ -22579,7 +23436,7 @@
       </c>
       <c r="R69" s="31"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>291</v>
       </c>
@@ -22633,7 +23490,7 @@
       </c>
       <c r="R70" s="31"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>292</v>
       </c>
@@ -22687,7 +23544,7 @@
       </c>
       <c r="R71" s="31"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>295</v>
       </c>
@@ -22795,7 +23652,7 @@
       </c>
       <c r="R73" s="31"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>297</v>
       </c>
@@ -22849,7 +23706,7 @@
       </c>
       <c r="R74" s="31"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>298</v>
       </c>
@@ -22903,7 +23760,7 @@
       </c>
       <c r="R75" s="31"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>299</v>
       </c>
@@ -22957,7 +23814,7 @@
       </c>
       <c r="R76" s="31"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>302</v>
       </c>
@@ -23065,7 +23922,7 @@
       </c>
       <c r="R78" s="31"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>304</v>
       </c>
@@ -23119,7 +23976,7 @@
       </c>
       <c r="R79" s="31"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>305</v>
       </c>
@@ -23173,7 +24030,7 @@
       </c>
       <c r="R80" s="31"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>306</v>
       </c>
@@ -23227,7 +24084,7 @@
       </c>
       <c r="R81" s="31"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>309</v>
       </c>
@@ -23335,7 +24192,7 @@
       </c>
       <c r="R83" s="31"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>311</v>
       </c>
@@ -23389,7 +24246,7 @@
       </c>
       <c r="R84" s="31"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>312</v>
       </c>
@@ -23443,7 +24300,7 @@
       </c>
       <c r="R85" s="31"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>313</v>
       </c>
@@ -23497,7 +24354,7 @@
       </c>
       <c r="R86" s="31"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>316</v>
       </c>
@@ -23605,7 +24462,7 @@
       </c>
       <c r="R88" s="31"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>318</v>
       </c>
@@ -23659,7 +24516,7 @@
       </c>
       <c r="R89" s="31"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>319</v>
       </c>
@@ -23713,7 +24570,7 @@
       </c>
       <c r="R90" s="31"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>320</v>
       </c>
@@ -23767,7 +24624,7 @@
       </c>
       <c r="R91" s="31"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>323</v>
       </c>
@@ -23875,7 +24732,7 @@
       </c>
       <c r="R93" s="31"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>325</v>
       </c>
@@ -23929,7 +24786,7 @@
       </c>
       <c r="R94" s="31"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>326</v>
       </c>
@@ -23983,7 +24840,7 @@
       </c>
       <c r="R95" s="31"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>327</v>
       </c>
@@ -24037,7 +24894,7 @@
       </c>
       <c r="R96" s="31"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>330</v>
       </c>
@@ -24145,7 +25002,7 @@
       </c>
       <c r="R98" s="31"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>332</v>
       </c>
@@ -24199,7 +25056,7 @@
       </c>
       <c r="R99" s="31"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>333</v>
       </c>
@@ -24253,7 +25110,7 @@
       </c>
       <c r="R100" s="31"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>334</v>
       </c>
@@ -24307,7 +25164,7 @@
       </c>
       <c r="R101" s="31"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>337</v>
       </c>
@@ -24415,7 +25272,7 @@
       </c>
       <c r="R103" s="31"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>339</v>
       </c>
@@ -24469,7 +25326,7 @@
       </c>
       <c r="R104" s="31"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>340</v>
       </c>
@@ -24523,7 +25380,7 @@
       </c>
       <c r="R105" s="31"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>341</v>
       </c>
@@ -24577,7 +25434,7 @@
       </c>
       <c r="R106" s="31"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>344</v>
       </c>
@@ -24685,7 +25542,7 @@
       </c>
       <c r="R108" s="31"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>346</v>
       </c>
@@ -24739,7 +25596,7 @@
       </c>
       <c r="R109" s="31"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>347</v>
       </c>
@@ -24793,7 +25650,7 @@
       </c>
       <c r="R110" s="31"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>348</v>
       </c>
@@ -24847,7 +25704,7 @@
       </c>
       <c r="R111" s="31"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>351</v>
       </c>
@@ -24955,7 +25812,7 @@
       </c>
       <c r="R113" s="31"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>353</v>
       </c>
@@ -25009,7 +25866,7 @@
       </c>
       <c r="R114" s="31"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>354</v>
       </c>
@@ -25063,7 +25920,7 @@
       </c>
       <c r="R115" s="31"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>355</v>
       </c>
@@ -25117,7 +25974,7 @@
       </c>
       <c r="R116" s="31"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>358</v>
       </c>
@@ -25225,7 +26082,7 @@
       </c>
       <c r="R118" s="31"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>360</v>
       </c>
@@ -25279,7 +26136,7 @@
       </c>
       <c r="R119" s="31"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
         <v>361</v>
       </c>
@@ -25333,7 +26190,7 @@
       </c>
       <c r="R120" s="31"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>362</v>
       </c>
@@ -25387,7 +26244,7 @@
       </c>
       <c r="R121" s="31"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>365</v>
       </c>
@@ -25495,7 +26352,7 @@
       </c>
       <c r="R123" s="31"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>367</v>
       </c>
@@ -25549,7 +26406,7 @@
       </c>
       <c r="R124" s="31"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>368</v>
       </c>
@@ -25603,7 +26460,7 @@
       </c>
       <c r="R125" s="31"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
         <v>369</v>
       </c>
@@ -25657,7 +26514,7 @@
       </c>
       <c r="R126" s="31"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>372</v>
       </c>
@@ -25711,7 +26568,7 @@
       </c>
       <c r="R127" s="31"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>373</v>
       </c>
@@ -25819,7 +26676,7 @@
       </c>
       <c r="R129" s="31"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
         <v>375</v>
       </c>
@@ -25873,7 +26730,7 @@
       </c>
       <c r="R130" s="31"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
         <v>376</v>
       </c>
@@ -25927,7 +26784,7 @@
       </c>
       <c r="R131" s="31"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>377</v>
       </c>
@@ -25981,7 +26838,7 @@
       </c>
       <c r="R132" s="31"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
         <v>380</v>
       </c>
@@ -26035,7 +26892,7 @@
       </c>
       <c r="R133" s="31"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>381</v>
       </c>
@@ -26143,7 +27000,7 @@
       </c>
       <c r="R135" s="31"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>383</v>
       </c>
@@ -26197,7 +27054,7 @@
       </c>
       <c r="R136" s="31"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
         <v>384</v>
       </c>
@@ -26251,7 +27108,7 @@
       </c>
       <c r="R137" s="31"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>385</v>
       </c>
@@ -26305,7 +27162,7 @@
       </c>
       <c r="R138" s="31"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
         <v>416</v>
       </c>
@@ -26411,7 +27268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
         <v>418</v>
       </c>
@@ -26464,7 +27321,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
         <v>419</v>
       </c>
@@ -26517,7 +27374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
         <v>420</v>
       </c>
@@ -26570,7 +27427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
         <v>436</v>
       </c>
@@ -26676,7 +27533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
         <v>438</v>
       </c>
@@ -26729,7 +27586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
         <v>439</v>
       </c>
@@ -26782,7 +27639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="31" t="s">
         <v>440</v>
       </c>
@@ -26835,7 +27692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
         <v>443</v>
       </c>
@@ -26941,7 +27798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="31" t="s">
         <v>445</v>
       </c>
@@ -26994,7 +27851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="31" t="s">
         <v>446</v>
       </c>
@@ -27047,7 +27904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
         <v>447</v>
       </c>
@@ -27100,7 +27957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="31" t="s">
         <v>450</v>
       </c>
@@ -27206,7 +28063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
         <v>452</v>
       </c>
@@ -27259,7 +28116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="31" t="s">
         <v>453</v>
       </c>
@@ -27312,7 +28169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="31" t="s">
         <v>454</v>
       </c>
@@ -27365,7 +28222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="31" t="s">
         <v>457</v>
       </c>
@@ -27471,7 +28328,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="31" t="s">
         <v>459</v>
       </c>
@@ -27524,7 +28381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="31" t="s">
         <v>460</v>
       </c>
@@ -27577,7 +28434,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
         <v>461</v>
       </c>
@@ -27630,7 +28487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
         <v>464</v>
       </c>
@@ -27736,7 +28593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
         <v>466</v>
       </c>
@@ -27789,7 +28646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>467</v>
       </c>
@@ -27842,7 +28699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>468</v>
       </c>
@@ -27895,7 +28752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
         <v>471</v>
       </c>
@@ -28001,7 +28858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>473</v>
       </c>
@@ -28054,7 +28911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
         <v>474</v>
       </c>
@@ -28107,7 +28964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="31" t="s">
         <v>475</v>
       </c>
@@ -28160,7 +29017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="31" t="s">
         <v>478</v>
       </c>
@@ -28266,7 +29123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="31" t="s">
         <v>480</v>
       </c>
@@ -28319,7 +29176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="31" t="s">
         <v>481</v>
       </c>
@@ -28372,7 +29229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
         <v>482</v>
       </c>
@@ -28425,7 +29282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="31" t="s">
         <v>485</v>
       </c>
@@ -28531,7 +29388,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>487</v>
       </c>
@@ -28584,7 +29441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
         <v>488</v>
       </c>
@@ -28637,7 +29494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
         <v>489</v>
       </c>
@@ -28690,7 +29547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="31" t="s">
         <v>492</v>
       </c>
@@ -28796,7 +29653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="31" t="s">
         <v>494</v>
       </c>
@@ -28849,7 +29706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="31" t="s">
         <v>495</v>
       </c>
@@ -28902,7 +29759,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="31" t="s">
         <v>496</v>
       </c>
@@ -28955,7 +29812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="31" t="s">
         <v>499</v>
       </c>
@@ -29061,7 +29918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
         <v>501</v>
       </c>
@@ -29114,7 +29971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>502</v>
       </c>
@@ -29167,7 +30024,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="31" t="s">
         <v>503</v>
       </c>
@@ -29221,6 +30078,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R193" xr:uid="{3CC674A8-E3F5-4ECE-BAB5-595D452F8E9C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="G01"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -31582,11 +32446,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A2:A46"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31668,43 +32532,43 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>443</v>
+        <v>804</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>7</v>
+        <v>791</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>423</v>
+      <c r="D2" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>506</v>
+        <v>814</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>46</v>
@@ -31721,43 +32585,43 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>444</v>
+        <v>805</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>8</v>
+        <v>792</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>423</v>
+      <c r="D3" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>506</v>
+        <v>814</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N3" s="27" t="s">
         <v>44</v>
@@ -31774,84 +32638,84 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>445</v>
+        <v>806</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>9</v>
+        <v>793</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>423</v>
+        <v>145</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>506</v>
+        <v>814</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>718</v>
+        <v>774</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>446</v>
+        <v>809</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>423</v>
+        <v>794</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>506</v>
+        <v>814</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>719</v>
+        <v>770</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -31866,45 +32730,45 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>447</v>
+        <v>810</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>423</v>
+        <v>795</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>506</v>
+        <v>814</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>696</v>
+        <v>771</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -31922,7 +32786,7 @@
         <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
@@ -31933,31 +32797,31 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>450</v>
+        <v>811</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>425</v>
+        <v>798</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>424</v>
+        <v>814</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>722</v>
+        <v>772</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -31969,48 +32833,48 @@
         <v>41</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>451</v>
+        <v>812</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>425</v>
+        <v>799</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>424</v>
+        <v>814</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>57</v>
@@ -32022,48 +32886,48 @@
         <v>41</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>452</v>
+        <v>813</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>425</v>
+        <v>796</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>789</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>424</v>
+        <v>814</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>724</v>
+        <v>774</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>57</v>
@@ -32075,1979 +32939,18 @@
         <v>41</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q46" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FFBDA2-C3A5-4878-B360-728AFEF21F83}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606765D0-FC2B-4443-AAE0-E4AA138BDF0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9210" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9202" uniqueCount="825">
   <si>
     <t>name</t>
   </si>
@@ -2535,7 +2535,37 @@
     <t>MS279</t>
   </si>
   <si>
-    <t>29002</t>
+    <t>96.13*</t>
+  </si>
+  <si>
+    <t>83.96*</t>
+  </si>
+  <si>
+    <t>128.53*</t>
+  </si>
+  <si>
+    <t>106.89*</t>
+  </si>
+  <si>
+    <t>83.32*</t>
+  </si>
+  <si>
+    <t>62.32*</t>
+  </si>
+  <si>
+    <t>41.59*</t>
+  </si>
+  <si>
+    <t>73.19*</t>
+  </si>
+  <si>
+    <t>70.44*</t>
+  </si>
+  <si>
+    <t>68.20*</t>
+  </si>
+  <si>
+    <t>106.13*</t>
   </si>
 </sst>
 </file>
@@ -4444,7 +4474,7 @@
   <dimension ref="A1:R313"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A270" sqref="A270:XFD280"/>
     </sheetView>
   </sheetViews>
@@ -18944,7 +18974,7 @@
         <v>29002</v>
       </c>
       <c r="H270" s="27" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
       <c r="I270" s="28" t="s">
         <v>4</v>
@@ -18997,7 +19027,7 @@
         <v>29002</v>
       </c>
       <c r="H271" s="27" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
       <c r="I271" s="28" t="s">
         <v>177</v>
@@ -19050,7 +19080,7 @@
         <v>29002</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>771</v>
+        <v>815</v>
       </c>
       <c r="I272" s="28" t="s">
         <v>186</v>
@@ -19103,7 +19133,7 @@
         <v>29002</v>
       </c>
       <c r="H273" s="27" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="I273" s="28" t="s">
         <v>180</v>
@@ -19156,7 +19186,7 @@
         <v>29002</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="I274" s="28" t="s">
         <v>4</v>
@@ -19209,7 +19239,7 @@
         <v>29002</v>
       </c>
       <c r="H275" s="27" t="s">
-        <v>769</v>
+        <v>824</v>
       </c>
       <c r="I275" s="28" t="s">
         <v>4</v>
@@ -19262,7 +19292,7 @@
         <v>29002</v>
       </c>
       <c r="H276" s="27" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="I276" s="28" t="s">
         <v>177</v>
@@ -19315,7 +19345,7 @@
         <v>29002</v>
       </c>
       <c r="H277" s="27" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="I277" s="28" t="s">
         <v>186</v>
@@ -19368,7 +19398,7 @@
         <v>29002</v>
       </c>
       <c r="H278" s="27" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="I278" s="28" t="s">
         <v>179</v>
@@ -19421,7 +19451,7 @@
         <v>29002</v>
       </c>
       <c r="H279" s="27" t="s">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="I279" s="28" t="s">
         <v>178</v>
@@ -19474,7 +19504,7 @@
         <v>29002</v>
       </c>
       <c r="H280" s="27" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="I280" s="28" t="s">
         <v>180</v>
@@ -32450,7 +32480,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32549,11 +32579,11 @@
       <c r="F2" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>814</v>
+      <c r="G2" s="28">
+        <v>29002</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>770</v>
+        <v>817</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -32602,11 +32632,11 @@
       <c r="F3" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>814</v>
+      <c r="G3" s="28">
+        <v>29002</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>771</v>
+        <v>815</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>186</v>
@@ -32655,11 +32685,11 @@
       <c r="F4" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>814</v>
+      <c r="G4" s="28">
+        <v>29002</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>180</v>
@@ -32708,11 +32738,11 @@
       <c r="F5" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>814</v>
+      <c r="G5" s="28">
+        <v>29002</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>177</v>
@@ -32761,11 +32791,11 @@
       <c r="F6" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="28">
+        <v>29002</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>814</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>771</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>186</v>
@@ -32814,11 +32844,11 @@
       <c r="F7" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>814</v>
+      <c r="G7" s="28">
+        <v>29002</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>179</v>
@@ -32867,11 +32897,11 @@
       <c r="F8" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>814</v>
+      <c r="G8" s="28">
+        <v>29002</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>773</v>
+        <v>821</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>178</v>
@@ -32920,11 +32950,11 @@
       <c r="F9" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>814</v>
+      <c r="G9" s="28">
+        <v>29002</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>180</v>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606765D0-FC2B-4443-AAE0-E4AA138BDF0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51831DC8-7EFB-4A39-866B-361507A4B46E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9202" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9221" uniqueCount="826">
   <si>
     <t>name</t>
   </si>
@@ -2566,6 +2566,9 @@
   </si>
   <si>
     <t>106.13*</t>
+  </si>
+  <si>
+    <t>29002</t>
   </si>
 </sst>
 </file>
@@ -4475,7 +4478,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A270" sqref="A270:XFD280"/>
+      <selection pane="bottomLeft" activeCell="G272" sqref="G272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18970,8 +18973,8 @@
       <c r="F270" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G270" s="28">
-        <v>29002</v>
+      <c r="G270" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H270" s="27" t="s">
         <v>822</v>
@@ -19023,8 +19026,8 @@
       <c r="F271" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G271" s="28">
-        <v>29002</v>
+      <c r="G271" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H271" s="27" t="s">
         <v>817</v>
@@ -19076,8 +19079,8 @@
       <c r="F272" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G272" s="28">
-        <v>29002</v>
+      <c r="G272" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H272" s="27" t="s">
         <v>815</v>
@@ -19129,8 +19132,8 @@
       <c r="F273" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G273" s="28">
-        <v>29002</v>
+      <c r="G273" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H273" s="27" t="s">
         <v>819</v>
@@ -19182,8 +19185,8 @@
       <c r="F274" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G274" s="28">
-        <v>29002</v>
+      <c r="G274" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H274" s="27" t="s">
         <v>823</v>
@@ -19235,8 +19238,8 @@
       <c r="F275" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G275" s="28">
-        <v>29002</v>
+      <c r="G275" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H275" s="27" t="s">
         <v>824</v>
@@ -19288,8 +19291,8 @@
       <c r="F276" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G276" s="28">
-        <v>29002</v>
+      <c r="G276" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H276" s="27" t="s">
         <v>816</v>
@@ -19341,8 +19344,8 @@
       <c r="F277" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G277" s="28">
-        <v>29002</v>
+      <c r="G277" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H277" s="27" t="s">
         <v>814</v>
@@ -19394,8 +19397,8 @@
       <c r="F278" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G278" s="28">
-        <v>29002</v>
+      <c r="G278" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H278" s="27" t="s">
         <v>820</v>
@@ -19447,8 +19450,8 @@
       <c r="F279" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G279" s="28">
-        <v>29002</v>
+      <c r="G279" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H279" s="27" t="s">
         <v>821</v>
@@ -19500,8 +19503,8 @@
       <c r="F280" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G280" s="28">
-        <v>29002</v>
+      <c r="G280" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H280" s="27" t="s">
         <v>818</v>
@@ -32480,7 +32483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32579,8 +32582,8 @@
       <c r="F2" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G2" s="28">
-        <v>29002</v>
+      <c r="G2" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>817</v>
@@ -32632,8 +32635,8 @@
       <c r="F3" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G3" s="28">
-        <v>29002</v>
+      <c r="G3" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>815</v>
@@ -32685,8 +32688,8 @@
       <c r="F4" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G4" s="28">
-        <v>29002</v>
+      <c r="G4" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>819</v>
@@ -32738,8 +32741,8 @@
       <c r="F5" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G5" s="28">
-        <v>29002</v>
+      <c r="G5" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>816</v>
@@ -32791,8 +32794,8 @@
       <c r="F6" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G6" s="28">
-        <v>29002</v>
+      <c r="G6" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>814</v>
@@ -32844,8 +32847,8 @@
       <c r="F7" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G7" s="28">
-        <v>29002</v>
+      <c r="G7" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>820</v>
@@ -32897,8 +32900,8 @@
       <c r="F8" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G8" s="28">
-        <v>29002</v>
+      <c r="G8" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>821</v>
@@ -32950,8 +32953,8 @@
       <c r="F9" s="32" t="s">
         <v>789</v>
       </c>
-      <c r="G9" s="28">
-        <v>29002</v>
+      <c r="G9" s="28" t="s">
+        <v>825</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>818</v>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51831DC8-7EFB-4A39-866B-361507A4B46E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B58F5D-0091-4218-90FB-8C85768CEF39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Unique list'!$A$1:$D$59</definedName>
   </definedNames>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9221" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11483" uniqueCount="879">
   <si>
     <t>name</t>
   </si>
@@ -2569,6 +2569,165 @@
   </si>
   <si>
     <t>29002</t>
+  </si>
+  <si>
+    <t>45011</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Butler County</t>
+  </si>
+  <si>
+    <t>69.00*</t>
+  </si>
+  <si>
+    <t>104.77*</t>
+  </si>
+  <si>
+    <t>91.12*</t>
+  </si>
+  <si>
+    <t>73.00*</t>
+  </si>
+  <si>
+    <t>131.77*</t>
+  </si>
+  <si>
+    <t>101.27*</t>
+  </si>
+  <si>
+    <t>39.43*</t>
+  </si>
+  <si>
+    <t>77.64*</t>
+  </si>
+  <si>
+    <t>91.81*</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Surry County</t>
+  </si>
+  <si>
+    <t>27007</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>81.42*</t>
+  </si>
+  <si>
+    <t>109.90*</t>
+  </si>
+  <si>
+    <t>86.86*</t>
+  </si>
+  <si>
+    <t>68.31*</t>
+  </si>
+  <si>
+    <t>93.58*</t>
+  </si>
+  <si>
+    <t>44.70*</t>
+  </si>
+  <si>
+    <t>72.11*</t>
+  </si>
+  <si>
+    <t>88.44*</t>
+  </si>
+  <si>
+    <t>AARP Medicare Supplement Insurance Plan D + wellness extras</t>
+  </si>
+  <si>
+    <t>157.30*</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>100.43*</t>
+  </si>
+  <si>
+    <t>MS280</t>
+  </si>
+  <si>
+    <t>MS281</t>
+  </si>
+  <si>
+    <t>MS282</t>
+  </si>
+  <si>
+    <t>MS283</t>
+  </si>
+  <si>
+    <t>MS284</t>
+  </si>
+  <si>
+    <t>MS285</t>
+  </si>
+  <si>
+    <t>MS286</t>
+  </si>
+  <si>
+    <t>MS287</t>
+  </si>
+  <si>
+    <t>MS288</t>
+  </si>
+  <si>
+    <t>MS289</t>
+  </si>
+  <si>
+    <t>MS290</t>
+  </si>
+  <si>
+    <t>MS291</t>
+  </si>
+  <si>
+    <t>MS292</t>
+  </si>
+  <si>
+    <t>MS293</t>
+  </si>
+  <si>
+    <t>MS294</t>
+  </si>
+  <si>
+    <t>MS295</t>
+  </si>
+  <si>
+    <t>MS296</t>
+  </si>
+  <si>
+    <t>MS297</t>
+  </si>
+  <si>
+    <t>MS298</t>
+  </si>
+  <si>
+    <t>MS299</t>
+  </si>
+  <si>
+    <t>MS300</t>
+  </si>
+  <si>
+    <t>MS301</t>
+  </si>
+  <si>
+    <t>MS302</t>
+  </si>
+  <si>
+    <t>MS303</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2760,23 +2919,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2859,9 +3007,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4474,11 +4619,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
-  <dimension ref="A1:R313"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G272" sqref="G272"/>
+      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A281" sqref="A281:XFD304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18964,13 +19109,13 @@
       <c r="C270" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D270" s="32" t="s">
+      <c r="D270" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E270" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F270" s="32" t="s">
+      <c r="F270" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G270" s="28" t="s">
@@ -19017,13 +19162,13 @@
       <c r="C271" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D271" s="32" t="s">
+      <c r="D271" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E271" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F271" s="32" t="s">
+      <c r="F271" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G271" s="28" t="s">
@@ -19070,13 +19215,13 @@
       <c r="C272" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D272" s="32" t="s">
+      <c r="D272" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E272" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F272" s="32" t="s">
+      <c r="F272" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G272" s="28" t="s">
@@ -19123,13 +19268,13 @@
       <c r="C273" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="D273" s="32" t="s">
+      <c r="D273" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E273" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F273" s="32" t="s">
+      <c r="F273" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G273" s="28" t="s">
@@ -19176,13 +19321,13 @@
       <c r="C274" s="27" t="s">
         <v>797</v>
       </c>
-      <c r="D274" s="32" t="s">
+      <c r="D274" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E274" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F274" s="32" t="s">
+      <c r="F274" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G274" s="28" t="s">
@@ -19229,13 +19374,13 @@
       <c r="C275" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="D275" s="32" t="s">
+      <c r="D275" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E275" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F275" s="32" t="s">
+      <c r="F275" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G275" s="28" t="s">
@@ -19282,13 +19427,13 @@
       <c r="C276" s="27" t="s">
         <v>794</v>
       </c>
-      <c r="D276" s="32" t="s">
+      <c r="D276" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E276" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F276" s="32" t="s">
+      <c r="F276" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G276" s="28" t="s">
@@ -19335,13 +19480,13 @@
       <c r="C277" s="27" t="s">
         <v>795</v>
       </c>
-      <c r="D277" s="32" t="s">
+      <c r="D277" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E277" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F277" s="32" t="s">
+      <c r="F277" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G277" s="28" t="s">
@@ -19388,13 +19533,13 @@
       <c r="C278" s="27" t="s">
         <v>798</v>
       </c>
-      <c r="D278" s="32" t="s">
+      <c r="D278" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E278" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F278" s="32" t="s">
+      <c r="F278" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G278" s="28" t="s">
@@ -19441,13 +19586,13 @@
       <c r="C279" s="27" t="s">
         <v>799</v>
       </c>
-      <c r="D279" s="32" t="s">
+      <c r="D279" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E279" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F279" s="32" t="s">
+      <c r="F279" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G279" s="28" t="s">
@@ -19494,13 +19639,13 @@
       <c r="C280" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="D280" s="32" t="s">
+      <c r="D280" s="29" t="s">
         <v>788</v>
       </c>
       <c r="E280" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="F280" s="32" t="s">
+      <c r="F280" s="29" t="s">
         <v>789</v>
       </c>
       <c r="G280" s="28" t="s">
@@ -19538,171 +19683,1281 @@
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A281" s="31" t="s">
+        <v>855</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C281" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D281" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E281" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F281" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G281" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H281" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="I281" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J281" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K281" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L281" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M281" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N281" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O281" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P281" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q281" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A282" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B282" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C282" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D282" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E282" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F282" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G282" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H282" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M282" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N282" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O282" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P282" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q282" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A283" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B283" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C283" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D283" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E283" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G283" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H283" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M283" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N283" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O283" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P283" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q283" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A284" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="B284" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C284" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D284" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E284" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F284" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G284" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H284" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M284" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N284" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O284" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P284" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q284" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A285" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="B285" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C285" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="D285" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E285" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F285" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G285" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H285" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="I285" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J285" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K285" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L285" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M285" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N285" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O285" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P285" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q285" s="27" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A286" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="B286" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D286" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E286" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F286" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G286" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H286" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="I286" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J286" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K286" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L286" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M286" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N286" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O286" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P286" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q286" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A287" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D287" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E287" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F287" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G287" s="28" t="s">
-        <v>511</v>
+        <v>826</v>
+      </c>
+      <c r="H287" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="I287" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J287" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K287" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L287" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M287" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N287" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O287" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P287" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q287" s="27" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A288" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B288" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D288" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E288" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F288" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G288" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="H288" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="I288" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J288" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K288" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L288" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M288" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N288" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O288" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P288" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q288" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A289" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B289" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D289" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E289" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F289" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G289" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="H289" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="I289" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J289" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K289" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L289" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M289" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N289" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O289" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P289" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q289" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A290" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B290" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D290" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E290" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F290" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G290" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="H290" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="I290" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J290" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K290" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L290" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M290" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N290" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O290" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P290" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q290" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A291" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B291" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D291" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E291" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F291" s="29" t="s">
+        <v>829</v>
+      </c>
       <c r="G291" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="H291" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I291" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J291" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K291" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L291" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M291" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N291" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O291" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P291" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q291" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A292" s="31" t="s">
+        <v>866</v>
+      </c>
+      <c r="B292" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="C292" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D292" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E292" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F292" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G292" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H292" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="I292" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J292" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K292" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L292" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M292" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N292" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O292" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P292" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q292" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A293" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="B293" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C293" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D293" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E293" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F293" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G293" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H293" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I293" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M293" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N293" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O293" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P293" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q293" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A294" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B294" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C294" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D294" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E294" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F294" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G294" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H294" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I294" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M294" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N294" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O294" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P294" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q294" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A295" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B295" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C295" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D295" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E295" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F295" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G295" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H295" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="I295" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M295" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N295" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O295" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P295" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q295" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R295" s="31"/>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A296" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B296" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C296" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D296" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E296" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F296" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G296" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H296" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="I296" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M296" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N296" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O296" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P296" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q296" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A297" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B297" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C297" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="D297" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E297" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F297" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G297" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H297" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I297" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J297" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K297" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L297" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M297" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N297" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O297" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P297" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q297" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A298" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B298" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D298" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E298" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F298" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G298" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H298" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="I298" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J298" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K298" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L298" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M298" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N298" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O298" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P298" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q298" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A299" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B299" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D299" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E299" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F299" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G299" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H299" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I299" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J299" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K299" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L299" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M299" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N299" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O299" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P299" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q299" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A300" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="B300" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D300" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F300" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G300" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H300" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J300" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K300" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L300" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M300" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N300" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O300" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P300" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q300" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A301" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B301" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D301" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E301" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F301" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G301" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H301" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="I301" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J301" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K301" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L301" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M301" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N301" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O301" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P301" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q301" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A302" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="B302" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D302" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E302" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F302" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G302" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H302" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="I302" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J302" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K302" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L302" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M302" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N302" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O302" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P302" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q302" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A303" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B303" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D303" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E303" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F303" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G303" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="H303" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="I303" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J303" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K303" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L303" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M303" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N303" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O303" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P303" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q303" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A304" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="B304" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="D304" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E304" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F304" s="29" t="s">
+        <v>840</v>
+      </c>
       <c r="G304" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G305" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G306" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G307" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G308" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G309" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G310" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G311" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G312" s="28" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G313" s="28" t="s">
-        <v>511</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="H304" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="I304" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J304" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K304" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L304" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M304" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N304" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O304" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P304" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q304" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R304" s="31"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R304" xr:uid="{517AECB3-12B8-402A-BA09-D9C11BD32D3D}"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -19712,12 +20967,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R193"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19797,7 +21051,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>197</v>
       </c>
@@ -19905,7 +21159,7 @@
       </c>
       <c r="R3" s="31"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>199</v>
       </c>
@@ -19959,7 +21213,7 @@
       </c>
       <c r="R4" s="31"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>200</v>
       </c>
@@ -20013,7 +21267,7 @@
       </c>
       <c r="R5" s="31"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>201</v>
       </c>
@@ -20067,7 +21321,7 @@
       </c>
       <c r="R6" s="31"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>204</v>
       </c>
@@ -20175,7 +21429,7 @@
       </c>
       <c r="R8" s="31"/>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>206</v>
       </c>
@@ -20229,7 +21483,7 @@
       </c>
       <c r="R9" s="31"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>207</v>
       </c>
@@ -20283,7 +21537,7 @@
       </c>
       <c r="R10" s="31"/>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>208</v>
       </c>
@@ -20337,7 +21591,7 @@
       </c>
       <c r="R11" s="31"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>211</v>
       </c>
@@ -20445,7 +21699,7 @@
       </c>
       <c r="R13" s="31"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>213</v>
       </c>
@@ -20499,7 +21753,7 @@
       </c>
       <c r="R14" s="31"/>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>214</v>
       </c>
@@ -20553,7 +21807,7 @@
       </c>
       <c r="R15" s="31"/>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>215</v>
       </c>
@@ -20607,7 +21861,7 @@
       </c>
       <c r="R16" s="31"/>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>218</v>
       </c>
@@ -20715,7 +21969,7 @@
       </c>
       <c r="R18" s="31"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>220</v>
       </c>
@@ -20769,7 +22023,7 @@
       </c>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>221</v>
       </c>
@@ -20823,7 +22077,7 @@
       </c>
       <c r="R20" s="31"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>222</v>
       </c>
@@ -20877,7 +22131,7 @@
       </c>
       <c r="R21" s="31"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>225</v>
       </c>
@@ -20985,7 +22239,7 @@
       </c>
       <c r="R23" s="31"/>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>227</v>
       </c>
@@ -21039,7 +22293,7 @@
       </c>
       <c r="R24" s="31"/>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>228</v>
       </c>
@@ -21093,7 +22347,7 @@
       </c>
       <c r="R25" s="31"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>229</v>
       </c>
@@ -21147,7 +22401,7 @@
       </c>
       <c r="R26" s="31"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>232</v>
       </c>
@@ -21255,7 +22509,7 @@
       </c>
       <c r="R28" s="31"/>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>234</v>
       </c>
@@ -21309,7 +22563,7 @@
       </c>
       <c r="R29" s="31"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>235</v>
       </c>
@@ -21363,7 +22617,7 @@
       </c>
       <c r="R30" s="31"/>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>236</v>
       </c>
@@ -21417,7 +22671,7 @@
       </c>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>239</v>
       </c>
@@ -21525,7 +22779,7 @@
       </c>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>241</v>
       </c>
@@ -21579,7 +22833,7 @@
       </c>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>242</v>
       </c>
@@ -21633,7 +22887,7 @@
       </c>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>243</v>
       </c>
@@ -21687,7 +22941,7 @@
       </c>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>246</v>
       </c>
@@ -21795,7 +23049,7 @@
       </c>
       <c r="R38" s="31"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>248</v>
       </c>
@@ -21849,7 +23103,7 @@
       </c>
       <c r="R39" s="31"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
         <v>249</v>
       </c>
@@ -21903,7 +23157,7 @@
       </c>
       <c r="R40" s="31"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>250</v>
       </c>
@@ -21957,7 +23211,7 @@
       </c>
       <c r="R41" s="31"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
         <v>253</v>
       </c>
@@ -22065,7 +23319,7 @@
       </c>
       <c r="R43" s="31"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>255</v>
       </c>
@@ -22119,7 +23373,7 @@
       </c>
       <c r="R44" s="31"/>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>256</v>
       </c>
@@ -22173,7 +23427,7 @@
       </c>
       <c r="R45" s="31"/>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
         <v>257</v>
       </c>
@@ -22227,7 +23481,7 @@
       </c>
       <c r="R46" s="31"/>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>260</v>
       </c>
@@ -22335,7 +23589,7 @@
       </c>
       <c r="R48" s="31"/>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>262</v>
       </c>
@@ -22389,7 +23643,7 @@
       </c>
       <c r="R49" s="31"/>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>263</v>
       </c>
@@ -22443,7 +23697,7 @@
       </c>
       <c r="R50" s="31"/>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
         <v>264</v>
       </c>
@@ -22497,7 +23751,7 @@
       </c>
       <c r="R51" s="31"/>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>267</v>
       </c>
@@ -22605,7 +23859,7 @@
       </c>
       <c r="R53" s="31"/>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>269</v>
       </c>
@@ -22659,7 +23913,7 @@
       </c>
       <c r="R54" s="31"/>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>270</v>
       </c>
@@ -22713,7 +23967,7 @@
       </c>
       <c r="R55" s="31"/>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>271</v>
       </c>
@@ -22767,7 +24021,7 @@
       </c>
       <c r="R56" s="31"/>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>274</v>
       </c>
@@ -22875,7 +24129,7 @@
       </c>
       <c r="R58" s="31"/>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>276</v>
       </c>
@@ -22929,7 +24183,7 @@
       </c>
       <c r="R59" s="31"/>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>277</v>
       </c>
@@ -22983,7 +24237,7 @@
       </c>
       <c r="R60" s="31"/>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>278</v>
       </c>
@@ -23037,7 +24291,7 @@
       </c>
       <c r="R61" s="31"/>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
         <v>281</v>
       </c>
@@ -23145,7 +24399,7 @@
       </c>
       <c r="R63" s="31"/>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>283</v>
       </c>
@@ -23199,7 +24453,7 @@
       </c>
       <c r="R64" s="31"/>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>284</v>
       </c>
@@ -23253,7 +24507,7 @@
       </c>
       <c r="R65" s="31"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>285</v>
       </c>
@@ -23307,7 +24561,7 @@
       </c>
       <c r="R66" s="31"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>288</v>
       </c>
@@ -23415,7 +24669,7 @@
       </c>
       <c r="R68" s="31"/>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>290</v>
       </c>
@@ -23469,7 +24723,7 @@
       </c>
       <c r="R69" s="31"/>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="31" t="s">
         <v>291</v>
       </c>
@@ -23523,7 +24777,7 @@
       </c>
       <c r="R70" s="31"/>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>292</v>
       </c>
@@ -23577,7 +24831,7 @@
       </c>
       <c r="R71" s="31"/>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>295</v>
       </c>
@@ -23685,7 +24939,7 @@
       </c>
       <c r="R73" s="31"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
         <v>297</v>
       </c>
@@ -23739,7 +24993,7 @@
       </c>
       <c r="R74" s="31"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>298</v>
       </c>
@@ -23793,7 +25047,7 @@
       </c>
       <c r="R75" s="31"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>299</v>
       </c>
@@ -23847,7 +25101,7 @@
       </c>
       <c r="R76" s="31"/>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>302</v>
       </c>
@@ -23955,7 +25209,7 @@
       </c>
       <c r="R78" s="31"/>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
         <v>304</v>
       </c>
@@ -24009,7 +25263,7 @@
       </c>
       <c r="R79" s="31"/>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>305</v>
       </c>
@@ -24063,7 +25317,7 @@
       </c>
       <c r="R80" s="31"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
         <v>306</v>
       </c>
@@ -24117,7 +25371,7 @@
       </c>
       <c r="R81" s="31"/>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>309</v>
       </c>
@@ -24225,7 +25479,7 @@
       </c>
       <c r="R83" s="31"/>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>311</v>
       </c>
@@ -24279,7 +25533,7 @@
       </c>
       <c r="R84" s="31"/>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>312</v>
       </c>
@@ -24333,7 +25587,7 @@
       </c>
       <c r="R85" s="31"/>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>313</v>
       </c>
@@ -24387,7 +25641,7 @@
       </c>
       <c r="R86" s="31"/>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>316</v>
       </c>
@@ -24495,7 +25749,7 @@
       </c>
       <c r="R88" s="31"/>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>318</v>
       </c>
@@ -24549,7 +25803,7 @@
       </c>
       <c r="R89" s="31"/>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>319</v>
       </c>
@@ -24603,7 +25857,7 @@
       </c>
       <c r="R90" s="31"/>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="31" t="s">
         <v>320</v>
       </c>
@@ -24657,7 +25911,7 @@
       </c>
       <c r="R91" s="31"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="31" t="s">
         <v>323</v>
       </c>
@@ -24765,7 +26019,7 @@
       </c>
       <c r="R93" s="31"/>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="31" t="s">
         <v>325</v>
       </c>
@@ -24819,7 +26073,7 @@
       </c>
       <c r="R94" s="31"/>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>326</v>
       </c>
@@ -24873,7 +26127,7 @@
       </c>
       <c r="R95" s="31"/>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="31" t="s">
         <v>327</v>
       </c>
@@ -24927,7 +26181,7 @@
       </c>
       <c r="R96" s="31"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>330</v>
       </c>
@@ -25035,7 +26289,7 @@
       </c>
       <c r="R98" s="31"/>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>332</v>
       </c>
@@ -25089,7 +26343,7 @@
       </c>
       <c r="R99" s="31"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="31" t="s">
         <v>333</v>
       </c>
@@ -25143,7 +26397,7 @@
       </c>
       <c r="R100" s="31"/>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>334</v>
       </c>
@@ -25197,7 +26451,7 @@
       </c>
       <c r="R101" s="31"/>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="31" t="s">
         <v>337</v>
       </c>
@@ -25305,7 +26559,7 @@
       </c>
       <c r="R103" s="31"/>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>339</v>
       </c>
@@ -25359,7 +26613,7 @@
       </c>
       <c r="R104" s="31"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="31" t="s">
         <v>340</v>
       </c>
@@ -25413,7 +26667,7 @@
       </c>
       <c r="R105" s="31"/>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>341</v>
       </c>
@@ -25467,7 +26721,7 @@
       </c>
       <c r="R106" s="31"/>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="31" t="s">
         <v>344</v>
       </c>
@@ -25575,7 +26829,7 @@
       </c>
       <c r="R108" s="31"/>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="31" t="s">
         <v>346</v>
       </c>
@@ -25629,7 +26883,7 @@
       </c>
       <c r="R109" s="31"/>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>347</v>
       </c>
@@ -25683,7 +26937,7 @@
       </c>
       <c r="R110" s="31"/>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="31" t="s">
         <v>348</v>
       </c>
@@ -25737,7 +26991,7 @@
       </c>
       <c r="R111" s="31"/>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>351</v>
       </c>
@@ -25845,7 +27099,7 @@
       </c>
       <c r="R113" s="31"/>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>353</v>
       </c>
@@ -25899,7 +27153,7 @@
       </c>
       <c r="R114" s="31"/>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>354</v>
       </c>
@@ -25953,7 +27207,7 @@
       </c>
       <c r="R115" s="31"/>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>355</v>
       </c>
@@ -26007,7 +27261,7 @@
       </c>
       <c r="R116" s="31"/>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>358</v>
       </c>
@@ -26115,7 +27369,7 @@
       </c>
       <c r="R118" s="31"/>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>360</v>
       </c>
@@ -26169,7 +27423,7 @@
       </c>
       <c r="R119" s="31"/>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="31" t="s">
         <v>361</v>
       </c>
@@ -26223,7 +27477,7 @@
       </c>
       <c r="R120" s="31"/>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>362</v>
       </c>
@@ -26277,7 +27531,7 @@
       </c>
       <c r="R121" s="31"/>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="31" t="s">
         <v>365</v>
       </c>
@@ -26385,7 +27639,7 @@
       </c>
       <c r="R123" s="31"/>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>367</v>
       </c>
@@ -26439,7 +27693,7 @@
       </c>
       <c r="R124" s="31"/>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>368</v>
       </c>
@@ -26493,7 +27747,7 @@
       </c>
       <c r="R125" s="31"/>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="31" t="s">
         <v>369</v>
       </c>
@@ -26547,7 +27801,7 @@
       </c>
       <c r="R126" s="31"/>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>372</v>
       </c>
@@ -26601,7 +27855,7 @@
       </c>
       <c r="R127" s="31"/>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="31" t="s">
         <v>373</v>
       </c>
@@ -26709,7 +27963,7 @@
       </c>
       <c r="R129" s="31"/>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="31" t="s">
         <v>375</v>
       </c>
@@ -26763,7 +28017,7 @@
       </c>
       <c r="R130" s="31"/>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="31" t="s">
         <v>376</v>
       </c>
@@ -26817,7 +28071,7 @@
       </c>
       <c r="R131" s="31"/>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>377</v>
       </c>
@@ -26871,7 +28125,7 @@
       </c>
       <c r="R132" s="31"/>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="31" t="s">
         <v>380</v>
       </c>
@@ -26925,7 +28179,7 @@
       </c>
       <c r="R133" s="31"/>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="31" t="s">
         <v>381</v>
       </c>
@@ -27033,7 +28287,7 @@
       </c>
       <c r="R135" s="31"/>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>383</v>
       </c>
@@ -27087,7 +28341,7 @@
       </c>
       <c r="R136" s="31"/>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="31" t="s">
         <v>384</v>
       </c>
@@ -27141,7 +28395,7 @@
       </c>
       <c r="R137" s="31"/>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="31" t="s">
         <v>385</v>
       </c>
@@ -27195,7 +28449,7 @@
       </c>
       <c r="R138" s="31"/>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="31" t="s">
         <v>416</v>
       </c>
@@ -27301,7 +28555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="31" t="s">
         <v>418</v>
       </c>
@@ -27354,7 +28608,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="31" t="s">
         <v>419</v>
       </c>
@@ -27407,7 +28661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="31" t="s">
         <v>420</v>
       </c>
@@ -27460,7 +28714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="31" t="s">
         <v>436</v>
       </c>
@@ -27566,7 +28820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="31" t="s">
         <v>438</v>
       </c>
@@ -27619,7 +28873,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="31" t="s">
         <v>439</v>
       </c>
@@ -27672,7 +28926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="31" t="s">
         <v>440</v>
       </c>
@@ -27725,7 +28979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
         <v>443</v>
       </c>
@@ -27831,7 +29085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="31" t="s">
         <v>445</v>
       </c>
@@ -27884,7 +29138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="31" t="s">
         <v>446</v>
       </c>
@@ -27937,7 +29191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="31" t="s">
         <v>447</v>
       </c>
@@ -27990,7 +29244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="31" t="s">
         <v>450</v>
       </c>
@@ -28096,7 +29350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="31" t="s">
         <v>452</v>
       </c>
@@ -28149,7 +29403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="31" t="s">
         <v>453</v>
       </c>
@@ -28202,7 +29456,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="31" t="s">
         <v>454</v>
       </c>
@@ -28255,7 +29509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="31" t="s">
         <v>457</v>
       </c>
@@ -28361,7 +29615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="31" t="s">
         <v>459</v>
       </c>
@@ -28414,7 +29668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="31" t="s">
         <v>460</v>
       </c>
@@ -28467,7 +29721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="31" t="s">
         <v>461</v>
       </c>
@@ -28520,7 +29774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
         <v>464</v>
       </c>
@@ -28626,7 +29880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="31" t="s">
         <v>466</v>
       </c>
@@ -28679,7 +29933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="31" t="s">
         <v>467</v>
       </c>
@@ -28732,7 +29986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
         <v>468</v>
       </c>
@@ -28785,7 +30039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
         <v>471</v>
       </c>
@@ -28891,7 +30145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="31" t="s">
         <v>473</v>
       </c>
@@ -28944,7 +30198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="31" t="s">
         <v>474</v>
       </c>
@@ -28997,7 +30251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="31" t="s">
         <v>475</v>
       </c>
@@ -29050,7 +30304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="31" t="s">
         <v>478</v>
       </c>
@@ -29156,7 +30410,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="31" t="s">
         <v>480</v>
       </c>
@@ -29209,7 +30463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="31" t="s">
         <v>481</v>
       </c>
@@ -29262,7 +30516,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="31" t="s">
         <v>482</v>
       </c>
@@ -29315,7 +30569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="31" t="s">
         <v>485</v>
       </c>
@@ -29421,7 +30675,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="31" t="s">
         <v>487</v>
       </c>
@@ -29474,7 +30728,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="s">
         <v>488</v>
       </c>
@@ -29527,7 +30781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="31" t="s">
         <v>489</v>
       </c>
@@ -29580,7 +30834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="31" t="s">
         <v>492</v>
       </c>
@@ -29686,7 +30940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="31" t="s">
         <v>494</v>
       </c>
@@ -29739,7 +30993,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="31" t="s">
         <v>495</v>
       </c>
@@ -29792,7 +31046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="31" t="s">
         <v>496</v>
       </c>
@@ -29845,7 +31099,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="31" t="s">
         <v>499</v>
       </c>
@@ -29951,7 +31205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="31" t="s">
         <v>501</v>
       </c>
@@ -30004,7 +31258,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="31" t="s">
         <v>502</v>
       </c>
@@ -30057,7 +31311,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="31" t="s">
         <v>503</v>
       </c>
@@ -30110,14 +31364,1387 @@
         <v>43</v>
       </c>
     </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A194" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F194" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G194" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H194" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I194" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M194" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N194" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O194" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P194" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q194" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A195" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F195" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G195" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H195" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="I195" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M195" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N195" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O195" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P195" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q195" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A196" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F196" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G196" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H196" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I196" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M196" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N196" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O196" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P196" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q196" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A197" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D197" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F197" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G197" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H197" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="I197" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J197" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K197" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L197" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M197" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N197" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O197" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P197" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q197" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A198" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D198" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F198" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G198" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H198" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="I198" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J198" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K198" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L198" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M198" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N198" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O198" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P198" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q198" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A199" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D199" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F199" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G199" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H199" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="I199" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J199" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K199" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L199" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M199" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N199" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O199" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P199" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q199" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A200" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D200" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F200" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G200" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H200" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="I200" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J200" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K200" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L200" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M200" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N200" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O200" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P200" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q200" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A201" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D201" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F201" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G201" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H201" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="I201" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J201" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K201" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L201" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M201" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N201" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O201" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P201" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q201" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A202" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D202" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F202" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G202" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H202" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I202" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M202" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N202" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O202" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P202" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q202" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A203" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D203" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F203" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G203" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H203" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="I203" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M203" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N203" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O203" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P203" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q203" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A204" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C204" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F204" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H204" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="I204" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M204" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N204" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O204" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P204" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q204" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A205" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D205" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F205" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G205" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H205" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="I205" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J205" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K205" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L205" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M205" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N205" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O205" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P205" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q205" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A206" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D206" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F206" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G206" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H206" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="I206" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J206" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K206" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L206" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M206" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N206" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O206" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P206" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q206" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A207" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D207" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F207" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G207" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H207" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="I207" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J207" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K207" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L207" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M207" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N207" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O207" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P207" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q207" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A208" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F208" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G208" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H208" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="I208" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J208" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K208" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L208" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M208" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N208" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O208" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P208" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q208" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A209" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F209" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G209" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H209" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I209" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J209" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K209" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L209" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M209" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N209" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O209" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P209" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q209" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A210" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D210" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F210" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H210" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I210" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M210" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N210" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O210" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P210" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q210" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A211" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D211" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F211" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H211" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I211" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M211" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N211" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O211" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P211" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q211" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A212" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D212" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F212" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G212" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H212" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="I212" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M212" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N212" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O212" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P212" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q212" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R212" s="31"/>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A213" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D213" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F213" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G213" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H213" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="I213" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M213" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N213" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O213" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P213" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q213" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A214" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D214" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F214" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G214" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H214" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I214" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J214" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K214" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L214" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M214" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N214" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O214" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P214" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q214" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A215" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="B215" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D215" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H215" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I215" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J215" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K215" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L215" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M215" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N215" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O215" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P215" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q215" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A216" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D216" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F216" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G216" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H216" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="I216" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J216" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K216" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L216" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M216" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N216" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O216" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P216" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q216" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A217" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D217" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F217" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G217" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H217" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="I217" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J217" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K217" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L217" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M217" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N217" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O217" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P217" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q217" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A218" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D218" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F218" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G218" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H218" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="I218" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J218" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K218" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L218" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M218" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N218" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O218" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P218" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q218" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A219" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="D219" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E219" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F219" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G219" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H219" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="I219" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J219" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K219" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L219" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M219" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N219" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O219" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P219" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q219" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R219" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R193" xr:uid="{3CC674A8-E3F5-4ECE-BAB5-595D452F8E9C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="G01"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -32479,11 +35106,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32565,49 +35192,49 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>804</v>
+        <v>355</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>791</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>789</v>
+        <v>145</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>825</v>
+        <v>173</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>817</v>
+        <v>670</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>185</v>
@@ -32615,52 +35242,53 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>805</v>
+        <v>373</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>792</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>789</v>
+        <v>151</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>825</v>
+        <v>53</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
@@ -32668,52 +35296,53 @@
       <c r="Q3" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>806</v>
+        <v>374</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>793</v>
+        <v>8</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>789</v>
+        <v>152</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>825</v>
+        <v>53</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>819</v>
+        <v>783</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
@@ -32721,34 +35350,35 @@
       <c r="Q4" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>809</v>
+        <v>375</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>789</v>
+        <v>149</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>825</v>
+        <v>53</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>816</v>
+        <v>784</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -32763,45 +35393,46 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>810</v>
+        <v>376</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>789</v>
+        <v>150</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>825</v>
+        <v>53</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -32816,45 +35447,46 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>811</v>
+        <v>377</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>789</v>
+        <v>145</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>825</v>
+        <v>53</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>820</v>
+        <v>786</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -32869,45 +35501,46 @@
         <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>812</v>
+        <v>380</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>789</v>
+        <v>148</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>825</v>
+        <v>176</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>821</v>
+        <v>694</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>57</v>
@@ -32922,45 +35555,46 @@
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>813</v>
+        <v>381</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>788</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>789</v>
+        <v>151</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>825</v>
+        <v>176</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>818</v>
+        <v>695</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>57</v>
@@ -32975,10 +35609,10 @@
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
@@ -32986,6 +35620,4518 @@
       <c r="Q9" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P66" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q68" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q69" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P70" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q71" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P73" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O78" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L79" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O79" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q79" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O80" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P80" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q80" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N81" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O81" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P81" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N82" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P82" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q82" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J83" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L83" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N83" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O83" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P83" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q83" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L84" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N84" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O84" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P84" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q84" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M85" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N85" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O85" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P85" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K86" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L86" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N86" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O86" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P86" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q86" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L87" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N87" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O87" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P87" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q87" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R87" s="31"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L88" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N88" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O88" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P88" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q88" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I89" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J89" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N89" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O89" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P89" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q89" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I90" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J90" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L90" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M90" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N90" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O90" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P90" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q90" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="I91" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K91" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L91" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M91" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N91" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O91" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P91" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q91" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H92" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J92" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L92" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M92" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N92" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O92" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P92" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q92" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H93" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L93" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M93" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N93" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O93" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P93" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q93" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="31" t="s">
+        <v>878</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F94" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G94" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H94" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L94" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M94" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N94" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O94" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P94" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q94" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R94" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B58F5D-0091-4218-90FB-8C85768CEF39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E39500-846F-4CD6-9F97-92B10A6C0EA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11483" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9987" uniqueCount="880">
   <si>
     <t>name</t>
   </si>
@@ -2728,6 +2728,9 @@
   </si>
   <si>
     <t>MS303</t>
+  </si>
+  <si>
+    <t>115.38*</t>
   </si>
 </sst>
 </file>
@@ -2924,7 +2927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3007,6 +3010,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4622,8 +4628,8 @@
   <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281:XFD304"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19758,7 +19764,7 @@
         <v>826</v>
       </c>
       <c r="H282" s="27" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
       <c r="I282" s="28" t="s">
         <v>177</v>
@@ -31811,7 +31817,7 @@
         <v>826</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>817</v>
+        <v>879</v>
       </c>
       <c r="I202" s="28" t="s">
         <v>177</v>
@@ -35106,11 +35112,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35192,31 +35198,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>355</v>
+        <v>874</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>101</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>795</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>840</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>173</v>
+        <v>841</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>670</v>
+        <v>847</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>57</v>
@@ -35234,7 +35240,7 @@
         <v>44</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>185</v>
@@ -35242,35 +35248,34 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>373</v>
+        <v>875</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>840</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>782</v>
+        <v>848</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -35285,46 +35290,45 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="31"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>374</v>
+        <v>876</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>840</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>783</v>
+        <v>849</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -35339,46 +35343,45 @@
         <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="31"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>375</v>
+        <v>877</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>38</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>796</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>840</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>784</v>
+        <v>850</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -35393,46 +35396,45 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="31"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>376</v>
+        <v>878</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>38</v>
+        <v>6</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>840</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>53</v>
+        <v>841</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>785</v>
+        <v>852</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -35447,4691 +35449,18 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R6" s="31"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="31"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="31"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="31"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>416</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>418</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>419</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>388</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>719</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>424</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>732</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>739</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>746</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>485</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>487</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>813</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>818</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q77" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>832</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q78" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>833</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q79" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q80" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q81" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>863</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q82" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>864</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K83" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L83" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N83" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O83" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P83" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q83" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L84" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O84" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P84" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q84" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G85" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J85" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K85" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M85" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N85" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O85" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P85" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q85" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>845</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K86" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L86" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M86" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N86" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O86" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P86" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q86" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>853</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J87" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N87" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O87" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P87" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q87" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R87" s="31"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>846</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K88" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L88" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N88" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O88" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P88" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q88" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G89" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="I89" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L89" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M89" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N89" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P89" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q89" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D90" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F90" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G90" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>847</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J90" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K90" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L90" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N90" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O90" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P90" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q90" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G91" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H91" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J91" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K91" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L91" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M91" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N91" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O91" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P91" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q91" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="31" t="s">
-        <v>876</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G92" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>849</v>
-      </c>
-      <c r="I92" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K92" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L92" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M92" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O92" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P92" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q92" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="31" t="s">
-        <v>877</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G93" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H93" s="27" t="s">
-        <v>850</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J93" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L93" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M93" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N93" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O93" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P93" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q93" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="D94" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K94" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L94" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M94" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N94" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O94" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P94" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q94" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R94" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E39500-846F-4CD6-9F97-92B10A6C0EA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136B14A-1AB8-419A-BF35-648869707430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9987" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11398" uniqueCount="880">
   <si>
     <t>name</t>
   </si>
@@ -2927,7 +2927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3010,9 +3010,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20963,7 +20960,7 @@
       <c r="R304" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R304" xr:uid="{517AECB3-12B8-402A-BA09-D9C11BD32D3D}"/>
+  <autoFilter ref="A1:R304" xr:uid="{850FDD6A-27D3-49F5-9D6B-004491AA421C}"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -20976,8 +20973,8 @@
   <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35112,7 +35109,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35198,31 +35195,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>874</v>
+        <v>377</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>795</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>840</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>841</v>
+        <v>53</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>847</v>
+        <v>786</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>57</v>
@@ -35240,7 +35237,7 @@
         <v>44</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>185</v>
@@ -35248,34 +35245,35 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>875</v>
+        <v>380</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>840</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>841</v>
+        <v>176</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>848</v>
+        <v>694</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -35290,45 +35288,46 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>876</v>
+        <v>381</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>799</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>840</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>841</v>
+        <v>176</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>849</v>
+        <v>695</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -35343,45 +35342,46 @@
         <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>877</v>
+        <v>382</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>796</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>840</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>841</v>
+        <v>176</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>850</v>
+        <v>696</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -35399,7 +35399,7 @@
         <v>44</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
@@ -35407,60 +35407,4464 @@
       <c r="Q5" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>698</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>696</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>723</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>725</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>732</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>735</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>737</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>738</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>739</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>742</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>743</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>744</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>745</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>749</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>750</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>751</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>752</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>753</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>779</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>780</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>764</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>510</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F64" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F66" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P66" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>814</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q68" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G69" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P69" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q69" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
+        <v>812</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G70" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="I70" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J70" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M70" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O70" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P70" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q70" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>788</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>789</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>825</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="I71" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O71" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P71" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q71" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N72" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O72" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P72" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>857</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="I73" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J73" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K73" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M73" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N73" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O73" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P73" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q73" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>858</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>833</v>
+      </c>
+      <c r="I74" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M74" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N74" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O74" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P74" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q74" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="I75" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O75" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P75" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q75" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="I76" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J76" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M76" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O76" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P76" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q76" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H77" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="I77" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J77" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M77" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P77" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G78" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="I78" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M78" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O78" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P78" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q78" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>828</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I79" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J79" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O79" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q79" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I80" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J80" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K80" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M80" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N80" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O80" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P80" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q80" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I81" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K81" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L81" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M81" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N81" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O81" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P81" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q81" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G82" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>854</v>
+      </c>
+      <c r="I82" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J82" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K82" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L82" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M82" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N82" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O82" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P82" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q82" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="R82" s="31"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H83" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="I83" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J83" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="K83" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L83" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="N83" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O83" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P83" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q83" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H84" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I84" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J84" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L84" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M84" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N84" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O84" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P84" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q84" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G85" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I85" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M85" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N85" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O85" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P85" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q85" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H86" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J86" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K86" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L86" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M86" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N86" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P86" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q86" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>799</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="I87" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J87" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M87" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N87" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P87" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q87" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>842</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>840</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>841</v>
+      </c>
+      <c r="H88" s="27" t="s">
+        <v>850</v>
+      </c>
+      <c r="I88" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J88" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M88" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N88" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O88" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P88" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q88" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
         <v>878</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B89" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C89" s="27" t="s">
         <v>851</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D89" s="29" t="s">
         <v>842</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E89" s="31" t="s">
         <v>839</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F89" s="29" t="s">
         <v>840</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G89" s="28" t="s">
         <v>841</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H89" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I89" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="27" t="s">
+      <c r="J89" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M89" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N89" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O89" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="P6" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q6" s="27" t="s">
+      <c r="P89" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q89" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="31"/>
+      <c r="R89" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136B14A-1AB8-419A-BF35-648869707430}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C90D25-1B6F-47B1-9426-7E5ECB645284}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11398" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10854" uniqueCount="881">
   <si>
     <t>name</t>
   </si>
@@ -2439,21 +2439,6 @@
     <t>64.26*</t>
   </si>
   <si>
-    <t>158.33*</t>
-  </si>
-  <si>
-    <t>130.30*</t>
-  </si>
-  <si>
-    <t>50.06*</t>
-  </si>
-  <si>
-    <t>74.11*</t>
-  </si>
-  <si>
-    <t>105.82*</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -2731,6 +2716,24 @@
   </si>
   <si>
     <t>115.38*</t>
+  </si>
+  <si>
+    <t>133.36*</t>
+  </si>
+  <si>
+    <t>162.16*</t>
+  </si>
+  <si>
+    <t>133.52*</t>
+  </si>
+  <si>
+    <t>51.44*</t>
+  </si>
+  <si>
+    <t>75.92*</t>
+  </si>
+  <si>
+    <t>108.56*</t>
   </si>
 </sst>
 </file>
@@ -4121,7 +4124,7 @@
         <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -4135,7 +4138,7 @@
         <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -4149,7 +4152,7 @@
         <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -19104,28 +19107,28 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="31" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C270" s="27" t="s">
         <v>146</v>
       </c>
       <c r="D270" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E270" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F270" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G270" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H270" s="27" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="I270" s="28" t="s">
         <v>4</v>
@@ -19157,28 +19160,28 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="31" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C271" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D271" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F271" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G271" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H271" s="27" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I271" s="28" t="s">
         <v>177</v>
@@ -19210,28 +19213,28 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="31" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C272" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D272" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E272" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F272" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G272" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I272" s="28" t="s">
         <v>186</v>
@@ -19263,28 +19266,28 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="31" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C273" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D273" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E273" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F273" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G273" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H273" s="27" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="I273" s="28" t="s">
         <v>180</v>
@@ -19316,28 +19319,28 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="31" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B274" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C274" s="27" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D274" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E274" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F274" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G274" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="I274" s="28" t="s">
         <v>4</v>
@@ -19369,7 +19372,7 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="31" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B275" s="25" t="s">
         <v>5</v>
@@ -19378,19 +19381,19 @@
         <v>147</v>
       </c>
       <c r="D275" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F275" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G275" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H275" s="27" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="I275" s="28" t="s">
         <v>4</v>
@@ -19422,28 +19425,28 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="31" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B276" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C276" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D276" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E276" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F276" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G276" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H276" s="27" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I276" s="28" t="s">
         <v>177</v>
@@ -19475,28 +19478,28 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="31" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B277" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C277" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D277" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F277" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G277" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H277" s="27" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I277" s="28" t="s">
         <v>186</v>
@@ -19528,28 +19531,28 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="31" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B278" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C278" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D278" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F278" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G278" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H278" s="27" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="I278" s="28" t="s">
         <v>179</v>
@@ -19581,28 +19584,28 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="31" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B279" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C279" s="27" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D279" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E279" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F279" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G279" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H279" s="27" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="I279" s="28" t="s">
         <v>178</v>
@@ -19634,28 +19637,28 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="31" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B280" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C280" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D280" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E280" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F280" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G280" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H280" s="27" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I280" s="28" t="s">
         <v>180</v>
@@ -19687,25 +19690,25 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="31" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C281" s="27" t="s">
         <v>146</v>
       </c>
       <c r="D281" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E281" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F281" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G281" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H281" s="27" t="s">
         <v>567</v>
@@ -19740,28 +19743,28 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="31" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C282" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D282" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E282" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F282" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G282" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H282" s="27" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I282" s="28" t="s">
         <v>177</v>
@@ -19793,28 +19796,28 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="31" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C283" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D283" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E283" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G283" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H283" s="27" t="s">
         <v>827</v>
-      </c>
-      <c r="F283" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G283" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H283" s="27" t="s">
-        <v>832</v>
       </c>
       <c r="I283" s="28" t="s">
         <v>186</v>
@@ -19846,28 +19849,28 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="31" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C284" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D284" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E284" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F284" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G284" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H284" s="27" t="s">
         <v>828</v>
-      </c>
-      <c r="E284" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F284" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G284" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H284" s="27" t="s">
-        <v>833</v>
       </c>
       <c r="I284" s="28" t="s">
         <v>180</v>
@@ -19899,28 +19902,28 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="31" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B285" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C285" s="27" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D285" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E285" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F285" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G285" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H285" s="27" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I285" s="28" t="s">
         <v>4</v>
@@ -19952,7 +19955,7 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="31" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B286" s="25" t="s">
         <v>5</v>
@@ -19961,19 +19964,19 @@
         <v>147</v>
       </c>
       <c r="D286" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E286" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F286" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G286" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H286" s="27" t="s">
         <v>826</v>
-      </c>
-      <c r="H286" s="27" t="s">
-        <v>831</v>
       </c>
       <c r="I286" s="28" t="s">
         <v>4</v>
@@ -20005,28 +20008,28 @@
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="31" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B287" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C287" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D287" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E287" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F287" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G287" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H287" s="27" t="s">
         <v>829</v>
-      </c>
-      <c r="G287" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H287" s="27" t="s">
-        <v>834</v>
       </c>
       <c r="I287" s="28" t="s">
         <v>177</v>
@@ -20058,28 +20061,28 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="31" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B288" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D288" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E288" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F288" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G288" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H288" s="27" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="I288" s="28" t="s">
         <v>186</v>
@@ -20111,28 +20114,28 @@
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="31" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B289" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C289" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D289" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F289" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G289" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H289" s="27" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="I289" s="28" t="s">
         <v>179</v>
@@ -20164,28 +20167,28 @@
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="31" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B290" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C290" s="27" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D290" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F290" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G290" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H290" s="27" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="I290" s="28" t="s">
         <v>178</v>
@@ -20217,28 +20220,28 @@
     </row>
     <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="31" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B291" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C291" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D291" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F291" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G291" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H291" s="27" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="I291" s="28" t="s">
         <v>180</v>
@@ -20270,28 +20273,28 @@
     </row>
     <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="31" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C292" s="27" t="s">
         <v>146</v>
       </c>
       <c r="D292" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F292" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G292" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H292" s="27" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="I292" s="28" t="s">
         <v>4</v>
@@ -20323,28 +20326,28 @@
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="31" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C293" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D293" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E293" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F293" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G293" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H293" s="27" t="s">
         <v>839</v>
-      </c>
-      <c r="F293" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G293" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H293" s="27" t="s">
-        <v>844</v>
       </c>
       <c r="I293" s="28" t="s">
         <v>177</v>
@@ -20376,28 +20379,28 @@
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="31" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C294" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D294" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E294" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F294" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G294" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H294" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="G294" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H294" s="27" t="s">
-        <v>845</v>
       </c>
       <c r="I294" s="28" t="s">
         <v>186</v>
@@ -20429,28 +20432,28 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="31" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C295" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D295" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E295" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F295" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G295" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H295" s="27" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="I295" s="28" t="s">
         <v>4</v>
@@ -20483,28 +20486,28 @@
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="31" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C296" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D296" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E296" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F296" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G296" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H296" s="27" t="s">
         <v>841</v>
-      </c>
-      <c r="H296" s="27" t="s">
-        <v>846</v>
       </c>
       <c r="I296" s="28" t="s">
         <v>180</v>
@@ -20536,25 +20539,25 @@
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="31" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B297" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C297" s="27" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D297" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F297" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G297" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H297" s="27" t="s">
         <v>767</v>
@@ -20589,7 +20592,7 @@
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="31" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B298" s="25" t="s">
         <v>5</v>
@@ -20598,16 +20601,16 @@
         <v>147</v>
       </c>
       <c r="D298" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E298" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F298" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G298" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H298" s="27" t="s">
         <v>577</v>
@@ -20642,25 +20645,25 @@
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="31" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B299" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C299" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D299" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E299" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F299" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G299" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H299" s="27" t="s">
         <v>673</v>
@@ -20695,28 +20698,28 @@
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="31" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B300" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C300" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D300" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E300" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F300" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G300" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H300" s="27" t="s">
         <v>842</v>
-      </c>
-      <c r="E300" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F300" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G300" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H300" s="27" t="s">
-        <v>847</v>
       </c>
       <c r="I300" s="28" t="s">
         <v>186</v>
@@ -20748,28 +20751,28 @@
     </row>
     <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="31" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B301" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C301" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D301" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E301" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F301" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G301" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H301" s="27" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="I301" s="28" t="s">
         <v>179</v>
@@ -20801,28 +20804,28 @@
     </row>
     <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="31" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B302" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C302" s="27" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D302" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E302" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F302" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G302" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H302" s="27" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I302" s="28" t="s">
         <v>178</v>
@@ -20854,28 +20857,28 @@
     </row>
     <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="31" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B303" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C303" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D303" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E303" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F303" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G303" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H303" s="27" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="I303" s="28" t="s">
         <v>180</v>
@@ -20907,28 +20910,28 @@
     </row>
     <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="31" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B304" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C304" s="27" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D304" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E304" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F304" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G304" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H304" s="27" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="I304" s="28" t="s">
         <v>4</v>
@@ -20972,9 +20975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A219"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27827,7 +27830,7 @@
         <v>53</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>695</v>
+        <v>875</v>
       </c>
       <c r="I127" s="28" t="s">
         <v>4</v>
@@ -27881,7 +27884,7 @@
         <v>53</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>782</v>
+        <v>876</v>
       </c>
       <c r="I128" s="28" t="s">
         <v>177</v>
@@ -27935,7 +27938,7 @@
         <v>53</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>783</v>
+        <v>877</v>
       </c>
       <c r="I129" s="28" t="s">
         <v>186</v>
@@ -27989,7 +27992,7 @@
         <v>53</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="I130" s="28" t="s">
         <v>179</v>
@@ -28043,7 +28046,7 @@
         <v>53</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>785</v>
+        <v>879</v>
       </c>
       <c r="I131" s="28" t="s">
         <v>178</v>
@@ -28097,7 +28100,7 @@
         <v>53</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="I132" s="28" t="s">
         <v>180</v>
@@ -31369,28 +31372,28 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="31" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C194" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F194" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H194" s="27" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I194" s="28" t="s">
         <v>177</v>
@@ -31422,28 +31425,28 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="31" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C195" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D195" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F195" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G195" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H195" s="27" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I195" s="28" t="s">
         <v>186</v>
@@ -31475,28 +31478,28 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C196" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F196" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G196" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H196" s="27" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="I196" s="28" t="s">
         <v>180</v>
@@ -31528,28 +31531,28 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="31" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B197" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D197" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F197" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G197" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I197" s="28" t="s">
         <v>177</v>
@@ -31581,28 +31584,28 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="31" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B198" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C198" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D198" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F198" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G198" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="I198" s="28" t="s">
         <v>186</v>
@@ -31634,28 +31637,28 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="31" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B199" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C199" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D199" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F199" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G199" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H199" s="27" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="I199" s="28" t="s">
         <v>179</v>
@@ -31687,28 +31690,28 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="31" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B200" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D200" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F200" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G200" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H200" s="27" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="I200" s="28" t="s">
         <v>178</v>
@@ -31740,28 +31743,28 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="31" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B201" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C201" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D201" s="29" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E201" s="31" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F201" s="29" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G201" s="28" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H201" s="27" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="I201" s="28" t="s">
         <v>180</v>
@@ -31793,28 +31796,28 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="31" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C202" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D202" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E202" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F202" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G202" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H202" s="27" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I202" s="28" t="s">
         <v>177</v>
@@ -31846,28 +31849,28 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="31" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C203" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D203" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E203" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F203" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G203" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H203" s="27" t="s">
         <v>827</v>
-      </c>
-      <c r="F203" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G203" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H203" s="27" t="s">
-        <v>832</v>
       </c>
       <c r="I203" s="28" t="s">
         <v>186</v>
@@ -31899,28 +31902,28 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="31" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C204" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D204" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F204" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G204" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H204" s="27" t="s">
         <v>828</v>
-      </c>
-      <c r="E204" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F204" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G204" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H204" s="27" t="s">
-        <v>833</v>
       </c>
       <c r="I204" s="28" t="s">
         <v>180</v>
@@ -31952,28 +31955,28 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="31" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B205" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D205" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F205" s="29" t="s">
+        <v>824</v>
+      </c>
+      <c r="G205" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="H205" s="27" t="s">
         <v>829</v>
-      </c>
-      <c r="G205" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H205" s="27" t="s">
-        <v>834</v>
       </c>
       <c r="I205" s="28" t="s">
         <v>177</v>
@@ -32005,28 +32008,28 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="31" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="B206" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C206" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D206" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F206" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G206" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H206" s="27" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="I206" s="28" t="s">
         <v>186</v>
@@ -32058,28 +32061,28 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="31" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B207" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C207" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D207" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F207" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G207" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H207" s="27" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="I207" s="28" t="s">
         <v>179</v>
@@ -32111,28 +32114,28 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="31" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B208" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C208" s="27" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F208" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G208" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H208" s="27" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="I208" s="28" t="s">
         <v>178</v>
@@ -32164,28 +32167,28 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="31" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B209" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C209" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F209" s="29" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G209" s="28" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H209" s="27" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="I209" s="28" t="s">
         <v>180</v>
@@ -32217,28 +32220,28 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="31" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C210" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D210" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E210" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F210" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G210" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H210" s="27" t="s">
         <v>839</v>
-      </c>
-      <c r="F210" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G210" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H210" s="27" t="s">
-        <v>844</v>
       </c>
       <c r="I210" s="28" t="s">
         <v>177</v>
@@ -32270,28 +32273,28 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="31" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C211" s="27" t="s">
         <v>152</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F211" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G211" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H211" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="G211" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H211" s="27" t="s">
-        <v>845</v>
       </c>
       <c r="I211" s="28" t="s">
         <v>186</v>
@@ -32323,28 +32326,28 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="31" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C212" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D212" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F212" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G212" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H212" s="27" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="I212" s="28" t="s">
         <v>4</v>
@@ -32377,28 +32380,28 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="31" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C213" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D213" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F213" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G213" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H213" s="27" t="s">
         <v>841</v>
-      </c>
-      <c r="H213" s="27" t="s">
-        <v>846</v>
       </c>
       <c r="I213" s="28" t="s">
         <v>180</v>
@@ -32430,25 +32433,25 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="31" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B214" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="27" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D214" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F214" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G214" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H214" s="27" t="s">
         <v>673</v>
@@ -32483,28 +32486,28 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="31" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B215" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C215" s="27" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D215" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F215" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G215" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H215" s="27" t="s">
         <v>842</v>
-      </c>
-      <c r="E215" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F215" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G215" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H215" s="27" t="s">
-        <v>847</v>
       </c>
       <c r="I215" s="28" t="s">
         <v>186</v>
@@ -32536,28 +32539,28 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="31" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B216" s="26" t="s">
         <v>9</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F216" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G216" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H216" s="27" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="I216" s="28" t="s">
         <v>179</v>
@@ -32589,28 +32592,28 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="31" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B217" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C217" s="27" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D217" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E217" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F217" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G217" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H217" s="27" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I217" s="28" t="s">
         <v>178</v>
@@ -32642,28 +32645,28 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="31" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B218" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D218" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F218" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G218" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H218" s="27" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="I218" s="28" t="s">
         <v>180</v>
@@ -32695,28 +32698,28 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="31" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B219" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C219" s="27" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D219" s="29" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="F219" s="29" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G219" s="28" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H219" s="27" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="I219" s="28" t="s">
         <v>4</v>
@@ -35109,9 +35112,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -35195,31 +35198,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>377</v>
+        <v>464</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>138</v>
+        <v>400</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>53</v>
+        <v>508</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>57</v>
@@ -35234,10 +35237,10 @@
         <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>185</v>
@@ -35245,35 +35248,34 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>57</v>
@@ -35299,35 +35301,34 @@
       <c r="Q3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>381</v>
+        <v>466</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>57</v>
@@ -35342,46 +35343,45 @@
         <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="31"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>57</v>
@@ -35396,46 +35396,45 @@
         <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="31"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>383</v>
+        <v>468</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>142</v>
+        <v>400</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>52</v>
+        <v>427</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>57</v>
@@ -35450,46 +35449,45 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="31"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>384</v>
+        <v>471</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>51</v>
+        <v>403</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>52</v>
+        <v>429</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>176</v>
+        <v>428</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>698</v>
+        <v>742</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>57</v>
@@ -35501,49 +35499,48 @@
         <v>41</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="31"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>385</v>
+        <v>472</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>51</v>
+        <v>403</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>142</v>
+        <v>402</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>52</v>
+        <v>429</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>176</v>
+        <v>428</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>57</v>
@@ -35555,13 +35552,13 @@
         <v>41</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N8" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>185</v>
@@ -35569,35 +35566,34 @@
       <c r="Q8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>57</v>
@@ -35609,48 +35605,48 @@
         <v>41</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>57</v>
@@ -35662,48 +35658,48 @@
         <v>41</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>504</v>
+        <v>428</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>57</v>
@@ -35715,48 +35711,48 @@
         <v>41</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>705</v>
+        <v>749</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>57</v>
@@ -35771,45 +35767,45 @@
         <v>42</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>706</v>
+        <v>750</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>57</v>
@@ -35827,7 +35823,7 @@
         <v>44</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>185</v>
@@ -35838,252 +35834,252 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>712</v>
+        <v>779</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M17" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>713</v>
+        <v>780</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>193</v>
@@ -36092,7 +36088,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>185</v>
@@ -36103,31 +36099,31 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>716</v>
+        <v>781</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>57</v>
@@ -36139,48 +36135,48 @@
         <v>41</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>717</v>
+        <v>615</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J20" s="27" t="s">
         <v>57</v>
@@ -36192,48 +36188,48 @@
         <v>41</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>718</v>
+        <v>616</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>57</v>
@@ -36245,119 +36241,119 @@
         <v>41</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>719</v>
+        <v>763</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q22" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>696</v>
+        <v>764</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>42</v>
+        <v>775</v>
       </c>
       <c r="N23" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>185</v>
@@ -36368,190 +36364,190 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>57</v>
+        <v>775</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>58</v>
+        <v>775</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>193</v>
+        <v>775</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>424</v>
+        <v>511</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>521</v>
+        <v>770</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>57</v>
@@ -36563,48 +36559,48 @@
         <v>41</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>424</v>
+        <v>511</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>725</v>
+        <v>771</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>57</v>
@@ -36616,13 +36612,13 @@
         <v>41</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N28" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>185</v>
@@ -36633,31 +36629,31 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>728</v>
+        <v>772</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J29" s="27" t="s">
         <v>57</v>
@@ -36672,45 +36668,45 @@
         <v>42</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>729</v>
+        <v>773</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J30" s="27" t="s">
         <v>57</v>
@@ -36725,45 +36721,45 @@
         <v>42</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>730</v>
+        <v>774</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J31" s="27" t="s">
         <v>57</v>
@@ -36778,116 +36774,116 @@
         <v>42</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>460</v>
+        <v>799</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>10</v>
+        <v>786</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>426</v>
+        <v>151</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>507</v>
+        <v>820</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>731</v>
+        <v>812</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>461</v>
+        <v>800</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>11</v>
+        <v>787</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>426</v>
+        <v>152</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>507</v>
+        <v>820</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N33" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>185</v>
@@ -36898,49 +36894,49 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>464</v>
+        <v>801</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>7</v>
+        <v>788</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>427</v>
+        <v>145</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>735</v>
+        <v>814</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P34" s="27" t="s">
         <v>185</v>
@@ -36951,31 +36947,31 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>465</v>
+        <v>804</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>427</v>
+        <v>789</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>736</v>
+        <v>811</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J35" s="27" t="s">
         <v>57</v>
@@ -36990,10 +36986,10 @@
         <v>42</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>185</v>
@@ -37004,31 +37000,31 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>466</v>
+        <v>805</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>427</v>
+        <v>790</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>57</v>
@@ -37043,45 +37039,45 @@
         <v>42</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>467</v>
+        <v>806</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>427</v>
+        <v>793</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>738</v>
+        <v>815</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J37" s="27" t="s">
         <v>57</v>
@@ -37096,45 +37092,45 @@
         <v>42</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>468</v>
+        <v>807</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>427</v>
+        <v>794</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>508</v>
+        <v>820</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>739</v>
+        <v>816</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J38" s="27" t="s">
         <v>57</v>
@@ -37149,45 +37145,45 @@
         <v>42</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>471</v>
+        <v>808</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>429</v>
+        <v>791</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>742</v>
+        <v>813</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J39" s="27" t="s">
         <v>57</v>
@@ -37199,13 +37195,13 @@
         <v>41</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>185</v>
@@ -37216,49 +37212,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>472</v>
+        <v>851</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>8</v>
+        <v>786</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>429</v>
+        <v>151</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>428</v>
+        <v>821</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>743</v>
+        <v>874</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M40" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="P40" s="27" t="s">
         <v>185</v>
@@ -37269,137 +37265,137 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>473</v>
+        <v>852</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>9</v>
+        <v>787</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>429</v>
+        <v>152</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>428</v>
+        <v>821</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>744</v>
+        <v>827</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M41" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P41" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
-        <v>474</v>
+        <v>853</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>10</v>
+        <v>788</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>429</v>
+        <v>145</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>428</v>
+        <v>821</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>745</v>
+        <v>828</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M42" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P42" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q42" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>475</v>
+        <v>856</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>429</v>
+        <v>789</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>428</v>
+        <v>821</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>746</v>
+        <v>829</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J43" s="27" t="s">
         <v>57</v>
@@ -37411,13 +37407,13 @@
         <v>41</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P43" s="27" t="s">
         <v>185</v>
@@ -37428,31 +37424,31 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>478</v>
+        <v>857</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>430</v>
+        <v>790</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>749</v>
+        <v>830</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>57</v>
@@ -37467,10 +37463,10 @@
         <v>42</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>185</v>
@@ -37481,31 +37477,31 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>479</v>
+        <v>858</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>430</v>
+        <v>793</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J45" s="27" t="s">
         <v>57</v>
@@ -37520,45 +37516,45 @@
         <v>42</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O45" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P45" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q45" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>480</v>
+        <v>859</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>430</v>
+        <v>794</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>751</v>
+        <v>832</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J46" s="27" t="s">
         <v>57</v>
@@ -37573,45 +37569,45 @@
         <v>42</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O46" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>481</v>
+        <v>860</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>430</v>
+        <v>791</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>823</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>824</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>509</v>
+        <v>821</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>752</v>
+        <v>833</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J47" s="27" t="s">
         <v>57</v>
@@ -37626,63 +37622,63 @@
         <v>42</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>482</v>
+        <v>862</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>11</v>
+        <v>786</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>430</v>
+        <v>151</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>509</v>
+        <v>836</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>753</v>
+        <v>839</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K48" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L48" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O48" s="27" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="P48" s="27" t="s">
         <v>185</v>
@@ -37691,51 +37687,51 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>485</v>
+        <v>863</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>7</v>
+        <v>787</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>432</v>
+        <v>152</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>779</v>
+        <v>840</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M49" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O49" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P49" s="27" t="s">
         <v>185</v>
@@ -37744,42 +37740,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>486</v>
+        <v>864</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>8</v>
+        <v>848</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>432</v>
+        <v>148</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>780</v>
+        <v>849</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M50" s="27" t="s">
         <v>193</v>
@@ -37796,87 +37792,88 @@
       <c r="Q50" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="31"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>487</v>
+        <v>865</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>9</v>
+        <v>788</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>432</v>
+        <v>145</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F51" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>781</v>
+        <v>841</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M51" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N51" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O51" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P51" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q51" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>488</v>
+        <v>868</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>432</v>
+        <v>789</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>615</v>
+        <v>673</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J52" s="27" t="s">
         <v>57</v>
@@ -37888,48 +37885,48 @@
         <v>41</v>
       </c>
       <c r="M52" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O52" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P52" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q52" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>489</v>
+        <v>869</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>432</v>
+        <v>790</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>616</v>
+        <v>842</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J53" s="27" t="s">
         <v>57</v>
@@ -37941,13 +37938,13 @@
         <v>41</v>
       </c>
       <c r="M53" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N53" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O53" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P53" s="27" t="s">
         <v>185</v>
@@ -37956,1915 +37953,218 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>492</v>
+        <v>870</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>433</v>
+        <v>793</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>510</v>
+        <v>836</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>763</v>
+        <v>843</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L54" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O54" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P54" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q54" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q56" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N55" s="27" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="O55" s="27" t="s">
+      <c r="O57" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="P55" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q55" s="27" t="s">
+      <c r="P57" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q57" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>500</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>502</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
-        <v>804</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>817</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>815</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F66" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>809</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F67" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>810</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>814</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>811</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F69" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>820</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
-        <v>812</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F70" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
-        <v>813</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>788</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="F71" s="29" t="s">
-        <v>789</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>825</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>818</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>879</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F73" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>832</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>833</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>863</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q77" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>864</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q78" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q79" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>791</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q80" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>792</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>845</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q81" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>853</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>854</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q82" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R82" s="31"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>793</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>846</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="K83" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L83" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N83" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O83" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P83" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q83" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L84" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O84" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P84" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q84" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G85" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>847</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="J85" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K85" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M85" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N85" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O85" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P85" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q85" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>848</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K86" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L86" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M86" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N86" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O86" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P86" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q86" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>876</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>799</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>849</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="J87" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N87" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="O87" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P87" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q87" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>877</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>850</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K88" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L88" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N88" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O88" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P88" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q88" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
-        <v>878</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>842</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>839</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>840</v>
-      </c>
-      <c r="G89" s="28" t="s">
-        <v>841</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="I89" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L89" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M89" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N89" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P89" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q89" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="R89" s="31"/>
+      <c r="R57" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022 MS_Plan Details_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ATDD_Framework_New\mratdd\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C90D25-1B6F-47B1-9426-7E5ECB645284}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1DD08-0732-4273-981F-FCC96AEE4CA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10854" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10378" uniqueCount="881">
   <si>
     <t>name</t>
   </si>
@@ -20975,9 +20975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA9E695-6764-4206-97EA-9D495A88E202}">
   <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35112,9 +35112,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -35198,7 +35198,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>7</v>
@@ -35207,19 +35207,19 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>177</v>
@@ -35251,7 +35251,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>8</v>
@@ -35260,19 +35260,19 @@
         <v>152</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>186</v>
@@ -35304,7 +35304,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>9</v>
@@ -35313,19 +35313,19 @@
         <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>179</v>
@@ -35357,7 +35357,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>10</v>
@@ -35366,19 +35366,19 @@
         <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>178</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>11</v>
@@ -35419,19 +35419,19 @@
         <v>145</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>180</v>
@@ -35463,40 +35463,40 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>471</v>
+        <v>799</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>786</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>429</v>
+      <c r="D7" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>177</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>193</v>
@@ -35516,40 +35516,40 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>472</v>
+        <v>800</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>8</v>
+        <v>787</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>429</v>
+      <c r="D8" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>743</v>
+        <v>810</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>186</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>193</v>
@@ -35569,84 +35569,84 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>473</v>
+        <v>801</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>9</v>
+        <v>788</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>429</v>
+        <v>145</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>744</v>
+        <v>814</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>474</v>
+        <v>804</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>429</v>
+        <v>789</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>745</v>
+        <v>811</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>57</v>
@@ -35658,48 +35658,48 @@
         <v>41</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>475</v>
+        <v>805</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>429</v>
+        <v>790</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>428</v>
+        <v>820</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>746</v>
+        <v>809</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>57</v>
@@ -35711,13 +35711,13 @@
         <v>41</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>185</v>
@@ -35728,31 +35728,31 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>478</v>
+        <v>806</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>430</v>
+        <v>793</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>509</v>
+        <v>820</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>57</v>
@@ -35767,45 +35767,45 @@
         <v>42</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>479</v>
+        <v>807</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>430</v>
+        <v>794</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>509</v>
+        <v>820</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>750</v>
+        <v>816</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>57</v>
@@ -35820,45 +35820,45 @@
         <v>42</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>480</v>
+        <v>808</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>430</v>
+        <v>791</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>783</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>784</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>509</v>
+        <v>820</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>751</v>
+        <v>813</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J14" s="27" t="s">
         <v>57</v>
@@ -35873,116 +35873,116 @@
         <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>481</v>
+        <v>862</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>10</v>
+        <v>786</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>430</v>
+        <v>151</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>509</v>
+        <v>836</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>482</v>
+        <v>863</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>11</v>
+        <v>787</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>430</v>
+        <v>152</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>509</v>
+        <v>836</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>753</v>
+        <v>840</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K16" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="N16" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>185</v>
@@ -35991,51 +35991,51 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>485</v>
+        <v>864</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>7</v>
+        <v>848</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>432</v>
+        <v>148</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>779</v>
+        <v>849</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M17" s="27" t="s">
         <v>193</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>185</v>
@@ -36043,43 +36043,44 @@
       <c r="Q17" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>486</v>
+        <v>865</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>8</v>
+        <v>788</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>432</v>
+        <v>145</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>431</v>
+        <v>836</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>780</v>
+        <v>841</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>193</v>
@@ -36088,7 +36089,7 @@
         <v>44</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>185</v>
@@ -36097,263 +36098,263 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>487</v>
+        <v>868</v>
       </c>
       <c r="B19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>789</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>870</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="I19" s="28" t="s">
+      <c r="C21" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N19" s="27" t="s">
+      <c r="J21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O21" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="P19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q19" s="27" t="s">
+      <c r="P21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q21" s="27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B20" s="26" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>871</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="I20" s="28" t="s">
+      <c r="C22" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N20" s="27" t="s">
+      <c r="J22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O22" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="P20" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="27" t="s">
+      <c r="P22" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q22" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="B21" s="26" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>872</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="I21" s="28" t="s">
+      <c r="C23" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>835</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>836</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>845</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>493</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>186</v>
-      </c>
       <c r="J23" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N23" s="27" t="s">
         <v>44</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>185</v>
@@ -36362,157 +36363,158 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>494</v>
+        <v>873</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>433</v>
+        <v>846</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>837</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>835</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>510</v>
+        <v>836</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="R24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>775</v>
+        <v>57</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>775</v>
+        <v>58</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>775</v>
+        <v>41</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>775</v>
+        <v>42</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>185</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F26" s="27" t="s">
-      